--- a/weekly_online_paper_metrices/all_Phenomics_paper_metrics.xlsx
+++ b/weekly_online_paper_metrices/all_Phenomics_paper_metrics.xlsx
@@ -454,7 +454,7 @@
         </is>
       </c>
       <c r="G2">
-        <v>423</v>
+        <v>470</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -474,7 +474,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="G3">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -528,7 +528,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="G4">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -582,7 +582,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="G5">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="G6">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -690,7 +690,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
         </is>
       </c>
       <c r="G7">
-        <v>346</v>
+        <v>376</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -744,7 +744,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="G8">
-        <v>465</v>
+        <v>505</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -798,7 +798,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="G9">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="G10">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -906,7 +906,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="G11">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -960,7 +960,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="G12">
-        <v>654</v>
+        <v>688</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="G13">
-        <v>1474</v>
+        <v>1561</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="G14">
-        <v>429</v>
+        <v>458</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="G15">
-        <v>512</v>
+        <v>538</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="G16">
-        <v>460</v>
+        <v>492</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
         </is>
       </c>
       <c r="G17">
-        <v>565</v>
+        <v>589</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="G18">
-        <v>719</v>
+        <v>808</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="G19">
-        <v>645</v>
+        <v>675</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
         </is>
       </c>
       <c r="G20">
-        <v>547</v>
+        <v>570</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -1505,10 +1505,10 @@
         </is>
       </c>
       <c r="G21">
-        <v>920</v>
+        <v>951</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="G22">
-        <v>1303</v>
+        <v>1337</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -1618,7 +1618,7 @@
         </is>
       </c>
       <c r="G23">
-        <v>744</v>
+        <v>780</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="G24">
-        <v>1408</v>
+        <v>1437</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="G25">
-        <v>884</v>
+        <v>912</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -1790,7 +1790,7 @@
         </is>
       </c>
       <c r="G26">
-        <v>917</v>
+        <v>945</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
         </is>
       </c>
       <c r="G27">
-        <v>963</v>
+        <v>988</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
         </is>
       </c>
       <c r="G28">
-        <v>943</v>
+        <v>981</v>
       </c>
       <c r="H28">
         <v>6</v>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="G29">
-        <v>689</v>
+        <v>715</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G30">
-        <v>912</v>
+        <v>938</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -2075,7 +2075,7 @@
         </is>
       </c>
       <c r="G31">
-        <v>851</v>
+        <v>888</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -2100,7 +2100,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -2134,7 +2134,7 @@
         </is>
       </c>
       <c r="G32">
-        <v>744</v>
+        <v>770</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="G33">
-        <v>853</v>
+        <v>882</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="G34">
-        <v>1597</v>
+        <v>1658</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
         </is>
       </c>
       <c r="G35">
-        <v>868</v>
+        <v>897</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
         </is>
       </c>
       <c r="G36">
-        <v>586</v>
+        <v>616</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
         </is>
       </c>
       <c r="G37">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -2449,7 +2449,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -2483,10 +2483,10 @@
         </is>
       </c>
       <c r="G38">
-        <v>3072</v>
+        <v>3125</v>
       </c>
       <c r="H38">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I38">
         <v>7</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="G39">
-        <v>664</v>
+        <v>689</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
         </is>
       </c>
       <c r="G40">
-        <v>597</v>
+        <v>628</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -2660,7 +2660,7 @@
         </is>
       </c>
       <c r="G41">
-        <v>698</v>
+        <v>724</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -2719,7 +2719,7 @@
         </is>
       </c>
       <c r="G42">
-        <v>1045</v>
+        <v>1079</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2744,7 +2744,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -2778,7 +2778,7 @@
         </is>
       </c>
       <c r="G43">
-        <v>925</v>
+        <v>958</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -2837,7 +2837,7 @@
         </is>
       </c>
       <c r="G44">
-        <v>1688</v>
+        <v>1738</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="G45">
-        <v>499</v>
+        <v>524</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -2955,7 +2955,7 @@
         </is>
       </c>
       <c r="G46">
-        <v>862</v>
+        <v>895</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -3014,7 +3014,7 @@
         </is>
       </c>
       <c r="G47">
-        <v>1111</v>
+        <v>1139</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -3073,7 +3073,7 @@
         </is>
       </c>
       <c r="G48">
-        <v>1334</v>
+        <v>1369</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="G49">
-        <v>705</v>
+        <v>735</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -3191,7 +3191,7 @@
         </is>
       </c>
       <c r="G50">
-        <v>2130</v>
+        <v>2162</v>
       </c>
       <c r="H50">
         <v>4</v>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -3250,7 +3250,7 @@
         </is>
       </c>
       <c r="G51">
-        <v>1395</v>
+        <v>1425</v>
       </c>
       <c r="H51">
         <v>3</v>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
         </is>
       </c>
       <c r="G52">
-        <v>1147</v>
+        <v>1174</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -3334,7 +3334,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -3368,7 +3368,7 @@
         </is>
       </c>
       <c r="G53">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -3388,7 +3388,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="G54">
-        <v>1319</v>
+        <v>1347</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -3481,7 +3481,7 @@
         </is>
       </c>
       <c r="G55">
-        <v>2056</v>
+        <v>2085</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
         </is>
       </c>
       <c r="G56">
-        <v>1804</v>
+        <v>1841</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -3599,7 +3599,7 @@
         </is>
       </c>
       <c r="G57">
-        <v>821</v>
+        <v>851</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -3624,7 +3624,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="G58">
-        <v>1306</v>
+        <v>1332</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -3683,7 +3683,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="G59">
-        <v>1338</v>
+        <v>1369</v>
       </c>
       <c r="H59">
         <v>7</v>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -3776,7 +3776,7 @@
         </is>
       </c>
       <c r="G60">
-        <v>1296</v>
+        <v>1323</v>
       </c>
       <c r="H60">
         <v>4</v>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="G61">
-        <v>1204</v>
+        <v>1233</v>
       </c>
       <c r="H61">
         <v>6</v>
@@ -3860,7 +3860,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -3894,7 +3894,7 @@
         </is>
       </c>
       <c r="G62">
-        <v>1134</v>
+        <v>1162</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -3919,7 +3919,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -3953,7 +3953,7 @@
         </is>
       </c>
       <c r="G63">
-        <v>918</v>
+        <v>946</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="G64">
-        <v>1645</v>
+        <v>1681</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="G65">
-        <v>1186</v>
+        <v>1209</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -4130,7 +4130,7 @@
         </is>
       </c>
       <c r="G66">
-        <v>1148</v>
+        <v>1171</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -4155,7 +4155,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -4189,7 +4189,7 @@
         </is>
       </c>
       <c r="G67">
-        <v>1612</v>
+        <v>1641</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -4214,7 +4214,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -4248,7 +4248,7 @@
         </is>
       </c>
       <c r="G68">
-        <v>2127</v>
+        <v>2167</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -4273,7 +4273,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -4307,7 +4307,7 @@
         </is>
       </c>
       <c r="G69">
-        <v>2695</v>
+        <v>2735</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -4332,7 +4332,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -4366,7 +4366,7 @@
         </is>
       </c>
       <c r="G70">
-        <v>1480</v>
+        <v>1507</v>
       </c>
       <c r="H70">
         <v>5</v>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
         </is>
       </c>
       <c r="G71">
-        <v>2960</v>
+        <v>2993</v>
       </c>
       <c r="H71">
         <v>3</v>
@@ -4450,7 +4450,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -4484,7 +4484,7 @@
         </is>
       </c>
       <c r="G72">
-        <v>980</v>
+        <v>1003</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="G73">
-        <v>2525</v>
+        <v>2554</v>
       </c>
       <c r="H73">
         <v>3</v>
@@ -4568,7 +4568,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -4602,7 +4602,7 @@
         </is>
       </c>
       <c r="G74">
-        <v>1791</v>
+        <v>1826</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -4627,7 +4627,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -4661,7 +4661,7 @@
         </is>
       </c>
       <c r="G75">
-        <v>1515</v>
+        <v>1545</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -4720,10 +4720,10 @@
         </is>
       </c>
       <c r="G76">
-        <v>3520</v>
+        <v>3569</v>
       </c>
       <c r="H76">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I76">
         <v>1</v>
@@ -4745,7 +4745,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -4779,7 +4779,7 @@
         </is>
       </c>
       <c r="G77">
-        <v>2076</v>
+        <v>2103</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -4804,7 +4804,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -4838,7 +4838,7 @@
         </is>
       </c>
       <c r="G78">
-        <v>4372</v>
+        <v>4409</v>
       </c>
       <c r="H78">
         <v>3</v>
@@ -4863,7 +4863,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
         </is>
       </c>
       <c r="G79">
-        <v>3197</v>
+        <v>3243</v>
       </c>
       <c r="H79">
         <v>7</v>
@@ -4922,7 +4922,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4956,7 @@
         </is>
       </c>
       <c r="G80">
-        <v>2071</v>
+        <v>2101</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -4981,7 +4981,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="G81">
-        <v>4032</v>
+        <v>4063</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -5040,7 +5040,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-09</t>
         </is>
       </c>
     </row>

--- a/weekly_online_paper_metrices/all_Phenomics_paper_metrics.xlsx
+++ b/weekly_online_paper_metrices/all_Phenomics_paper_metrics.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M81"/>
+  <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -427,12 +427,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Proteomic Portrait of Human Lymphoma Reveals Protein Molecular Fingerprint of Disease Specific Subtypes and Progression</t>
+          <t>Deep Learning-Assisted Quantitative Susceptibility Mapping as a Tool for Grading and Molecular Subtyping of Gliomas</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00075-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00087-6</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -441,30 +441,30 @@
         </is>
       </c>
       <c r="D2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2022-12-12</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="G2">
-        <v>470</v>
+        <v>22</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Wei Yan, Jie Jin</t>
+          <t>Xiao-Yong Zhang, Yan Ren</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -474,19 +474,19 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>In Silico Pipeline to Identify Tumor-Specific Antigens for Cancer Immunotherapy Using Exome Sequencing Data</t>
+          <t>Proteomic Portrait of Human Lymphoma Reveals Protein Molecular Fingerprint of Disease Specific Subtypes and Progression</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00084-9</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00075-w</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -504,21 +504,21 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2022-12-08</t>
+          <t>2022-12-12</t>
         </is>
       </c>
       <c r="G3">
-        <v>285</v>
+        <v>515</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
+          <t>Wei Yan, Jie Jin</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -528,19 +528,19 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A Genome-Wide Association Study for Susceptibility to Axial Length in Highly Myopic Eyes</t>
+          <t>In Silico Pipeline to Identify Tumor-Specific Antigens for Cancer Immunotherapy Using Exome Sequencing Data</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00082-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00084-9</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -558,21 +558,21 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2022-12-08</t>
         </is>
       </c>
       <c r="G4">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Xiangjia Zhu, Yi Lu</t>
+          <t>Jose Arturo Molina-Mora</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -582,24 +582,24 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Measurement of Cerebral Oxygen Extraction Fraction Using Quantitative BOLD Approach: A Review</t>
+          <t>A Genome-Wide Association Study for Susceptibility to Axial Length in Highly Myopic Eyes</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00081-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00082-x</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D5">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="G5">
-        <v>256</v>
+        <v>359</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -626,7 +626,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>He Wang</t>
+          <t>Xiangjia Zhu, Yi Lu</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -636,24 +636,24 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Correction to: Increased Soluble Epoxide Hydrolase Activity Positively Correlates with Mortality in Heart Failure Patients with Preserved Ejection Fraction: Evidence from Metabolomics</t>
+          <t>Measurement of Cerebral Oxygen Extraction Fraction Using Quantitative BOLD Approach: A Review</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00088-5</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00081-y</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D6">
@@ -661,26 +661,26 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-12-05</t>
         </is>
       </c>
       <c r="G6">
-        <v>158</v>
+        <v>289</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Xu Zhang, Dao Wen Wang</t>
+          <t>He Wang</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -690,24 +690,24 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Autophagic Clearance of Lipid Droplets Alters Metabolic Phenotypes in a Genetic Obesity–Diabetes Mouse Model</t>
+          <t>Correction to: Increased Soluble Epoxide Hydrolase Activity Positively Correlates with Mortality in Heart Failure Patients with Preserved Ejection Fraction: Evidence from Metabolomics</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00080-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00088-5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="D7">
@@ -720,21 +720,21 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2022-11-19</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="G7">
-        <v>376</v>
+        <v>190</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Boxun Lu, Yuhua Fu</t>
+          <t>Xu Zhang, Dao Wen Wang</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -744,19 +744,19 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A Meta-Analysis of the Genome-Wide Association Studies on Two Genetically Correlated Phenotypes Suggests Four New Risk Loci for Headaches</t>
+          <t>Autophagic Clearance of Lipid Droplets Alters Metabolic Phenotypes in a Genetic Obesity–Diabetes Mouse Model</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00078-7</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00080-z</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -774,21 +774,21 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-19</t>
         </is>
       </c>
       <c r="G8">
-        <v>505</v>
+        <v>417</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Weihua Meng</t>
+          <t>Boxun Lu, Yuhua Fu</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -798,19 +798,19 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Increased Soluble Epoxide Hydrolase Activity Positively Correlates with Mortality in Heart Failure Patients with Preserved Ejection Fraction: Evidence from Metabolomics</t>
+          <t>A Meta-Analysis of the Genome-Wide Association Studies on Two Genetically Correlated Phenotypes Suggests Four New Risk Loci for Headaches</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00069-8</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00078-7</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -823,26 +823,26 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="G9">
-        <v>443</v>
+        <v>552</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Chen Chen, Xu Zhang, Dao Wen Wang</t>
+          <t>Weihua Meng</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -852,19 +852,19 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Adjustment for the Age- and Gender-Related Metabolic Changes Improves the Differential Diagnosis of Parkinsonism</t>
+          <t>Increased Soluble Epoxide Hydrolase Activity Positively Correlates with Mortality in Heart Failure Patients with Preserved Ejection Fraction: Evidence from Metabolomics</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00079-6</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00069-8</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -882,11 +882,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="G10">
-        <v>356</v>
+        <v>487</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -896,7 +896,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Fengtao Liu, Chuantao Zuo</t>
+          <t>Chen Chen, Xu Zhang, Dao Wen Wang</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -906,19 +906,19 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dopaminergic Dysfunction and Glucose Metabolism Characteristics in Parkin-Induced Early-Onset Parkinson’s Disease Compared to Genetically Undetermined Early-Onset Parkinson’s Disease</t>
+          <t>Adjustment for the Age- and Gender-Related Metabolic Changes Improves the Differential Diagnosis of Parkinsonism</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00077-8</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00079-6</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -936,11 +936,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2022-10-22</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="G11">
-        <v>432</v>
+        <v>386</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -950,7 +950,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Jian-Jun Wu, Chuan-Tao Zuo, Jian Wang</t>
+          <t>Fengtao Liu, Chuantao Zuo</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -960,24 +960,24 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Chinese Medicine Phenomics (Chinmedphenomics): Personalized, Precise and Promising</t>
+          <t>Dopaminergic Dysfunction and Glucose Metabolism Characteristics in Parkin-Induced Early-Onset Parkinson’s Disease Compared to Genetically Undetermined Early-Onset Parkinson’s Disease</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00074-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00077-8</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D12">
@@ -990,11 +990,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2022-10-14</t>
+          <t>2022-10-22</t>
         </is>
       </c>
       <c r="G12">
-        <v>688</v>
+        <v>466</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1004,34 +1004,29 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Dezhi Tang, Yongjun Wang</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>Jian-Jun Wu, Chuan-Tao Zuo, Jian Wang</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Skin Microbiome, Metabolome and Skin Phenome, from the Perspectives of Skin as an Ecosystem</t>
+          <t>Chinese Medicine Phenomics (Chinmedphenomics): Personalized, Precise and Promising</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00073-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00074-x</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1049,21 +1044,21 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2022-10-14</t>
         </is>
       </c>
       <c r="G13">
-        <v>1561</v>
+        <v>729</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Jingjing Xia</t>
+          <t>Dezhi Tang, Yongjun Wang</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1078,24 +1073,24 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Influence of Gender on Tau Precipitation in Alzheimer’s Disease According to ATN Research Framework</t>
+          <t>Skin Microbiome, Metabolome and Skin Phenome, from the Perspectives of Skin as an Ecosystem</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00076-9</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00073-y</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D14">
@@ -1112,39 +1107,44 @@
         </is>
       </c>
       <c r="G14">
-        <v>458</v>
+        <v>1662</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Chuantao Zuo, Jiehui Jiang</t>
+          <t>Jiucun Wang, Jingjing Xia</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>6</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Causal Association of Cardiac Function by Magnetic Resonance Imaging with Frailty Index: A Mendelian Randomization Study</t>
+          <t>Influence of Gender on Tau Precipitation in Alzheimer’s Disease According to ATN Research Framework</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00072-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00076-9</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1157,16 +1157,16 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2022-09-29</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="G15">
-        <v>538</v>
+        <v>489</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1176,34 +1176,29 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Xuehui Sun, Xiaofeng Wang</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>Chuantao Zuo, Jiehui Jiang</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Large-Scale Proteomics Data Reveal Integrated Prognosis-Related Protein Signatures and Role of SMAD4 and RAD50 in Prognosis and Immune Infiltrations of Prostate Cancer Microenvironment</t>
+          <t>Causal Association of Cardiac Function by Magnetic Resonance Imaging with Frailty Index: A Mendelian Randomization Study</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00070-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00072-z</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1221,21 +1216,21 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2022-09-29</t>
         </is>
       </c>
       <c r="G16">
-        <v>492</v>
+        <v>583</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Yuan-Yuan Qu, Hai-Liang Zhang, Ding-Wei Ye</t>
+          <t>Xuehui Sun, Xiaofeng Wang</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1250,24 +1245,24 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>High-Resolution and Multidimensional Phenotypes Can Complement Genomics Data to Diagnose Diseases in the Neonatal Population</t>
+          <t>Large-Scale Proteomics Data Reveal Integrated Prognosis-Related Protein Signatures and Role of SMAD4 and RAD50 in Prognosis and Immune Infiltrations of Prostate Cancer Microenvironment</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00071-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00070-1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D17">
@@ -1280,48 +1275,53 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2022-09-09</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="G17">
-        <v>589</v>
+        <v>528</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Wenhao Zhou</t>
+          <t>Yuan-Yuan Qu, Hai-Liang Zhang, Ding-Wei Ye</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>6</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>International Nuclear Medicine Consensus on the Clinical Use of Amyloid Positron Emission Tomography in Alzheimer’s Disease</t>
+          <t>High-Resolution and Multidimensional Phenotypes Can Complement Genomics Data to Diagnose Diseases in the Neonatal Population</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00068-9</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00071-0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D18">
@@ -1329,16 +1329,16 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2022-08-26</t>
+          <t>2022-09-09</t>
         </is>
       </c>
       <c r="G18">
-        <v>808</v>
+        <v>625</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Mei Tian, Chuantao Zuo, Hong Zhang</t>
+          <t>Wenhao Zhou</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1358,19 +1358,19 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Low Concordance Between Blood Pressures Measured in Periodic Health Examinations and in a Workplace-Based Hypertension Management Program</t>
+          <t>International Nuclear Medicine Consensus on the Clinical Use of Amyloid Positron Emission Tomography in Alzheimer’s Disease</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00067-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00068-9</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1388,48 +1388,43 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2022-08-18</t>
+          <t>2022-08-26</t>
         </is>
       </c>
       <c r="G19">
-        <v>675</v>
+        <v>877</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Shouling Wu, An Pan</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>Mei Tian, Chuantao Zuo, Hong Zhang</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Cross-sectional Exploration of the Relationship Between Glutamate Abnormalities and Tic Disorder Severity Using Proton Magnetic Resonance Spectroscopy</t>
+          <t>Low Concordance Between Blood Pressures Measured in Periodic Health Examinations and in a Workplace-Based Hypertension Management Program</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00064-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00067-w</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1447,43 +1442,48 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2022-08-16</t>
+          <t>2022-08-18</t>
         </is>
       </c>
       <c r="G20">
-        <v>570</v>
+        <v>709</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Xiao-Yong Zhang, Min Wu</t>
+          <t>Shouling Wu, An Pan</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>6</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Human Genetic Variants Associated with COVID-19 Severity are Enriched in Immune and Epithelium Regulatory Networks</t>
+          <t>Cross-sectional Exploration of the Relationship Between Glutamate Abnormalities and Tic Disorder Severity Using Proton Magnetic Resonance Spectroscopy</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00066-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00064-z</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1501,53 +1501,48 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2022-08-16</t>
         </is>
       </c>
       <c r="G21">
-        <v>951</v>
+        <v>596</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>2</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Yong Wang</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>Xiao-Yong Zhang, Min Wu</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>6</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Report on the 3rd Board Meeting of the International Human Phenome Consortium</t>
+          <t>Human Genetic Variants Associated with COVID-19 Severity are Enriched in Immune and Epithelium Regulatory Networks</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00065-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00066-x</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Meeting Report</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D22">
@@ -1555,53 +1550,58 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2022-08-13</t>
         </is>
       </c>
       <c r="G22">
-        <v>1337</v>
+        <v>991</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Mei Tian, Li Jin</t>
+          <t>Yong Wang</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>6</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Palmprint Phenotype Feature Extraction and Classification Based on Deep Learning</t>
+          <t>Report on the 3rd Board Meeting of the International Human Phenome Consortium</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00063-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00065-y</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Meeting Report</t>
         </is>
       </c>
       <c r="D23">
@@ -1618,7 +1618,7 @@
         </is>
       </c>
       <c r="G23">
-        <v>780</v>
+        <v>1369</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1628,39 +1628,34 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Sijia Wang, Guangtao Zhai</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>Mei Tian, Li Jin</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Mitochondria as the Essence of Yang Qi in the Human Body</t>
+          <t>Palmprint Phenotype Feature Extraction and Classification Based on Deep Learning</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00060-3</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00063-0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D24">
@@ -1673,21 +1668,21 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2022-06-16</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="G24">
-        <v>1437</v>
+        <v>815</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Junjie Luo, Zhenglong Gu</t>
+          <t>Sijia Wang, Guangtao Zhai</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1697,29 +1692,29 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Multi-omics Analysis of Young Portulaca oleracea L. Plants’ Responses to High NaCl Doses Reveals Insights into Pathways and Genes Responsive to Salinity Stress in this Halophyte Species</t>
+          <t>Mitochondria as the Essence of Yang Qi in the Human Body</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00061-2</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00060-3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D25">
@@ -1732,43 +1727,48 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2022-06-15</t>
+          <t>2022-06-16</t>
         </is>
       </c>
       <c r="G25">
-        <v>912</v>
+        <v>1483</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Manoel Teixeira Souza Júnior</t>
+          <t>Junjie Luo, Zhenglong Gu</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>5</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Plasma Lipidomic Subclasses and Risk of Hypertension in Middle-Aged and Elderly Chinese</t>
+          <t>Multi-omics Analysis of Young Portulaca oleracea L. Plants’ Responses to High NaCl Doses Reveals Insights into Pathways and Genes Responsive to Salinity Stress in this Halophyte Species</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00057-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00061-2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1786,11 +1786,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2022-06-14</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="G26">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1800,34 +1800,29 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Rong Zeng, Liang Sun, Xu Lin</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>Manoel Teixeira Souza Júnior</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Identification of Germline Mutations in East-Asian Young Never-Smokers with Lung Adenocarcinoma by Whole-Exome Sequencing</t>
+          <t>Plasma Lipidomic Subclasses and Risk of Hypertension in Middle-Aged and Elderly Chinese</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00062-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00057-y</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1845,43 +1840,48 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2022-06-11</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="G27">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Libing Shen, Yihua Sun, Yang Zhang</t>
+          <t>Rong Zeng, Liang Sun, Xu Lin</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>5</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Clinical Profiles at the Time of Diagnosis of SARS-CoV-2 Infection in Costa Rica During the Pre-vaccination Period Using a Machine Learning Approach</t>
+          <t>Identification of Germline Mutations in East-Asian Young Never-Smokers with Lung Adenocarcinoma by Whole-Exome Sequencing</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00058-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00062-1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1899,48 +1899,43 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2022-06-07</t>
+          <t>2022-06-11</t>
         </is>
       </c>
       <c r="G28">
-        <v>981</v>
+        <v>1017</v>
       </c>
       <c r="H28">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>Libing Shen, Yihua Sun, Yang Zhang</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>5</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Metabolic Molecular Diagnosis of Inflammatory Bowel Disease by Synergistical Promotion of Layered Titania Nanosheets with Graphitized Carbon</t>
+          <t>Clinical Profiles at the Time of Diagnosis of SARS-CoV-2 Infection in Costa Rica During the Pre-vaccination Period Using a Machine Learning Approach</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00055-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00058-x</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1958,21 +1953,21 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-06-07</t>
         </is>
       </c>
       <c r="G29">
-        <v>715</v>
+        <v>1009</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Chunhui Deng, Nianrong Sun, Hao Wu</t>
+          <t>Jose Arturo Molina-Mora</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -1982,29 +1977,29 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Emerging Regulatory Mechanisms of N6-Methyladenosine Modification in Cancer Metastasis</t>
+          <t>Metabolic Molecular Diagnosis of Inflammatory Bowel Disease by Synergistical Promotion of Layered Titania Nanosheets with Graphitized Carbon</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00043-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00055-0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D30">
@@ -2012,48 +2007,53 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="G30">
-        <v>938</v>
+        <v>743</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Lunxiu Qin</t>
+          <t>Chunhui Deng, Nianrong Sun, Hao Wu</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>4</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Deep Clinical Phenotyping of Parkinson’s Disease: Towards a New Era of Research and Clinical Care</t>
+          <t>Emerging Regulatory Mechanisms of N6-Methyladenosine Modification in Cancer Metastasis</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00051-4</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00043-w</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2071,53 +2071,48 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2022-05-21</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="G31">
-        <v>888</v>
+        <v>968</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Jian Wang</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>Lunxiu Qin</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A Hashing-Based Framework for Enhancing Cluster Delineation of High-Dimensional Single-Cell Profiles</t>
+          <t>Deep Clinical Phenotyping of Parkinson’s Disease: Towards a New Era of Research and Clinical Care</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00056-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00051-4</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D32">
@@ -2130,11 +2125,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>2022-05-21</t>
         </is>
       </c>
       <c r="G32">
-        <v>770</v>
+        <v>929</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -2144,7 +2139,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Xianting Ding</t>
+          <t>Jian Wang</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2159,19 +2154,19 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Nascent Proteome and Glycoproteome Reveal the Inhibition Role of ALG1 in Hepatocellular Carcinoma Cell Migration</t>
+          <t>A Hashing-Based Framework for Enhancing Cluster Delineation of High-Dimensional Single-Cell Profiles</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00050-5</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00056-z</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2189,21 +2184,21 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2022-05-14</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="G33">
-        <v>882</v>
+        <v>802</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Hong Shu, Haojie Lu</t>
+          <t>Xianting Ding</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2213,24 +2208,24 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Biomarkers and Disease Trajectories Influencing Women’s Health: Results from the UK Biobank Cohort</t>
+          <t>Nascent Proteome and Glycoproteome Reveal the Inhibition Role of ALG1 in Hepatocellular Carcinoma Cell Migration</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00054-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00050-5</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2248,21 +2243,21 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-05-14</t>
         </is>
       </c>
       <c r="G34">
-        <v>1658</v>
+        <v>917</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Haomin Yang, Weimin Ye</t>
+          <t>Hong Shu, Haojie Lu</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2272,24 +2267,24 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Causal Effect of Genetically Determined Blood Copper Concentrations on Multiple Diseases: A Mendelian Randomization and Phenome-Wide Association Study</t>
+          <t>Biomarkers and Disease Trajectories Influencing Women’s Health: Results from the UK Biobank Cohort</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00052-3</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00054-1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2307,21 +2302,21 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="G35">
-        <v>897</v>
+        <v>1712</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Longman Li, Xiaobo Yang</t>
+          <t>Haomin Yang, Weimin Ye</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2331,24 +2326,24 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Three Novel Mutations of Microphthalmos Identified in Two Chinese Families</t>
+          <t>Causal Effect of Genetically Determined Blood Copper Concentrations on Multiple Diseases: A Mendelian Randomization and Phenome-Wide Association Study</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00053-2</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00052-3</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2370,7 +2365,7 @@
         </is>
       </c>
       <c r="G36">
-        <v>616</v>
+        <v>926</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -2380,7 +2375,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Yi Lu, Tianyu Zheng</t>
+          <t>Longman Li, Xiaobo Yang</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2395,24 +2390,24 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Correction to: Welcome to the Phenomics Journal</t>
+          <t>Three Novel Mutations of Microphthalmos Identified in Two Chinese Families</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00059-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00053-2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D37">
@@ -2425,11 +2420,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="G37">
-        <v>339</v>
+        <v>640</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -2439,34 +2434,39 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Li Jin</t>
+          <t>Yi Lu, Tianyu Zheng</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>4</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A Comprehensive Review of High Throughput Phenotyping and Machine Learning for Plant Stress Phenotyping</t>
+          <t>Correction to: Welcome to the Phenomics Journal</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00048-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00059-w</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="D38">
@@ -2474,58 +2474,53 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2022-04</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2022-04-04</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="G38">
-        <v>3125</v>
+        <v>364</v>
       </c>
       <c r="H38">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Karansher S. Sandhu</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>Li Jin</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Global Quantitative Proteomics Analysis Reveals the Downstream Signaling Networks of Msx1 and Msx2 in Myoblast Differentiation</t>
+          <t>A Comprehensive Review of High Throughput Phenotyping and Machine Learning for Plant Stress Phenotyping</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00049-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00048-z</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D39">
@@ -2533,26 +2528,26 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2022-03</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="G39">
-        <v>689</v>
+        <v>3177</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Yenan Yang</t>
+          <t>Karansher S. Sandhu</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2567,19 +2562,19 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Basic Phenotyping of Male Fertility from 2019 to 2020 at the Human Sperm Bank of Fudan University</t>
+          <t>Global Quantitative Proteomics Analysis Reveals the Downstream Signaling Networks of Msx1 and Msx2 in Myoblast Differentiation</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00047-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00049-y</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2592,16 +2587,16 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2022-02-28</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="G40">
-        <v>628</v>
+        <v>723</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2611,7 +2606,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Feng Jiang</t>
+          <t>Yenan Yang</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2626,19 +2621,19 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A Preliminary Study on the Evaluation of Human Sperm Head Morphology with a Domestic Digital Holographic Image System</t>
+          <t>Basic Phenotyping of Male Fertility from 2019 to 2020 at the Human Sperm Bank of Fudan University</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00046-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00047-0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2656,17 +2651,17 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2022-02-26</t>
+          <t>2022-02-28</t>
         </is>
       </c>
       <c r="G41">
-        <v>724</v>
+        <v>655</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2680,29 +2675,29 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Positron Emission Tomography Molecular Imaging for Phenotyping and Management of Lymphoma</t>
+          <t>A Preliminary Study on the Evaluation of Human Sperm Head Morphology with a Domestic Digital Holographic Image System</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00042-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00046-1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D42">
@@ -2715,21 +2710,21 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2022-02-24</t>
+          <t>2022-02-26</t>
         </is>
       </c>
       <c r="G42">
-        <v>1079</v>
+        <v>752</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Hong Zhang, Ali Cahid Civelek, Mei Tian</t>
+          <t>Feng Jiang</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2744,24 +2739,24 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Immunosuppression Induced by Brain-Specific HDAC6 Knockdown Improves Aging Performance in Drosophila melanogaster</t>
+          <t>Positron Emission Tomography Molecular Imaging for Phenotyping and Management of Lymphoma</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00045-2</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00042-x</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D43">
@@ -2774,11 +2769,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2022-02-23</t>
+          <t>2022-02-24</t>
         </is>
       </c>
       <c r="G43">
-        <v>958</v>
+        <v>1115</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2788,7 +2783,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Jing-Dong J. Han, Wei Yu</t>
+          <t>Hong Zhang, Ali Cahid Civelek, Mei Tian</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2798,29 +2793,29 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Recent Advances in Understanding of Alzheimer’s Disease Progression Through Mass Spectrometry-Based Metabolomics</t>
+          <t>Immunosuppression Induced by Brain-Specific HDAC6 Knockdown Improves Aging Performance in Drosophila melanogaster</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00036-9</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00045-2</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D44">
@@ -2833,21 +2828,21 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2022-02-22</t>
+          <t>2022-02-23</t>
         </is>
       </c>
       <c r="G44">
-        <v>1738</v>
+        <v>991</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Lingjun Li</t>
+          <t>Jing-Dong J. Han, Wei Yu</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2857,29 +2852,29 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Preoperative Characteristics of Ocular Biometry in Children with Unilateral Congenital Cataracts</t>
+          <t>Recent Advances in Understanding of Alzheimer’s Disease Progression Through Mass Spectrometry-Based Metabolomics</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00040-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00036-9</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D45">
@@ -2896,17 +2891,17 @@
         </is>
       </c>
       <c r="G45">
-        <v>524</v>
+        <v>1778</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Yi Lu</t>
+          <t>Lingjun Li</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2916,24 +2911,24 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Unraveling the Dynamic Integration of Auxin, Brassinosteroid and Gibberellin in Early Shade-Induced Hypocotyl Elongation</t>
+          <t>Preoperative Characteristics of Ocular Biometry in Children with Unilateral Congenital Cataracts</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00044-3</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00040-z</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2951,21 +2946,21 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2022-02-13</t>
+          <t>2022-02-22</t>
         </is>
       </c>
       <c r="G46">
-        <v>895</v>
+        <v>551</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Lin Li</t>
+          <t>Yi Lu</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -2980,19 +2975,19 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Diurnal Circadian Lighting Accumulation Model: A Predictor of the Human Circadian Phase Shift Phenotype</t>
+          <t>Unraveling the Dynamic Integration of Auxin, Brassinosteroid and Gibberellin in Early Shade-Induced Hypocotyl Elongation</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00039-6</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00044-3</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3010,21 +3005,21 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2022-02-11</t>
+          <t>2022-02-13</t>
         </is>
       </c>
       <c r="G47">
-        <v>1139</v>
+        <v>931</v>
       </c>
       <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
         <v>1</v>
       </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Yandan Lin</t>
+          <t>Lin Li</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3034,29 +3029,29 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Optical Imaging of Epigenetic Modifications in Cancer: A Systematic Review</t>
+          <t>Diurnal Circadian Lighting Accumulation Model: A Predictor of the Human Circadian Phase Shift Phenotype</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00041-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00039-6</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D48">
@@ -3069,21 +3064,21 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2022-02-07</t>
+          <t>2022-02-11</t>
         </is>
       </c>
       <c r="G48">
-        <v>1369</v>
+        <v>1174</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Yang Du, Jie Tian</t>
+          <t>Yandan Lin</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3093,29 +3088,29 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Seasonality and Sex-Biased Fluctuation of Birth Weight in Tibetan Populations</t>
+          <t>Optical Imaging of Epigenetic Modifications in Cancer: A Systematic Review</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00038-7</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00041-y</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D49">
@@ -3123,26 +3118,26 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2022-01-31</t>
+          <t>2022-02-07</t>
         </is>
       </c>
       <c r="G49">
-        <v>735</v>
+        <v>1407</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ouzhuluobu, Xuebin Qi, Bing Su</t>
+          <t>Yang Du, Jie Tian</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3152,29 +3147,29 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Why Do We Care More About Disease than Health?</t>
+          <t>Seasonality and Sex-Biased Fluctuation of Birth Weight in Tibetan Populations</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00037-8</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00038-7</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Commentary</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D50">
@@ -3187,21 +3182,21 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2022-01-28</t>
+          <t>2022-01-31</t>
         </is>
       </c>
       <c r="G50">
-        <v>2162</v>
+        <v>766</v>
       </c>
       <c r="H50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Martin Picard</t>
+          <t xml:space="preserve"> Ouzhuluobu, Xuebin Qi, Bing Su</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3211,29 +3206,29 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Recent Progresses in Electrochemical DNA Biosensors for MicroRNA Detection</t>
+          <t>Why Do We Care More About Disease than Health?</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00032-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00037-8</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="D51">
@@ -3246,21 +3241,21 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2022-01-21</t>
+          <t>2022-01-28</t>
         </is>
       </c>
       <c r="G51">
-        <v>1425</v>
+        <v>2214</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Xianting Ding</t>
+          <t>Martin Picard</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3270,29 +3265,29 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Pan-cancer analysis identifies RNA helicase DDX1 as a prognostic marker</t>
+          <t>Recent Progresses in Electrochemical DNA Biosensors for MicroRNA Detection</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00034-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00032-z</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D52">
@@ -3305,21 +3300,21 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2022-01-19</t>
+          <t>2022-01-21</t>
         </is>
       </c>
       <c r="G52">
-        <v>1174</v>
+        <v>1461</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Jixi Li</t>
+          <t>Xianting Ding</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3334,24 +3329,24 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Correction to: N-Glycoproteomics Study of Putative N-Glycoprotein Biomarkers of Drug Resistance in MCF-7/ADR Cells657</t>
+          <t>Pan-cancer analysis identifies RNA helicase DDX1 as a prognostic marker</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00035-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00034-x</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D53">
@@ -3364,11 +3359,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2022-01-17</t>
+          <t>2022-01-19</t>
         </is>
       </c>
       <c r="G53">
-        <v>372</v>
+        <v>1213</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -3378,34 +3373,39 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Yun Chen, Zhixin Tian</t>
+          <t>Jixi Li</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Phenome-Wide Association Analysis Reveals Novel Links Between Genetically Determined Levels of Liver Enzymes and Disease Phenotypes</t>
+          <t>Correction to: N-Glycoproteomics Study of Putative N-Glycoprotein Biomarkers of Drug Resistance in MCF-7/ADR Cells657</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00033-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00035-w</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="D54">
@@ -3418,11 +3418,11 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2022-01-11</t>
+          <t>2022-01-17</t>
         </is>
       </c>
       <c r="G54">
-        <v>1347</v>
+        <v>396</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -3432,39 +3432,34 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Xingdong Chen</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>Yun Chen, Zhixin Tian</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>5</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Mapping Cell Phenomics with Multiparametric Flow Cytometry Assays</t>
+          <t>Phenome-Wide Association Analysis Reveals Novel Links Between Genetically Determined Levels of Liver Enzymes and Disease Phenotypes</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00031-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00033-y</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D55">
@@ -3477,11 +3472,11 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2022-01-09</t>
+          <t>2022-01-11</t>
         </is>
       </c>
       <c r="G55">
-        <v>2085</v>
+        <v>1383</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -3491,7 +3486,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Shan Jiang, Jing Wang, Ying Wan</t>
+          <t>Xingdong Chen</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3501,24 +3496,24 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Beyond Mendelian Inheritance: Genetic Buffering and Phenotype Variability</t>
+          <t>Mapping Cell Phenomics with Multiparametric Flow Cytometry Assays</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00030-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00031-0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3527,30 +3522,30 @@
         </is>
       </c>
       <c r="D56">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-12-27</t>
+          <t>2022-01-09</t>
         </is>
       </c>
       <c r="G56">
-        <v>1841</v>
+        <v>2132</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Andrea Rossi, Zacharias Kontarakis</t>
+          <t>Shan Jiang, Jing Wang, Ying Wan</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3560,29 +3555,29 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CYP2C9*3 Increases the Ibuprofen Response of Hemodynamically Significant Patent Ductus Arteriosus in the Infants with Gestational Age of More Than 30 Weeks</t>
+          <t>Beyond Mendelian Inheritance: Genetic Buffering and Phenotype Variability</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00028-9</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00030-1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D57">
@@ -3590,26 +3585,26 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-11-11</t>
+          <t>2021-12-27</t>
         </is>
       </c>
       <c r="G57">
-        <v>851</v>
+        <v>1892</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Wenhao Zhou</t>
+          <t>Andrea Rossi, Zacharias Kontarakis</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3619,29 +3614,29 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Mental Calculation Drives Reliable and Weak Distant Connectivity While Music Listening Induces Dense Local Connectivity</t>
+          <t>CYP2C9*3 Increases the Ibuprofen Response of Hemodynamically Significant Patent Ductus Arteriosus in the Infants with Gestational Age of More Than 30 Weeks</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00027-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00028-9</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correspondence</t>
         </is>
       </c>
       <c r="D58">
@@ -3654,48 +3649,48 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-11-10</t>
+          <t>2021-11-11</t>
         </is>
       </c>
       <c r="G58">
-        <v>1332</v>
+        <v>882</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Yuguo Yu</t>
+          <t>Wenhao Zhou</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Systematic Genome-Wide Profiles Reveal Alternative Splicing Landscape and Implications of Splicing Regulator DExD-Box Helicase 21 in Aggressive Progression of Adrenocortical Carcinoma</t>
+          <t>Mental Calculation Drives Reliable and Weak Distant Connectivity While Music Listening Induces Dense Local Connectivity</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00026-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00027-w</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3708,26 +3703,26 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-10-29</t>
+          <t>2021-11-10</t>
         </is>
       </c>
       <c r="G59">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="H59">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Yuanyuan Qu, Hailiang Zhang, Dingwei Ye</t>
+          <t>Yuguo Yu</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3742,19 +3737,19 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>N-Glycoproteomics Study of Putative N-Glycoprotein Biomarkers of Drug Resistance in MCF-7/ADR Cells</t>
+          <t>Systematic Genome-Wide Profiles Reveal Alternative Splicing Landscape and Implications of Splicing Regulator DExD-Box Helicase 21 in Aggressive Progression of Adrenocortical Carcinoma</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00029-8</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00026-x</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3772,21 +3767,21 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-10-28</t>
+          <t>2021-10-29</t>
         </is>
       </c>
       <c r="G60">
-        <v>1323</v>
+        <v>1395</v>
       </c>
       <c r="H60">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Yun Chen, Zhixin Tian</t>
+          <t>Yuanyuan Qu, Hailiang Zhang, Dingwei Ye</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3801,19 +3796,19 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Strided Self-Supervised Low-Dose CT Denoising for Lung Nodule Classification</t>
+          <t>N-Glycoproteomics Study of Putative N-Glycoprotein Biomarkers of Drug Resistance in MCF-7/ADR Cells</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00025-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00029-8</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3831,21 +3826,21 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-10-26</t>
+          <t>2021-10-28</t>
         </is>
       </c>
       <c r="G61">
-        <v>1233</v>
+        <v>1352</v>
       </c>
       <c r="H61">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Hongming Shan</t>
+          <t>Yun Chen, Zhixin Tian</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3860,19 +3855,19 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Pseudotime Ordering Single-Cell Transcriptomic of β Cells Pancreatic Islets in Health and Type 2 Diabetes</t>
+          <t>Strided Self-Supervised Low-Dose CT Denoising for Lung Nodule Classification</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00024-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00025-y</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3890,21 +3885,21 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-10-19</t>
+          <t>2021-10-26</t>
         </is>
       </c>
       <c r="G62">
-        <v>1162</v>
+        <v>1260</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Xingxing Kong, Tiemin Liu</t>
+          <t>Hongming Shan</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3914,24 +3909,24 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Causal Relationship Between Complement C3, C4, and Nonalcoholic Fatty Liver Disease: Bidirectional Mendelian Randomization Analysis</t>
+          <t>Pseudotime Ordering Single-Cell Transcriptomic of β Cells Pancreatic Islets in Health and Type 2 Diabetes</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00023-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00024-z</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3944,26 +3939,26 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-09-23</t>
+          <t>2021-10-19</t>
         </is>
       </c>
       <c r="G63">
-        <v>946</v>
+        <v>1194</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Xiaobo Yang</t>
+          <t>Xingxing Kong, Tiemin Liu</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -3978,24 +3973,24 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Origin and Spread of the ALDH2 Glu504Lys Allele</t>
+          <t>Causal Relationship Between Complement C3, C4, and Nonalcoholic Fatty Liver Disease: Bidirectional Mendelian Randomization Analysis</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00017-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00023-0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D64">
@@ -4008,11 +4003,11 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-09-20</t>
+          <t>2021-09-23</t>
         </is>
       </c>
       <c r="G64">
-        <v>1681</v>
+        <v>977</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -4022,7 +4017,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Aijun Sun</t>
+          <t>Xiaobo Yang</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4037,19 +4032,19 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Phenotypes of Cardiovascular Diseases: Current Status and Future Perspectives</t>
+          <t>Origin and Spread of the ALDH2 Glu504Lys Allele</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00022-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00017-y</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4062,26 +4057,26 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-08-26</t>
+          <t>2021-09-20</t>
         </is>
       </c>
       <c r="G65">
-        <v>1209</v>
+        <v>1715</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Jiangping Song</t>
+          <t>Aijun Sun</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4096,24 +4091,24 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Prediction of Metabolic Disorders Using NMR-Based Metabolomics: The Shanghai Changfeng Study</t>
+          <t>Phenotypes of Cardiovascular Diseases: Current Status and Future Perspectives</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00021-2</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00022-1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D66">
@@ -4126,21 +4121,21 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-08-24</t>
+          <t>2021-08-26</t>
         </is>
       </c>
       <c r="G66">
-        <v>1171</v>
+        <v>1252</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Ming-feng Xia, Hui-ru Tang, Xin Gao</t>
+          <t>Jiangping Song</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4150,29 +4145,29 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Computational Methods for Prediction of Human Protein-Phenotype Associations: A Review</t>
+          <t>Prediction of Metabolic Disorders Using NMR-Based Metabolomics: The Shanghai Changfeng Study</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00019-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00021-2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D67">
@@ -4185,21 +4180,21 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-08-06</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="G67">
-        <v>1641</v>
+        <v>1202</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Shanfeng Zhu</t>
+          <t>Ming-feng Xia, Hui-ru Tang, Xin Gao</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4214,19 +4209,19 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Recommendation for Cardiac Magnetic Resonance Imaging-Based Phenotypic Study: Imaging Part</t>
+          <t>Computational Methods for Prediction of Human Protein-Phenotype Associations: A Review</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00018-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00019-w</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4239,26 +4234,26 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-07-28</t>
+          <t>2021-08-06</t>
         </is>
       </c>
       <c r="G68">
-        <v>2167</v>
+        <v>1694</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Chengyan Wang, He Wang</t>
+          <t>Shanfeng Zhu</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4273,19 +4268,19 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Molecular Phenomic Approaches to Deconvolving the Systemic Effects of SARS-CoV-2 Infection and Post-acute COVID-19 Syndrome</t>
+          <t>Recommendation for Cardiac Magnetic Resonance Imaging-Based Phenotypic Study: Imaging Part</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00020-3</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00018-x</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4303,21 +4298,21 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>2021-07-28</t>
         </is>
       </c>
       <c r="G69">
-        <v>2735</v>
+        <v>2215</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Jeremy K. Nicholson</t>
+          <t>Chengyan Wang, He Wang</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4332,24 +4327,24 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Genetic Architecture of Childhood Kidney and Urological Diseases in China</t>
+          <t>Molecular Phenomic Approaches to Deconvolving the Systemic Effects of SARS-CoV-2 Infection and Post-acute COVID-19 Syndrome</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00014-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00020-3</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D70">
@@ -4362,21 +4357,21 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>2021-07-22</t>
         </is>
       </c>
       <c r="G70">
-        <v>1507</v>
+        <v>2771</v>
       </c>
       <c r="H70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Jia Rao, Hong Xu</t>
+          <t>Jeremy K. Nicholson</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4386,29 +4381,29 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Defense of COVID-19 by Human Organoids</t>
+          <t>Genetic Architecture of Childhood Kidney and Urological Diseases in China</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00015-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00014-1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D71">
@@ -4421,21 +4416,21 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-07-14</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="G71">
-        <v>2993</v>
+        <v>1558</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Xinhua Lin, Bing Zhao</t>
+          <t>Jia Rao, Hong Xu</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4450,24 +4445,24 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Random Penetrance of Mutations Among Individuals: A New Type of Genetic Drift in Molecular Evolution</t>
+          <t>Defense of COVID-19 by Human Organoids</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00013-2</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00015-0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D72">
@@ -4475,26 +4470,26 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-06-17</t>
+          <t>2021-07-14</t>
         </is>
       </c>
       <c r="G72">
-        <v>1003</v>
+        <v>3034</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Xun Gu</t>
+          <t>Xinhua Lin, Bing Zhao</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4509,24 +4504,24 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Molecular Determinants of Antibiotic Resistance in the Costa Rican Pseudomonas aeruginosa AG1 by a Multi-omics Approach: A Review of 10 Years of Study</t>
+          <t>Random Penetrance of Mutations Among Individuals: A New Type of Genetic Drift in Molecular Evolution</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00016-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00013-2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D73">
@@ -4543,17 +4538,17 @@
         </is>
       </c>
       <c r="G73">
-        <v>2554</v>
+        <v>1035</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
+          <t>Xun Gu</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4568,24 +4563,24 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Distribution Atlas of COVID-19 Pneumonia on Computed Tomography: A Deep Learning Based Description</t>
+          <t>Molecular Determinants of Antibiotic Resistance in the Costa Rican Pseudomonas aeruginosa AG1 by a Multi-omics Approach: A Review of 10 Years of Study</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00011-4</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00016-z</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D74">
@@ -4593,26 +4588,26 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-06-17</t>
         </is>
       </c>
       <c r="G74">
-        <v>1826</v>
+        <v>2595</v>
       </c>
       <c r="H74">
         <v>3</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Shenghong Ju</t>
+          <t>Jose Arturo Molina-Mora</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4622,24 +4617,24 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Comparison of Metabolic Profiling of Arabidopsis Inflorescences Between Landsberg erecta and Columbia, and Meiosis-Defective Mutants by 1H-NMR Spectroscopy</t>
+          <t>Distribution Atlas of COVID-19 Pneumonia on Computed Tomography: A Deep Learning Based Description</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00012-3</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00011-4</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4661,17 +4656,17 @@
         </is>
       </c>
       <c r="G75">
-        <v>1545</v>
+        <v>1871</v>
       </c>
       <c r="H75">
+        <v>3</v>
+      </c>
+      <c r="I75">
         <v>1</v>
       </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Limin Zhang, Yingxiang Wang</t>
+          <t>Shenghong Ju</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4686,24 +4681,24 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>High-Throughput Phenotyping: A Platform to Accelerate Crop Improvement</t>
+          <t>Comparison of Metabolic Profiling of Arabidopsis Inflorescences Between Landsberg erecta and Columbia, and Meiosis-Defective Mutants by 1H-NMR Spectroscopy</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-020-00007-6</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00012-3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D76">
@@ -4720,17 +4715,17 @@
         </is>
       </c>
       <c r="G76">
-        <v>3569</v>
+        <v>1577</v>
       </c>
       <c r="H76">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Neelam R. Yadav</t>
+          <t>Limin Zhang, Yingxiang Wang</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4745,24 +4740,24 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Effect of Light on Cognitive Function During a Stroop Task Using Functional Near-Infrared Spectroscopy</t>
+          <t>High-Throughput Phenotyping: A Platform to Accelerate Crop Improvement</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00010-5</t>
+          <t>http://link.springer.com/article/10.1007/s43657-020-00007-6</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D77">
@@ -4770,26 +4765,26 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-04-19</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="G77">
-        <v>2103</v>
+        <v>3620</v>
       </c>
       <c r="H77">
+        <v>11</v>
+      </c>
+      <c r="I77">
         <v>1</v>
       </c>
-      <c r="I77">
-        <v>2</v>
-      </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Wei Chen</t>
+          <t>Neelam R. Yadav</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4804,19 +4799,19 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Using Composite Phenotypes to Reveal Hidden Physiological Heterogeneity in High-Altitude Acclimatization in a Chinese Han Longitudinal Cohort</t>
+          <t>Effect of Light on Cognitive Function During a Stroop Task Using Functional Near-Infrared Spectroscopy</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-020-00005-8</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00010-5</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4829,26 +4824,26 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-02-22</t>
+          <t>2021-04-19</t>
         </is>
       </c>
       <c r="G78">
-        <v>4409</v>
+        <v>2144</v>
       </c>
       <c r="H78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Li Jin</t>
+          <t>Wei Chen</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -4858,24 +4853,24 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>The Ultrafast and Accurate Mapping Algorithm FANSe3: Mapping a Human Whole-Genome Sequencing Dataset Within 30 Minutes</t>
+          <t>Using Composite Phenotypes to Reveal Hidden Physiological Heterogeneity in High-Altitude Acclimatization in a Chinese Han Longitudinal Cohort</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-020-00008-5</t>
+          <t>http://link.springer.com/article/10.1007/s43657-020-00005-8</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4897,17 +4892,17 @@
         </is>
       </c>
       <c r="G79">
-        <v>3243</v>
+        <v>4477</v>
       </c>
       <c r="H79">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I79">
         <v>7</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Gong Zhang, Jingjie Jin</t>
+          <t>Jiucun Wang, Li Jin</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4922,24 +4917,24 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>In Situ Saturating Mutagenesis Screening Identifies a Functional Genomic Locus that Regulates Ucp1 Expression</t>
+          <t>The Ultrafast and Accurate Mapping Algorithm FANSe3: Mapping a Human Whole-Genome Sequencing Dataset Within 30 Minutes</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-020-00006-7</t>
+          <t>http://link.springer.com/article/10.1007/s43657-020-00008-5</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D80">
@@ -4956,17 +4951,17 @@
         </is>
       </c>
       <c r="G80">
-        <v>2101</v>
+        <v>3286</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Qiurong Ding</t>
+          <t>Gong Zhang, Jingjie Jin</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -4981,24 +4976,24 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Welcome to the Phenomics Journal</t>
+          <t>In Situ Saturating Mutagenesis Screening Identifies a Functional Genomic Locus that Regulates Ucp1 Expression</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-020-00009-4</t>
+          <t>http://link.springer.com/article/10.1007/s43657-020-00006-7</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Editorial</t>
+          <t>Correspondence</t>
         </is>
       </c>
       <c r="D81">
@@ -5006,41 +5001,100 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2021-01</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-01-11</t>
+          <t>2021-02-22</t>
         </is>
       </c>
       <c r="G81">
-        <v>4063</v>
+        <v>2135</v>
       </c>
       <c r="H81">
         <v>2</v>
       </c>
       <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Qiurong Ding</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>2023-01-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Welcome to the Phenomics Journal</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>http://link.springer.com/article/10.1007/s43657-020-00009-4</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Editorial</t>
+        </is>
+      </c>
+      <c r="D82">
+        <v>2021</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2021-01-11</t>
+        </is>
+      </c>
+      <c r="G82">
+        <v>4097</v>
+      </c>
+      <c r="H82">
+        <v>2</v>
+      </c>
+      <c r="I82">
         <v>5</v>
       </c>
-      <c r="J81" t="inlineStr">
+      <c r="J82" t="inlineStr">
         <is>
           <t>Li Jin</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr">
+      <c r="K82" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="L82" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>2023-01-09</t>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>

--- a/weekly_online_paper_metrices/all_Phenomics_paper_metrics.xlsx
+++ b/weekly_online_paper_metrices/all_Phenomics_paper_metrics.xlsx
@@ -454,13 +454,13 @@
         </is>
       </c>
       <c r="G2">
-        <v>186</v>
+        <v>293</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -474,7 +474,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="G3">
-        <v>181</v>
+        <v>229</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -528,7 +528,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="G4">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -582,7 +582,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -616,13 +616,13 @@
         </is>
       </c>
       <c r="G5">
-        <v>128</v>
+        <v>216</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -636,7 +636,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="G6">
-        <v>633</v>
+        <v>690</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -690,7 +690,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
         </is>
       </c>
       <c r="G7">
-        <v>421</v>
+        <v>460</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -744,7 +744,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="G8">
-        <v>449</v>
+        <v>487</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -798,7 +798,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="G9">
-        <v>407</v>
+        <v>455</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="G10">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -911,7 +911,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="G11">
-        <v>509</v>
+        <v>582</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -965,7 +965,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="G12">
-        <v>680</v>
+        <v>741</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="G13">
-        <v>600</v>
+        <v>654</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="G14">
-        <v>489</v>
+        <v>542</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="G15">
-        <v>580</v>
+        <v>639</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
         </is>
       </c>
       <c r="G16">
-        <v>847</v>
+        <v>897</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1260,7 +1260,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="G17">
-        <v>1875</v>
+        <v>1956</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
         </is>
       </c>
       <c r="G18">
-        <v>579</v>
+        <v>618</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="G19">
-        <v>693</v>
+        <v>762</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
         </is>
       </c>
       <c r="G20">
-        <v>619</v>
+        <v>663</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="G21">
-        <v>716</v>
+        <v>764</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
         </is>
       </c>
       <c r="G22">
-        <v>1028</v>
+        <v>1099</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="G23">
-        <v>796</v>
+        <v>832</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="G24">
-        <v>681</v>
+        <v>719</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="G25">
-        <v>1082</v>
+        <v>1137</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -1805,7 +1805,7 @@
         </is>
       </c>
       <c r="G26">
-        <v>1493</v>
+        <v>1558</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="G27">
-        <v>929</v>
+        <v>961</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -1923,10 +1923,10 @@
         </is>
       </c>
       <c r="G28">
-        <v>1612</v>
+        <v>1655</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="G29">
-        <v>1087</v>
+        <v>1146</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -2041,7 +2041,7 @@
         </is>
       </c>
       <c r="G30">
-        <v>1068</v>
+        <v>1105</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -2100,7 +2100,7 @@
         </is>
       </c>
       <c r="G31">
-        <v>1104</v>
+        <v>1148</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
         </is>
       </c>
       <c r="G32">
-        <v>1101</v>
+        <v>1137</v>
       </c>
       <c r="H32">
         <v>6</v>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -2213,7 +2213,7 @@
         </is>
       </c>
       <c r="G33">
-        <v>823</v>
+        <v>856</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="G34">
-        <v>1094</v>
+        <v>1135</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
         </is>
       </c>
       <c r="G35">
-        <v>1028</v>
+        <v>1072</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -2390,7 +2390,7 @@
         </is>
       </c>
       <c r="G36">
-        <v>887</v>
+        <v>918</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -2415,7 +2415,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -2449,7 +2449,7 @@
         </is>
       </c>
       <c r="G37">
-        <v>1003</v>
+        <v>1043</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
         </is>
       </c>
       <c r="G38">
-        <v>1846</v>
+        <v>1906</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="G39">
-        <v>1014</v>
+        <v>1045</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="G40">
-        <v>722</v>
+        <v>756</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
         </is>
       </c>
       <c r="G41">
-        <v>443</v>
+        <v>472</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2705,7 +2705,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -2739,7 +2739,7 @@
         </is>
       </c>
       <c r="G42">
-        <v>3333</v>
+        <v>3405</v>
       </c>
       <c r="H42">
         <v>14</v>
@@ -2764,7 +2764,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -2798,7 +2798,7 @@
         </is>
       </c>
       <c r="G43">
-        <v>809</v>
+        <v>840</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
         </is>
       </c>
       <c r="G44">
-        <v>747</v>
+        <v>776</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -2882,7 +2882,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
         </is>
       </c>
       <c r="G45">
-        <v>831</v>
+        <v>864</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -2941,7 +2941,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -2975,7 +2975,7 @@
         </is>
       </c>
       <c r="G46">
-        <v>1199</v>
+        <v>1227</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -3000,7 +3000,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="G47">
-        <v>1080</v>
+        <v>1116</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
         </is>
       </c>
       <c r="G48">
-        <v>1888</v>
+        <v>1926</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="G49">
-        <v>636</v>
+        <v>668</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -3211,7 +3211,7 @@
         </is>
       </c>
       <c r="G50">
-        <v>1016</v>
+        <v>1056</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -3236,7 +3236,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -3270,7 +3270,7 @@
         </is>
       </c>
       <c r="G51">
-        <v>1275</v>
+        <v>1314</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -3329,7 +3329,7 @@
         </is>
       </c>
       <c r="G52">
-        <v>1505</v>
+        <v>1540</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -3388,7 +3388,7 @@
         </is>
       </c>
       <c r="G53">
-        <v>846</v>
+        <v>875</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="G54">
-        <v>2327</v>
+        <v>2372</v>
       </c>
       <c r="H54">
         <v>4</v>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="G55">
-        <v>1558</v>
+        <v>1594</v>
       </c>
       <c r="H55">
         <v>4</v>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
         </is>
       </c>
       <c r="G56">
-        <v>1313</v>
+        <v>1345</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -3590,7 +3590,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -3624,7 +3624,7 @@
         </is>
       </c>
       <c r="G57">
-        <v>471</v>
+        <v>500</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -3678,7 +3678,7 @@
         </is>
       </c>
       <c r="G58">
-        <v>1468</v>
+        <v>1503</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="G59">
-        <v>2264</v>
+        <v>2314</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -3762,7 +3762,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="G60">
-        <v>1989</v>
+        <v>2034</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -3855,7 +3855,7 @@
         </is>
       </c>
       <c r="G61">
-        <v>966</v>
+        <v>996</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -3914,7 +3914,7 @@
         </is>
       </c>
       <c r="G62">
-        <v>1453</v>
+        <v>1482</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -3939,7 +3939,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -3973,7 +3973,7 @@
         </is>
       </c>
       <c r="G63">
-        <v>1479</v>
+        <v>1511</v>
       </c>
       <c r="H63">
         <v>7</v>
@@ -3998,7 +3998,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="G64">
-        <v>1435</v>
+        <v>1465</v>
       </c>
       <c r="H64">
         <v>4</v>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
         </is>
       </c>
       <c r="G65">
-        <v>1352</v>
+        <v>1385</v>
       </c>
       <c r="H65">
         <v>6</v>
@@ -4116,7 +4116,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -4150,7 +4150,7 @@
         </is>
       </c>
       <c r="G66">
-        <v>1290</v>
+        <v>1322</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -4175,7 +4175,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -4209,7 +4209,7 @@
         </is>
       </c>
       <c r="G67">
-        <v>1073</v>
+        <v>1109</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -4234,7 +4234,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -4268,7 +4268,7 @@
         </is>
       </c>
       <c r="G68">
-        <v>1834</v>
+        <v>1871</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="G69">
-        <v>1364</v>
+        <v>1408</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="G70">
-        <v>1290</v>
+        <v>1317</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -4445,7 +4445,7 @@
         </is>
       </c>
       <c r="G71">
-        <v>1794</v>
+        <v>1835</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -4470,7 +4470,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -4504,7 +4504,7 @@
         </is>
       </c>
       <c r="G72">
-        <v>2344</v>
+        <v>2399</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -4563,7 +4563,7 @@
         </is>
       </c>
       <c r="G73">
-        <v>2890</v>
+        <v>2935</v>
       </c>
       <c r="H73">
         <v>4</v>
@@ -4588,7 +4588,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="G74">
-        <v>1656</v>
+        <v>1699</v>
       </c>
       <c r="H74">
         <v>5</v>
@@ -4647,7 +4647,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -4681,7 +4681,7 @@
         </is>
       </c>
       <c r="G75">
-        <v>3130</v>
+        <v>3168</v>
       </c>
       <c r="H75">
         <v>3</v>
@@ -4706,7 +4706,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -4740,7 +4740,7 @@
         </is>
       </c>
       <c r="G76">
-        <v>1118</v>
+        <v>1146</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -4765,7 +4765,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -4799,7 +4799,7 @@
         </is>
       </c>
       <c r="G77">
-        <v>2685</v>
+        <v>2722</v>
       </c>
       <c r="H77">
         <v>3</v>
@@ -4824,7 +4824,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -4858,7 +4858,7 @@
         </is>
       </c>
       <c r="G78">
-        <v>1972</v>
+        <v>2012</v>
       </c>
       <c r="H78">
         <v>3</v>
@@ -4883,7 +4883,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
         </is>
       </c>
       <c r="G79">
-        <v>1676</v>
+        <v>1712</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -4942,7 +4942,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -4976,7 +4976,7 @@
         </is>
       </c>
       <c r="G80">
-        <v>3774</v>
+        <v>3829</v>
       </c>
       <c r="H80">
         <v>13</v>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -5035,7 +5035,7 @@
         </is>
       </c>
       <c r="G81">
-        <v>2245</v>
+        <v>2292</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -5060,7 +5060,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="G82">
-        <v>4596</v>
+        <v>4638</v>
       </c>
       <c r="H82">
         <v>4</v>
@@ -5119,7 +5119,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -5153,7 +5153,7 @@
         </is>
       </c>
       <c r="G83">
-        <v>3391</v>
+        <v>3440</v>
       </c>
       <c r="H83">
         <v>7</v>
@@ -5178,7 +5178,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -5212,7 +5212,7 @@
         </is>
       </c>
       <c r="G84">
-        <v>2224</v>
+        <v>2257</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="G85">
-        <v>4198</v>
+        <v>4228</v>
       </c>
       <c r="H85">
         <v>3</v>
@@ -5296,7 +5296,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-13</t>
         </is>
       </c>
     </row>

--- a/weekly_online_paper_metrices/all_Phenomics_paper_metrics.xlsx
+++ b/weekly_online_paper_metrices/all_Phenomics_paper_metrics.xlsx
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="G4">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="G5">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="G6">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="G11">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         </is>
       </c>
       <c r="G15">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         </is>
       </c>
       <c r="G16">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="G20">
-        <v>2097</v>
+        <v>2106</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1854,7 +1854,7 @@
         </is>
       </c>
       <c r="G27">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1908,7 +1908,7 @@
         </is>
       </c>
       <c r="G28">
-        <v>1218</v>
+        <v>1223</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="G34">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -2434,7 +2434,7 @@
         </is>
       </c>
       <c r="G37">
-        <v>1221</v>
+        <v>1226</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -2901,7 +2901,7 @@
         </is>
       </c>
       <c r="G45">
-        <v>3549</v>
+        <v>3562</v>
       </c>
       <c r="H45">
         <v>14</v>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="G50">
-        <v>1184</v>
+        <v>1188</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         </is>
       </c>
       <c r="G56">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -3609,7 +3609,7 @@
         </is>
       </c>
       <c r="G57">
-        <v>2447</v>
+        <v>2449</v>
       </c>
       <c r="H57">
         <v>4</v>
@@ -3727,7 +3727,7 @@
         </is>
       </c>
       <c r="G59">
-        <v>1414</v>
+        <v>1417</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -4017,7 +4017,7 @@
         </is>
       </c>
       <c r="G64">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -4607,7 +4607,7 @@
         </is>
       </c>
       <c r="G74">
-        <v>1897</v>
+        <v>1899</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="G81">
-        <v>2085</v>
+        <v>2088</v>
       </c>
       <c r="H81">
         <v>3</v>
@@ -5138,13 +5138,13 @@
         </is>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>3978</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>

--- a/weekly_online_paper_metrices/all_Phenomics_paper_metrics.xlsx
+++ b/weekly_online_paper_metrices/all_Phenomics_paper_metrics.xlsx
@@ -3879,13 +3879,13 @@
         </is>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>2623</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         </is>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>666</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -4405,10 +4405,10 @@
         </is>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>1736</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="G80">
-        <v>2698</v>
+        <v>2701</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -4995,7 +4995,7 @@
         </is>
       </c>
       <c r="G81">
-        <v>3174</v>
+        <v>3180</v>
       </c>
       <c r="H81">
         <v>5</v>

--- a/weekly_online_paper_metrices/all_Phenomics_paper_metrics.xlsx
+++ b/weekly_online_paper_metrices/all_Phenomics_paper_metrics.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M93"/>
+  <dimension ref="A1:M94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -427,17 +427,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hidden Genetic Regulation of Human Complex Traits via Brain Isoforms</t>
+          <t>Genetic Phenotypes of Alzheimer’s Disease: Mechanisms and Potential Therapy</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-023-00100-6</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00098-x</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D2">
@@ -445,26 +445,26 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023-03-20</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="G2">
-        <v>201</v>
+        <v>113</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Xia Shen</t>
+          <t>Jianping Jia</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -474,24 +474,24 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sample Collection, DNA Extraction, and Library Construction Protocols of the Human Microbiome Studies in the International Human Phenome Project</t>
+          <t>Hidden Genetic Regulation of Human Complex Traits via Brain Isoforms</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-023-00097-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00100-6</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="D3">
@@ -504,11 +504,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-03-20</t>
         </is>
       </c>
       <c r="G3">
-        <v>332</v>
+        <v>249</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -518,7 +518,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Zhexue Quan, Yan Zheng</t>
+          <t>Xia Shen</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -528,24 +528,24 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>α2,3-Sialylation with Fucosylation Associated with More Severe Anti-MDA5 Positive Dermatomyositis Induced by Rapidly Progressive Interstitial Lung Disease</t>
+          <t>Sample Collection, DNA Extraction, and Library Construction Protocols of the Human Microbiome Studies in the International Human Phenome Project</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-023-00096-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00097-y</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="D4">
@@ -558,21 +558,21 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2023-03-07</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="G4">
-        <v>187</v>
+        <v>350</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Jianxin Gu, Jing Liu, Shifang Ren</t>
+          <t>Zhexue Quan, Yan Zheng</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -582,19 +582,19 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Virtual Fluorescence Translation for Biological Tissue by Conditional Generative Adversarial Network</t>
+          <t>α2,3-Sialylation with Fucosylation Associated with More Severe Anti-MDA5 Positive Dermatomyositis Induced by Rapidly Progressive Interstitial Lung Disease</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-023-00094-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00096-z</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -612,11 +612,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2023-03-02</t>
+          <t>2023-03-07</t>
         </is>
       </c>
       <c r="G5">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -626,7 +626,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Dean Ta</t>
+          <t>Jianxin Gu, Jing Liu, Shifang Ren</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -636,24 +636,24 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Diets, Gut Microbiota and Metabolites</t>
+          <t>Virtual Fluorescence Translation for Biological Tissue by Conditional Generative Adversarial Network</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-023-00095-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00094-1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D6">
@@ -670,17 +670,17 @@
         </is>
       </c>
       <c r="G6">
-        <v>388</v>
+        <v>260</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Shangyu Hong, Yan Sun</t>
+          <t>Dean Ta</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -690,24 +690,24 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Deep Immunophenotyping of Human Whole Blood by Standardized Multi-parametric Flow Cytometry Analyses</t>
+          <t>Diets, Gut Microbiota and Metabolites</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00092-9</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00095-0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D7">
@@ -715,26 +715,26 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2023-02-23</t>
+          <t>2023-03-02</t>
         </is>
       </c>
       <c r="G7">
-        <v>812</v>
+        <v>408</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Feng Qian</t>
+          <t>Shangyu Hong, Yan Sun</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -744,24 +744,24 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Management of Intraductal Papilloma of the Breast Diagnosed on Core Needle Biopsy: Latest Controversies</t>
+          <t>Deep Immunophenotyping of Human Whole Blood by Standardized Multi-parametric Flow Cytometry Analyses</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00085-8</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00092-9</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="D8">
@@ -774,11 +774,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-02-23</t>
         </is>
       </c>
       <c r="G8">
-        <v>423</v>
+        <v>893</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Hongfeng Chen</t>
+          <t>Feng Qian</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -798,24 +798,24 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Presence of Rare Variants is Associated with Poorer Survival in Chinese Patients with Amyotrophic Lateral Sclerosis</t>
+          <t>Management of Intraductal Papilloma of the Breast Diagnosed on Core Needle Biopsy: Latest Controversies</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00093-8</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00085-8</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D9">
@@ -828,11 +828,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2023-02-12</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="G9">
-        <v>463</v>
+        <v>431</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Xiangjun Chen</t>
+          <t>Hongfeng Chen</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -852,24 +852,24 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Phenomic Studies on Diseases: Potential and Challenges</t>
+          <t>Presence of Rare Variants is Associated with Poorer Survival in Chinese Patients with Amyotrophic Lateral Sclerosis</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00089-4</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00093-8</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D10">
@@ -877,26 +877,26 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2023-02-12</t>
         </is>
       </c>
       <c r="G10">
-        <v>846</v>
+        <v>469</v>
       </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Weihai Ying</t>
+          <t>Jiucun Wang, Xiangjun Chen</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -906,24 +906,24 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Deep Learning-Assisted Quantitative Susceptibility Mapping as a Tool for Grading and Molecular Subtyping of Gliomas</t>
+          <t>Phenomic Studies on Diseases: Potential and Challenges</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00087-6</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00089-4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D11">
@@ -940,17 +940,17 @@
         </is>
       </c>
       <c r="G11">
-        <v>520</v>
+        <v>901</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>2</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Xiao-Yong Zhang, Yan Ren</t>
+          <t>Weihai Ying</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -960,24 +960,24 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Protocol for Brain Magnetic Resonance Imaging and Extraction of Imaging-Derived Phenotypes from the China Phenobank Project</t>
+          <t>Deep Learning-Assisted Quantitative Susceptibility Mapping as a Tool for Grading and Molecular Subtyping of Gliomas</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00083-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00087-6</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D12">
@@ -994,17 +994,17 @@
         </is>
       </c>
       <c r="G12">
-        <v>464</v>
+        <v>527</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Mei Tian</t>
+          <t>Xiao-Yong Zhang, Yan Ren</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1014,24 +1014,24 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Infrared Imageries of Human Body Activated by Tea Match the Hypothesis of Meridian System</t>
+          <t>Protocol for Brain Magnetic Resonance Imaging and Extraction of Imaging-Derived Phenotypes from the China Phenobank Project</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00090-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00083-w</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="D13">
@@ -1048,17 +1048,17 @@
         </is>
       </c>
       <c r="G13">
-        <v>568</v>
+        <v>479</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Hui Li</t>
+          <t>Mei Tian</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1068,41 +1068,41 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Proteomic Portrait of Human Lymphoma Reveals Protein Molecular Fingerprint of Disease Specific Subtypes and Progression</t>
+          <t>Infrared Imageries of Human Body Activated by Tea Match the Hypothesis of Meridian System</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00075-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00090-x</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correspondence</t>
         </is>
       </c>
       <c r="D14">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2022-12-12</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="G14">
-        <v>989</v>
+        <v>577</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Wei Yan, Jie Jin</t>
+          <t>Hui Li</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>In Silico Pipeline to Identify Tumor-Specific Antigens for Cancer Immunotherapy Using Exome Sequencing Data</t>
+          <t>Proteomic Portrait of Human Lymphoma Reveals Protein Molecular Fingerprint of Disease Specific Subtypes and Progression</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00084-9</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00075-w</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1152,21 +1152,21 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2022-12-08</t>
+          <t>2022-12-12</t>
         </is>
       </c>
       <c r="G15">
-        <v>691</v>
+        <v>1002</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
+          <t>Wei Yan, Jie Jin</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1176,19 +1176,19 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A Genome-Wide Association Study for Susceptibility to Axial Length in Highly Myopic Eyes</t>
+          <t>In Silico Pipeline to Identify Tumor-Specific Antigens for Cancer Immunotherapy Using Exome Sequencing Data</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00082-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00084-9</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1206,21 +1206,21 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2022-12-08</t>
         </is>
       </c>
       <c r="G16">
-        <v>712</v>
+        <v>697</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Xiangjia Zhu, Yi Lu</t>
+          <t>Jose Arturo Molina-Mora</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1230,24 +1230,24 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Measurement of Cerebral Oxygen Extraction Fraction Using Quantitative BOLD Approach: A Review</t>
+          <t>A Genome-Wide Association Study for Susceptibility to Axial Length in Highly Myopic Eyes</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00081-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00082-x</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D17">
@@ -1264,7 +1264,7 @@
         </is>
       </c>
       <c r="G17">
-        <v>767</v>
+        <v>715</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1274,39 +1274,34 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>He Wang</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>Xiangjia Zhu, Yi Lu</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Correction to: Increased Soluble Epoxide Hydrolase Activity Positively Correlates with Mortality in Heart Failure Patients with Preserved Ejection Fraction: Evidence from Metabolomics</t>
+          <t>Measurement of Cerebral Oxygen Extraction Fraction Using Quantitative BOLD Approach: A Review</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00088-5</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00081-y</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D18">
@@ -1314,53 +1309,58 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-12-05</t>
         </is>
       </c>
       <c r="G18">
-        <v>491</v>
+        <v>788</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Xu Zhang, Dao Wen Wang</t>
+          <t>He Wang</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Autophagic Clearance of Lipid Droplets Alters Metabolic Phenotypes in a Genetic Obesity–Diabetes Mouse Model</t>
+          <t>Correction to: Increased Soluble Epoxide Hydrolase Activity Positively Correlates with Mortality in Heart Failure Patients with Preserved Ejection Fraction: Evidence from Metabolomics</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00080-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00088-5</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="D19">
@@ -1373,21 +1373,21 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2022-11-19</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="G19">
-        <v>828</v>
+        <v>512</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Boxun Lu, Yuhua Fu</t>
+          <t>Xu Zhang, Dao Wen Wang</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1397,19 +1397,19 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A Meta-Analysis of the Genome-Wide Association Studies on Two Genetically Correlated Phenotypes Suggests Four New Risk Loci for Headaches</t>
+          <t>Autophagic Clearance of Lipid Droplets Alters Metabolic Phenotypes in a Genetic Obesity–Diabetes Mouse Model</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00078-7</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00080-z</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1427,48 +1427,43 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-19</t>
         </is>
       </c>
       <c r="G20">
-        <v>1149</v>
+        <v>866</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Weihua Meng</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>Boxun Lu, Yuhua Fu</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Increased Soluble Epoxide Hydrolase Activity Positively Correlates with Mortality in Heart Failure Patients with Preserved Ejection Fraction: Evidence from Metabolomics</t>
+          <t>A Meta-Analysis of the Genome-Wide Association Studies on Two Genetically Correlated Phenotypes Suggests Four New Risk Loci for Headaches</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00069-8</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00078-7</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1481,26 +1476,26 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="G21">
-        <v>1104</v>
+        <v>1228</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Chen Chen, Xu Zhang, Dao Wen Wang</t>
+          <t>Weihua Meng</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1515,19 +1510,19 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Adjustment for the Age- and Gender-Related Metabolic Changes Improves the Differential Diagnosis of Parkinsonism</t>
+          <t>Increased Soluble Epoxide Hydrolase Activity Positively Correlates with Mortality in Heart Failure Patients with Preserved Ejection Fraction: Evidence from Metabolomics</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00079-6</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00069-8</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1545,11 +1540,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="G22">
-        <v>845</v>
+        <v>1118</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1559,7 +1554,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Fengtao Liu, Chuantao Zuo</t>
+          <t>Chen Chen, Xu Zhang, Dao Wen Wang</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1574,19 +1569,19 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Dopaminergic Dysfunction and Glucose Metabolism Characteristics in Parkin-Induced Early-Onset Parkinson’s Disease Compared to Genetically Undetermined Early-Onset Parkinson’s Disease</t>
+          <t>Adjustment for the Age- and Gender-Related Metabolic Changes Improves the Differential Diagnosis of Parkinsonism</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00077-8</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00079-6</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1604,11 +1599,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2022-10-22</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="G23">
-        <v>950</v>
+        <v>858</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1618,7 +1613,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Jian-Jun Wu, Chuan-Tao Zuo, Jian Wang</t>
+          <t>Fengtao Liu, Chuantao Zuo</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1633,24 +1628,24 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Chinese Medicine Phenomics (Chinmedphenomics): Personalized, Precise and Promising</t>
+          <t>Dopaminergic Dysfunction and Glucose Metabolism Characteristics in Parkin-Induced Early-Onset Parkinson’s Disease Compared to Genetically Undetermined Early-Onset Parkinson’s Disease</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00074-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00077-8</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D24">
@@ -1663,11 +1658,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2022-10-14</t>
+          <t>2022-10-22</t>
         </is>
       </c>
       <c r="G24">
-        <v>1269</v>
+        <v>964</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1677,34 +1672,34 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Dezhi Tang, Yongjun Wang</t>
+          <t>Jian-Jun Wu, Chuan-Tao Zuo, Jian Wang</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Skin Microbiome, Metabolome and Skin Phenome, from the Perspectives of Skin as an Ecosystem</t>
+          <t>Chinese Medicine Phenomics (Chinmedphenomics): Personalized, Precise and Promising</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00073-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00074-x</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1722,21 +1717,21 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2022-10-14</t>
         </is>
       </c>
       <c r="G25">
-        <v>2687</v>
+        <v>1341</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Jingjing Xia</t>
+          <t>Dezhi Tang, Yongjun Wang</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1751,24 +1746,24 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Influence of Gender on Tau Precipitation in Alzheimer’s Disease According to ATN Research Framework</t>
+          <t>Skin Microbiome, Metabolome and Skin Phenome, from the Perspectives of Skin as an Ecosystem</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00076-9</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00073-y</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D26">
@@ -1785,39 +1780,44 @@
         </is>
       </c>
       <c r="G26">
-        <v>832</v>
+        <v>2808</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Chuantao Zuo, Jiehui Jiang</t>
+          <t>Jiucun Wang, Jingjing Xia</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>6</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Causal Association of Cardiac Function by Magnetic Resonance Imaging with Frailty Index: A Mendelian Randomization Study</t>
+          <t>Influence of Gender on Tau Precipitation in Alzheimer’s Disease According to ATN Research Framework</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00072-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00076-9</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1830,53 +1830,48 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2022-09-29</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="G27">
-        <v>1207</v>
+        <v>835</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>2</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Xuehui Sun, Xiaofeng Wang</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>Chuantao Zuo, Jiehui Jiang</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>6</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Large-Scale Proteomics Data Reveal Integrated Prognosis-Related Protein Signatures and Role of SMAD4 and RAD50 in Prognosis and Immune Infiltrations of Prostate Cancer Microenvironment</t>
+          <t>Causal Association of Cardiac Function by Magnetic Resonance Imaging with Frailty Index: A Mendelian Randomization Study</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00070-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00072-z</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1894,21 +1889,21 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2022-09-29</t>
         </is>
       </c>
       <c r="G28">
-        <v>1078</v>
+        <v>1241</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Yuan-Yuan Qu, Hai-Liang Zhang, Ding-Wei Ye</t>
+          <t>Xuehui Sun, Xiaofeng Wang</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -1923,24 +1918,24 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>High-Resolution and Multidimensional Phenotypes Can Complement Genomics Data to Diagnose Diseases in the Neonatal Population</t>
+          <t>Large-Scale Proteomics Data Reveal Integrated Prognosis-Related Protein Signatures and Role of SMAD4 and RAD50 in Prognosis and Immune Infiltrations of Prostate Cancer Microenvironment</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00071-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00070-1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D29">
@@ -1953,48 +1948,53 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2022-09-09</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="G29">
-        <v>967</v>
+        <v>1105</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Wenhao Zhou</t>
+          <t>Yuan-Yuan Qu, Hai-Liang Zhang, Ding-Wei Ye</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>6</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>International Nuclear Medicine Consensus on the Clinical Use of Amyloid Positron Emission Tomography in Alzheimer’s Disease</t>
+          <t>High-Resolution and Multidimensional Phenotypes Can Complement Genomics Data to Diagnose Diseases in the Neonatal Population</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00068-9</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00071-0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D30">
@@ -2002,26 +2002,26 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2022-08-26</t>
+          <t>2022-09-09</t>
         </is>
       </c>
       <c r="G30">
-        <v>1461</v>
+        <v>974</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Mei Tian, Chuantao Zuo, Hong Zhang</t>
+          <t>Wenhao Zhou</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2031,19 +2031,19 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Low Concordance Between Blood Pressures Measured in Periodic Health Examinations and in a Workplace-Based Hypertension Management Program</t>
+          <t>International Nuclear Medicine Consensus on the Clinical Use of Amyloid Positron Emission Tomography in Alzheimer’s Disease</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00067-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00068-9</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2061,48 +2061,43 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2022-08-18</t>
+          <t>2022-08-26</t>
         </is>
       </c>
       <c r="G31">
-        <v>1110</v>
+        <v>1527</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Shouling Wu, An Pan</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>Mei Tian, Chuantao Zuo, Hong Zhang</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>6</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Cross-sectional Exploration of the Relationship Between Glutamate Abnormalities and Tic Disorder Severity Using Proton Magnetic Resonance Spectroscopy</t>
+          <t>Low Concordance Between Blood Pressures Measured in Periodic Health Examinations and in a Workplace-Based Hypertension Management Program</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00064-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00067-w</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2120,43 +2115,48 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2022-08-16</t>
+          <t>2022-08-18</t>
         </is>
       </c>
       <c r="G32">
-        <v>909</v>
+        <v>1117</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Xiao-Yong Zhang, Min Wu</t>
+          <t>Shouling Wu, An Pan</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>6</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Human Genetic Variants Associated with COVID-19 Severity are Enriched in Immune and Epithelium Regulatory Networks</t>
+          <t>Cross-sectional Exploration of the Relationship Between Glutamate Abnormalities and Tic Disorder Severity Using Proton Magnetic Resonance Spectroscopy</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00066-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00064-z</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2174,53 +2174,48 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2022-08-16</t>
         </is>
       </c>
       <c r="G33">
-        <v>1451</v>
+        <v>917</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>2</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Yong Wang</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>Xiao-Yong Zhang, Min Wu</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>6</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Report on the 3rd Board Meeting of the International Human Phenome Consortium</t>
+          <t>Human Genetic Variants Associated with COVID-19 Severity are Enriched in Immune and Epithelium Regulatory Networks</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00065-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00066-x</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Meeting Report</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D34">
@@ -2228,58 +2223,58 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2022-08-13</t>
         </is>
       </c>
       <c r="G34">
-        <v>1866</v>
+        <v>1492</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Mei Tian, Li Jin</t>
+          <t>Yong Wang</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Palmprint Phenotype Feature Extraction and Classification Based on Deep Learning</t>
+          <t>Report on the 3rd Board Meeting of the International Human Phenome Consortium</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00063-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00065-y</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Meeting Report</t>
         </is>
       </c>
       <c r="D35">
@@ -2296,49 +2291,49 @@
         </is>
       </c>
       <c r="G35">
-        <v>1203</v>
+        <v>1913</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Sijia Wang, Guangtao Zhai</t>
+          <t>Mei Tian, Li Jin</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Mitochondria as the Essence of Yang Qi in the Human Body</t>
+          <t>Palmprint Phenotype Feature Extraction and Classification Based on Deep Learning</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00060-3</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00063-0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D36">
@@ -2351,21 +2346,21 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2022-06-16</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="G36">
-        <v>2176</v>
+        <v>1211</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Junjie Luo, Zhenglong Gu</t>
+          <t>Sijia Wang, Guangtao Zhai</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2375,29 +2370,29 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Multi-omics Analysis of Young Portulaca oleracea L. Plants’ Responses to High NaCl Doses Reveals Insights into Pathways and Genes Responsive to Salinity Stress in this Halophyte Species</t>
+          <t>Mitochondria as the Essence of Yang Qi in the Human Body</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00061-2</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00060-3</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D37">
@@ -2410,48 +2405,48 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2022-06-15</t>
+          <t>2022-06-16</t>
         </is>
       </c>
       <c r="G37">
-        <v>1512</v>
+        <v>2228</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I37">
         <v>3</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Manoel Teixeira Souza Júnior</t>
+          <t>Junjie Luo, Zhenglong Gu</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Plasma Lipidomic Subclasses and Risk of Hypertension in Middle-Aged and Elderly Chinese</t>
+          <t>Multi-omics Analysis of Young Portulaca oleracea L. Plants’ Responses to High NaCl Doses Reveals Insights into Pathways and Genes Responsive to Salinity Stress in this Halophyte Species</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00057-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00061-2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2469,48 +2464,48 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2022-06-14</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="G38">
-        <v>1397</v>
+        <v>1530</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Rong Zeng, Liang Sun, Xu Lin</t>
+          <t>Manoel Teixeira Souza Júnior</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Identification of Germline Mutations in East-Asian Young Never-Smokers with Lung Adenocarcinoma by Whole-Exome Sequencing</t>
+          <t>Plasma Lipidomic Subclasses and Risk of Hypertension in Middle-Aged and Elderly Chinese</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00062-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00057-y</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2528,43 +2523,48 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2022-06-11</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="G39">
-        <v>1352</v>
+        <v>1411</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Libing Shen, Yihua Sun, Yang Zhang</t>
+          <t>Rong Zeng, Liang Sun, Xu Lin</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>5</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Clinical Profiles at the Time of Diagnosis of SARS-CoV-2 Infection in Costa Rica During the Pre-vaccination Period Using a Machine Learning Approach</t>
+          <t>Identification of Germline Mutations in East-Asian Young Never-Smokers with Lung Adenocarcinoma by Whole-Exome Sequencing</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00058-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00062-1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2582,48 +2582,43 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2022-06-07</t>
+          <t>2022-06-11</t>
         </is>
       </c>
       <c r="G40">
-        <v>1406</v>
+        <v>1358</v>
       </c>
       <c r="H40">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>Libing Shen, Yihua Sun, Yang Zhang</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Metabolic Molecular Diagnosis of Inflammatory Bowel Disease by Synergistical Promotion of Layered Titania Nanosheets with Graphitized Carbon</t>
+          <t>Clinical Profiles at the Time of Diagnosis of SARS-CoV-2 Infection in Costa Rica During the Pre-vaccination Period Using a Machine Learning Approach</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00055-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00058-x</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2641,21 +2636,21 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-06-07</t>
         </is>
       </c>
       <c r="G41">
-        <v>1180</v>
+        <v>1444</v>
       </c>
       <c r="H41">
+        <v>8</v>
+      </c>
+      <c r="I41">
         <v>2</v>
       </c>
-      <c r="I41">
-        <v>3</v>
-      </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Chunhui Deng, Nianrong Sun, Hao Wu</t>
+          <t>Jose Arturo Molina-Mora</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2665,29 +2660,29 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Emerging Regulatory Mechanisms of N6-Methyladenosine Modification in Cancer Metastasis</t>
+          <t>Metabolic Molecular Diagnosis of Inflammatory Bowel Disease by Synergistical Promotion of Layered Titania Nanosheets with Graphitized Carbon</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00043-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00055-0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D42">
@@ -2695,53 +2690,53 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="G42">
-        <v>1528</v>
+        <v>1185</v>
       </c>
       <c r="H42">
         <v>2</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Lunxiu Qin</t>
+          <t>Chunhui Deng, Nianrong Sun, Hao Wu</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Deep Clinical Phenotyping of Parkinson’s Disease: Towards a New Era of Research and Clinical Care</t>
+          <t>Emerging Regulatory Mechanisms of N6-Methyladenosine Modification in Cancer Metastasis</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00051-4</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00043-w</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2759,53 +2754,53 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2022-05-21</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="G43">
-        <v>1364</v>
+        <v>1551</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Jian Wang</t>
+          <t>Lunxiu Qin</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A Hashing-Based Framework for Enhancing Cluster Delineation of High-Dimensional Single-Cell Profiles</t>
+          <t>Deep Clinical Phenotyping of Parkinson’s Disease: Towards a New Era of Research and Clinical Care</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00056-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00051-4</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D44">
@@ -2818,21 +2813,21 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>2022-05-21</t>
         </is>
       </c>
       <c r="G44">
-        <v>1198</v>
+        <v>1374</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Xianting Ding</t>
+          <t>Jian Wang</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2847,19 +2842,19 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Nascent Proteome and Glycoproteome Reveal the Inhibition Role of ALG1 in Hepatocellular Carcinoma Cell Migration</t>
+          <t>A Hashing-Based Framework for Enhancing Cluster Delineation of High-Dimensional Single-Cell Profiles</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00050-5</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00056-z</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2877,21 +2872,21 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2022-05-14</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="G45">
-        <v>1391</v>
+        <v>1203</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Hong Shu, Haojie Lu</t>
+          <t>Xianting Ding</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2901,24 +2896,24 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Biomarkers and Disease Trajectories Influencing Women’s Health: Results from the UK Biobank Cohort</t>
+          <t>Nascent Proteome and Glycoproteome Reveal the Inhibition Role of ALG1 in Hepatocellular Carcinoma Cell Migration</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00054-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00050-5</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2936,21 +2931,21 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-05-14</t>
         </is>
       </c>
       <c r="G46">
-        <v>2210</v>
+        <v>1405</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Haomin Yang, Weimin Ye</t>
+          <t>Hong Shu, Haojie Lu</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -2960,24 +2955,24 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Causal Effect of Genetically Determined Blood Copper Concentrations on Multiple Diseases: A Mendelian Randomization and Phenome-Wide Association Study</t>
+          <t>Biomarkers and Disease Trajectories Influencing Women’s Health: Results from the UK Biobank Cohort</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00052-3</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00054-1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2995,21 +2990,21 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="G47">
-        <v>1410</v>
+        <v>2252</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Longman Li, Xiaobo Yang</t>
+          <t>Haomin Yang, Weimin Ye</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3019,24 +3014,24 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Three Novel Mutations of Microphthalmos Identified in Two Chinese Families</t>
+          <t>Causal Effect of Genetically Determined Blood Copper Concentrations on Multiple Diseases: A Mendelian Randomization and Phenome-Wide Association Study</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00053-2</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00052-3</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3058,17 +3053,17 @@
         </is>
       </c>
       <c r="G48">
-        <v>991</v>
+        <v>1443</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Yi Lu, Tianyu Zheng</t>
+          <t>Longman Li, Xiaobo Yang</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3083,24 +3078,24 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Correction to: Welcome to the Phenomics Journal</t>
+          <t>Three Novel Mutations of Microphthalmos Identified in Two Chinese Families</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00059-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00053-2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D49">
@@ -3113,11 +3108,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="G49">
-        <v>650</v>
+        <v>995</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -3127,34 +3122,39 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Li Jin</t>
+          <t>Yi Lu, Tianyu Zheng</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>4</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A Comprehensive Review of High Throughput Phenotyping and Machine Learning for Plant Stress Phenotyping</t>
+          <t>Correction to: Welcome to the Phenomics Journal</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00048-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00059-w</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="D50">
@@ -3162,58 +3162,53 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2022-04</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2022-04-04</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="G50">
-        <v>3999</v>
+        <v>679</v>
       </c>
       <c r="H50">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Karansher S. Sandhu</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>Li Jin</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Global Quantitative Proteomics Analysis Reveals the Downstream Signaling Networks of Msx1 and Msx2 in Myoblast Differentiation</t>
+          <t>A Comprehensive Review of High Throughput Phenotyping and Machine Learning for Plant Stress Phenotyping</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00049-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00048-z</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D51">
@@ -3221,26 +3216,26 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2022-03</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="G51">
-        <v>1077</v>
+        <v>4017</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Yenan Yang</t>
+          <t>Karansher S. Sandhu</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3255,19 +3250,19 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Basic Phenotyping of Male Fertility from 2019 to 2020 at the Human Sperm Bank of Fudan University</t>
+          <t>Global Quantitative Proteomics Analysis Reveals the Downstream Signaling Networks of Msx1 and Msx2 in Myoblast Differentiation</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00047-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00049-y</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3280,16 +3275,16 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2022-02-28</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="G52">
-        <v>1020</v>
+        <v>1088</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -3299,7 +3294,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Feng Jiang</t>
+          <t>Yenan Yang</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3314,19 +3309,19 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A Preliminary Study on the Evaluation of Human Sperm Head Morphology with a Domestic Digital Holographic Image System</t>
+          <t>Basic Phenotyping of Male Fertility from 2019 to 2020 at the Human Sperm Bank of Fudan University</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00046-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00047-0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3344,17 +3339,17 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2022-02-26</t>
+          <t>2022-02-28</t>
         </is>
       </c>
       <c r="G53">
-        <v>1080</v>
+        <v>1031</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -3368,29 +3363,29 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Positron Emission Tomography Molecular Imaging for Phenotyping and Management of Lymphoma</t>
+          <t>A Preliminary Study on the Evaluation of Human Sperm Head Morphology with a Domestic Digital Holographic Image System</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00042-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00046-1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D54">
@@ -3403,21 +3398,21 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2022-02-24</t>
+          <t>2022-02-26</t>
         </is>
       </c>
       <c r="G54">
-        <v>1585</v>
+        <v>1083</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Hong Zhang, Ali Cahid Civelek, Mei Tian</t>
+          <t>Feng Jiang</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3432,24 +3427,24 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Immunosuppression Induced by Brain-Specific HDAC6 Knockdown Improves Aging Performance in Drosophila melanogaster</t>
+          <t>Positron Emission Tomography Molecular Imaging for Phenotyping and Management of Lymphoma</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00045-2</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00042-x</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D55">
@@ -3462,21 +3457,21 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2022-02-23</t>
+          <t>2022-02-24</t>
         </is>
       </c>
       <c r="G55">
-        <v>1433</v>
+        <v>1608</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Jing-Dong J. Han, Wei Yu</t>
+          <t>Hong Zhang, Ali Cahid Civelek, Mei Tian</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3486,29 +3481,29 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Recent Advances in Understanding of Alzheimer’s Disease Progression Through Mass Spectrometry-Based Metabolomics</t>
+          <t>Immunosuppression Induced by Brain-Specific HDAC6 Knockdown Improves Aging Performance in Drosophila melanogaster</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00036-9</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00045-2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D56">
@@ -3521,21 +3516,21 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2022-02-22</t>
+          <t>2022-02-23</t>
         </is>
       </c>
       <c r="G56">
-        <v>2181</v>
+        <v>1452</v>
       </c>
       <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
         <v>2</v>
       </c>
-      <c r="I56">
-        <v>15</v>
-      </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Lingjun Li</t>
+          <t>Jing-Dong J. Han, Wei Yu</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3545,29 +3540,29 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Preoperative Characteristics of Ocular Biometry in Children with Unilateral Congenital Cataracts</t>
+          <t>Recent Advances in Understanding of Alzheimer’s Disease Progression Through Mass Spectrometry-Based Metabolomics</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00040-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00036-9</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D57">
@@ -3584,17 +3579,17 @@
         </is>
       </c>
       <c r="G57">
-        <v>883</v>
+        <v>2187</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Yi Lu</t>
+          <t>Lingjun Li</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3604,24 +3599,24 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Unraveling the Dynamic Integration of Auxin, Brassinosteroid and Gibberellin in Early Shade-Induced Hypocotyl Elongation</t>
+          <t>Preoperative Characteristics of Ocular Biometry in Children with Unilateral Congenital Cataracts</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00044-3</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00040-z</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3639,21 +3634,21 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2022-02-13</t>
+          <t>2022-02-22</t>
         </is>
       </c>
       <c r="G58">
-        <v>1334</v>
+        <v>889</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Lin Li</t>
+          <t>Yi Lu</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3668,19 +3663,19 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Diurnal Circadian Lighting Accumulation Model: A Predictor of the Human Circadian Phase Shift Phenotype</t>
+          <t>Unraveling the Dynamic Integration of Auxin, Brassinosteroid and Gibberellin in Early Shade-Induced Hypocotyl Elongation</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00039-6</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00044-3</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3698,21 +3693,21 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2022-02-11</t>
+          <t>2022-02-13</t>
         </is>
       </c>
       <c r="G59">
-        <v>1664</v>
+        <v>1344</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Yandan Lin</t>
+          <t>Lin Li</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3722,29 +3717,29 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Optical Imaging of Epigenetic Modifications in Cancer: A Systematic Review</t>
+          <t>Diurnal Circadian Lighting Accumulation Model: A Predictor of the Human Circadian Phase Shift Phenotype</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00041-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00039-6</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D60">
@@ -3757,21 +3752,21 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2022-02-07</t>
+          <t>2022-02-11</t>
         </is>
       </c>
       <c r="G60">
-        <v>1867</v>
+        <v>1697</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Yang Du, Jie Tian</t>
+          <t>Yandan Lin</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3781,29 +3776,29 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Seasonality and Sex-Biased Fluctuation of Birth Weight in Tibetan Populations</t>
+          <t>Optical Imaging of Epigenetic Modifications in Cancer: A Systematic Review</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00038-7</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00041-y</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D61">
@@ -3811,26 +3806,26 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2022-01-31</t>
+          <t>2022-02-07</t>
         </is>
       </c>
       <c r="G61">
-        <v>1074</v>
+        <v>1880</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ouzhuluobu, Xuebin Qi, Bing Su</t>
+          <t>Yang Du, Jie Tian</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3840,29 +3835,29 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Why Do We Care More About Disease than Health?</t>
+          <t>Seasonality and Sex-Biased Fluctuation of Birth Weight in Tibetan Populations</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00037-8</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00038-7</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Commentary</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D62">
@@ -3875,21 +3870,21 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2022-01-28</t>
+          <t>2022-01-31</t>
         </is>
       </c>
       <c r="G62">
-        <v>2623</v>
+        <v>1078</v>
       </c>
       <c r="H62">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Martin Picard</t>
+          <t xml:space="preserve"> Ouzhuluobu, Xuebin Qi, Bing Su</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3899,29 +3894,29 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Recent Progresses in Electrochemical DNA Biosensors for MicroRNA Detection</t>
+          <t>Why Do We Care More About Disease than Health?</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00032-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00037-8</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="D63">
@@ -3934,21 +3929,21 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2022-01-21</t>
+          <t>2022-01-28</t>
         </is>
       </c>
       <c r="G63">
-        <v>1823</v>
+        <v>2629</v>
       </c>
       <c r="H63">
         <v>4</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Xianting Ding</t>
+          <t>Martin Picard</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -3958,29 +3953,29 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Pan-cancer analysis identifies RNA helicase DDX1 as a prognostic marker</t>
+          <t>Recent Progresses in Electrochemical DNA Biosensors for MicroRNA Detection</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00034-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00032-z</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D64">
@@ -3993,21 +3988,21 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2022-01-19</t>
+          <t>2022-01-21</t>
         </is>
       </c>
       <c r="G64">
-        <v>1572</v>
+        <v>1840</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Jixi Li</t>
+          <t>Xianting Ding</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4022,24 +4017,24 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Correction to: N-Glycoproteomics Study of Putative N-Glycoprotein Biomarkers of Drug Resistance in MCF-7/ADR Cells657</t>
+          <t>Pan-cancer analysis identifies RNA helicase DDX1 as a prognostic marker</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00035-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00034-x</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D65">
@@ -4052,48 +4047,53 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2022-01-17</t>
+          <t>2022-01-19</t>
         </is>
       </c>
       <c r="G65">
-        <v>666</v>
+        <v>1577</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Yun Chen, Zhixin Tian</t>
+          <t>Jixi Li</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Phenome-Wide Association Analysis Reveals Novel Links Between Genetically Determined Levels of Liver Enzymes and Disease Phenotypes</t>
+          <t>Correction to: N-Glycoproteomics Study of Putative N-Glycoprotein Biomarkers of Drug Resistance in MCF-7/ADR Cells657</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00033-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00035-w</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="D66">
@@ -4106,53 +4106,48 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2022-01-11</t>
+          <t>2022-01-17</t>
         </is>
       </c>
       <c r="G66">
-        <v>1737</v>
+        <v>690</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Xingdong Chen</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>Yun Chen, Zhixin Tian</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>5</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Mapping Cell Phenomics with Multiparametric Flow Cytometry Assays</t>
+          <t>Phenome-Wide Association Analysis Reveals Novel Links Between Genetically Determined Levels of Liver Enzymes and Disease Phenotypes</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00031-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00033-y</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D67">
@@ -4165,21 +4160,21 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2022-01-09</t>
+          <t>2022-01-11</t>
         </is>
       </c>
       <c r="G67">
-        <v>2597</v>
+        <v>1748</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Shan Jiang, Jing Wang, Ying Wan</t>
+          <t>Xingdong Chen</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4189,24 +4184,24 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Beyond Mendelian Inheritance: Genetic Buffering and Phenotype Variability</t>
+          <t>Mapping Cell Phenomics with Multiparametric Flow Cytometry Assays</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00030-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00031-0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4215,30 +4210,30 @@
         </is>
       </c>
       <c r="D68">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-12-27</t>
+          <t>2022-01-09</t>
         </is>
       </c>
       <c r="G68">
-        <v>2284</v>
+        <v>2645</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Andrea Rossi, Zacharias Kontarakis</t>
+          <t>Shan Jiang, Jing Wang, Ying Wan</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4248,29 +4243,29 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CYP2C9*3 Increases the Ibuprofen Response of Hemodynamically Significant Patent Ductus Arteriosus in the Infants with Gestational Age of More Than 30 Weeks</t>
+          <t>Beyond Mendelian Inheritance: Genetic Buffering and Phenotype Variability</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00028-9</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00030-1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D69">
@@ -4278,26 +4273,26 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-11-11</t>
+          <t>2021-12-27</t>
         </is>
       </c>
       <c r="G69">
-        <v>1185</v>
+        <v>2317</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Wenhao Zhou</t>
+          <t>Andrea Rossi, Zacharias Kontarakis</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4307,29 +4302,29 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Mental Calculation Drives Reliable and Weak Distant Connectivity While Music Listening Induces Dense Local Connectivity</t>
+          <t>CYP2C9*3 Increases the Ibuprofen Response of Hemodynamically Significant Patent Ductus Arteriosus in the Infants with Gestational Age of More Than 30 Weeks</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00027-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00028-9</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correspondence</t>
         </is>
       </c>
       <c r="D70">
@@ -4342,48 +4337,48 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-11-10</t>
+          <t>2021-11-11</t>
         </is>
       </c>
       <c r="G70">
-        <v>1692</v>
+        <v>1187</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Yuguo Yu</t>
+          <t>Wenhao Zhou</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Systematic Genome-Wide Profiles Reveal Alternative Splicing Landscape and Implications of Splicing Regulator DExD-Box Helicase 21 in Aggressive Progression of Adrenocortical Carcinoma</t>
+          <t>Mental Calculation Drives Reliable and Weak Distant Connectivity While Music Listening Induces Dense Local Connectivity</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00026-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00027-w</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4396,26 +4391,26 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-10-29</t>
+          <t>2021-11-10</t>
         </is>
       </c>
       <c r="G71">
-        <v>1736</v>
+        <v>1701</v>
       </c>
       <c r="H71">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Yuanyuan Qu, Hailiang Zhang, Dingwei Ye</t>
+          <t>Yuguo Yu</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4430,19 +4425,19 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>N-Glycoproteomics Study of Putative N-Glycoprotein Biomarkers of Drug Resistance in MCF-7/ADR Cells</t>
+          <t>Systematic Genome-Wide Profiles Reveal Alternative Splicing Landscape and Implications of Splicing Regulator DExD-Box Helicase 21 in Aggressive Progression of Adrenocortical Carcinoma</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00029-8</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00026-x</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4460,21 +4455,21 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-10-28</t>
+          <t>2021-10-29</t>
         </is>
       </c>
       <c r="G72">
-        <v>1671</v>
+        <v>1740</v>
       </c>
       <c r="H72">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Yun Chen, Zhixin Tian</t>
+          <t>Yuanyuan Qu, Hailiang Zhang, Dingwei Ye</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4489,19 +4484,19 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Strided Self-Supervised Low-Dose CT Denoising for Lung Nodule Classification</t>
+          <t>N-Glycoproteomics Study of Putative N-Glycoprotein Biomarkers of Drug Resistance in MCF-7/ADR Cells</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00025-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00029-8</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4519,21 +4514,21 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-10-26</t>
+          <t>2021-10-28</t>
         </is>
       </c>
       <c r="G73">
-        <v>1603</v>
+        <v>1675</v>
       </c>
       <c r="H73">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Hongming Shan</t>
+          <t>Yun Chen, Zhixin Tian</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4548,19 +4543,19 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Pseudotime Ordering Single-Cell Transcriptomic of β Cells Pancreatic Islets in Health and Type 2 Diabetes</t>
+          <t>Strided Self-Supervised Low-Dose CT Denoising for Lung Nodule Classification</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00024-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00025-y</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4578,21 +4573,21 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-10-19</t>
+          <t>2021-10-26</t>
         </is>
       </c>
       <c r="G74">
-        <v>1544</v>
+        <v>1614</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Xingxing Kong, Tiemin Liu</t>
+          <t>Hongming Shan</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4602,24 +4597,24 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Causal Relationship Between Complement C3, C4, and Nonalcoholic Fatty Liver Disease: Bidirectional Mendelian Randomization Analysis</t>
+          <t>Pseudotime Ordering Single-Cell Transcriptomic of β Cells Pancreatic Islets in Health and Type 2 Diabetes</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00023-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00024-z</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4632,26 +4627,26 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-09-23</t>
+          <t>2021-10-19</t>
         </is>
       </c>
       <c r="G75">
-        <v>1330</v>
+        <v>1553</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Xiaobo Yang</t>
+          <t>Xingxing Kong, Tiemin Liu</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4666,24 +4661,24 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Origin and Spread of the ALDH2 Glu504Lys Allele</t>
+          <t>Causal Relationship Between Complement C3, C4, and Nonalcoholic Fatty Liver Disease: Bidirectional Mendelian Randomization Analysis</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00017-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00023-0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D76">
@@ -4696,11 +4691,11 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-09-20</t>
+          <t>2021-09-23</t>
         </is>
       </c>
       <c r="G76">
-        <v>2136</v>
+        <v>1336</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -4710,7 +4705,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Aijun Sun</t>
+          <t>Xiaobo Yang</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4725,19 +4720,19 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Phenotypes of Cardiovascular Diseases: Current Status and Future Perspectives</t>
+          <t>Origin and Spread of the ALDH2 Glu504Lys Allele</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00022-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00017-y</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4750,16 +4745,16 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-08-26</t>
+          <t>2021-09-20</t>
         </is>
       </c>
       <c r="G77">
-        <v>1641</v>
+        <v>2179</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -4769,7 +4764,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Jiangping Song</t>
+          <t>Aijun Sun</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4784,24 +4779,24 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Prediction of Metabolic Disorders Using NMR-Based Metabolomics: The Shanghai Changfeng Study</t>
+          <t>Phenotypes of Cardiovascular Diseases: Current Status and Future Perspectives</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00021-2</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00022-1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D78">
@@ -4814,21 +4809,21 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-08-24</t>
+          <t>2021-08-26</t>
         </is>
       </c>
       <c r="G78">
-        <v>1502</v>
+        <v>1647</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Ming-feng Xia, Hui-ru Tang, Xin Gao</t>
+          <t>Jiangping Song</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -4838,29 +4833,29 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Computational Methods for Prediction of Human Protein-Phenotype Associations: A Review</t>
+          <t>Prediction of Metabolic Disorders Using NMR-Based Metabolomics: The Shanghai Changfeng Study</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00019-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00021-2</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D79">
@@ -4873,21 +4868,21 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-08-06</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="G79">
-        <v>2034</v>
+        <v>1513</v>
       </c>
       <c r="H79">
         <v>2</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Shanfeng Zhu</t>
+          <t>Ming-feng Xia, Hui-ru Tang, Xin Gao</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4902,19 +4897,19 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Recommendation for Cardiac Magnetic Resonance Imaging-Based Phenotypic Study: Imaging Part</t>
+          <t>Computational Methods for Prediction of Human Protein-Phenotype Associations: A Review</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00018-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00019-w</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4927,26 +4922,26 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-07-28</t>
+          <t>2021-08-06</t>
         </is>
       </c>
       <c r="G80">
-        <v>2701</v>
+        <v>2039</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Chengyan Wang, He Wang</t>
+          <t>Shanfeng Zhu</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -4961,19 +4956,19 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Molecular Phenomic Approaches to Deconvolving the Systemic Effects of SARS-CoV-2 Infection and Post-acute COVID-19 Syndrome</t>
+          <t>Recommendation for Cardiac Magnetic Resonance Imaging-Based Phenotypic Study: Imaging Part</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00020-3</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00018-x</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4991,21 +4986,21 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>2021-07-28</t>
         </is>
       </c>
       <c r="G81">
-        <v>3180</v>
+        <v>2754</v>
       </c>
       <c r="H81">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Jeremy K. Nicholson</t>
+          <t>Chengyan Wang, He Wang</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5020,24 +5015,24 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Genetic Architecture of Childhood Kidney and Urological Diseases in China</t>
+          <t>Molecular Phenomic Approaches to Deconvolving the Systemic Effects of SARS-CoV-2 Infection and Post-acute COVID-19 Syndrome</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00014-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00020-3</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D82">
@@ -5050,21 +5045,21 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>2021-07-22</t>
         </is>
       </c>
       <c r="G82">
-        <v>1964</v>
+        <v>3227</v>
       </c>
       <c r="H82">
         <v>5</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Jia Rao, Hong Xu</t>
+          <t>Jeremy K. Nicholson</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5074,29 +5069,29 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Defense of COVID-19 by Human Organoids</t>
+          <t>Genetic Architecture of Childhood Kidney and Urological Diseases in China</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00015-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00014-1</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D83">
@@ -5109,21 +5104,21 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-07-14</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="G83">
-        <v>3436</v>
+        <v>2027</v>
       </c>
       <c r="H83">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Xinhua Lin, Bing Zhao</t>
+          <t>Jia Rao, Hong Xu</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -5138,24 +5133,24 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Random Penetrance of Mutations Among Individuals: A New Type of Genetic Drift in Molecular Evolution</t>
+          <t>Defense of COVID-19 by Human Organoids</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00013-2</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00015-0</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D84">
@@ -5163,26 +5158,26 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-06-17</t>
+          <t>2021-07-14</t>
         </is>
       </c>
       <c r="G84">
-        <v>1333</v>
+        <v>3480</v>
       </c>
       <c r="H84">
+        <v>4</v>
+      </c>
+      <c r="I84">
         <v>1</v>
       </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Xun Gu</t>
+          <t>Xinhua Lin, Bing Zhao</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5197,24 +5192,24 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Molecular Determinants of Antibiotic Resistance in the Costa Rican Pseudomonas aeruginosa AG1 by a Multi-omics Approach: A Review of 10 Years of Study</t>
+          <t>Random Penetrance of Mutations Among Individuals: A New Type of Genetic Drift in Molecular Evolution</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00016-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00013-2</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D85">
@@ -5231,17 +5226,17 @@
         </is>
       </c>
       <c r="G85">
-        <v>2951</v>
+        <v>1336</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
+          <t>Xun Gu</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5256,24 +5251,24 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Distribution Atlas of COVID-19 Pneumonia on Computed Tomography: A Deep Learning Based Description</t>
+          <t>Molecular Determinants of Antibiotic Resistance in the Costa Rican Pseudomonas aeruginosa AG1 by a Multi-omics Approach: A Review of 10 Years of Study</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00011-4</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00016-z</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D86">
@@ -5281,26 +5276,26 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-06-17</t>
         </is>
       </c>
       <c r="G86">
-        <v>2250</v>
+        <v>2980</v>
       </c>
       <c r="H86">
         <v>3</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Shenghong Ju</t>
+          <t>Jose Arturo Molina-Mora</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5310,24 +5305,24 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Comparison of Metabolic Profiling of Arabidopsis Inflorescences Between Landsberg erecta and Columbia, and Meiosis-Defective Mutants by 1H-NMR Spectroscopy</t>
+          <t>Distribution Atlas of COVID-19 Pneumonia on Computed Tomography: A Deep Learning Based Description</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00012-3</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00011-4</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -5349,17 +5344,17 @@
         </is>
       </c>
       <c r="G87">
-        <v>1943</v>
+        <v>2291</v>
       </c>
       <c r="H87">
+        <v>3</v>
+      </c>
+      <c r="I87">
         <v>1</v>
       </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Limin Zhang, Yingxiang Wang</t>
+          <t>Shenghong Ju</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5374,24 +5369,24 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>High-Throughput Phenotyping: A Platform to Accelerate Crop Improvement</t>
+          <t>Comparison of Metabolic Profiling of Arabidopsis Inflorescences Between Landsberg erecta and Columbia, and Meiosis-Defective Mutants by 1H-NMR Spectroscopy</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-020-00007-6</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00012-3</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D88">
@@ -5408,17 +5403,17 @@
         </is>
       </c>
       <c r="G88">
-        <v>4311</v>
+        <v>1945</v>
       </c>
       <c r="H88">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Neelam R. Yadav</t>
+          <t>Limin Zhang, Yingxiang Wang</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5433,24 +5428,24 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Effect of Light on Cognitive Function During a Stroop Task Using Functional Near-Infrared Spectroscopy</t>
+          <t>High-Throughput Phenotyping: A Platform to Accelerate Crop Improvement</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00010-5</t>
+          <t>http://link.springer.com/article/10.1007/s43657-020-00007-6</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D89">
@@ -5458,26 +5453,26 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-04-19</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="G89">
-        <v>2540</v>
+        <v>4323</v>
       </c>
       <c r="H89">
+        <v>14</v>
+      </c>
+      <c r="I89">
         <v>1</v>
       </c>
-      <c r="I89">
-        <v>2</v>
-      </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Wei Chen</t>
+          <t>Neelam R. Yadav</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -5492,19 +5487,19 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Using Composite Phenotypes to Reveal Hidden Physiological Heterogeneity in High-Altitude Acclimatization in a Chinese Han Longitudinal Cohort</t>
+          <t>Effect of Light on Cognitive Function During a Stroop Task Using Functional Near-Infrared Spectroscopy</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-020-00005-8</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00010-5</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -5517,26 +5512,26 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-02-22</t>
+          <t>2021-04-19</t>
         </is>
       </c>
       <c r="G90">
-        <v>5036</v>
+        <v>2578</v>
       </c>
       <c r="H90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Li Jin</t>
+          <t>Wei Chen</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -5546,24 +5541,24 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>The Ultrafast and Accurate Mapping Algorithm FANSe3: Mapping a Human Whole-Genome Sequencing Dataset Within 30 Minutes</t>
+          <t>Using Composite Phenotypes to Reveal Hidden Physiological Heterogeneity in High-Altitude Acclimatization in a Chinese Han Longitudinal Cohort</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-020-00008-5</t>
+          <t>http://link.springer.com/article/10.1007/s43657-020-00005-8</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -5585,17 +5580,17 @@
         </is>
       </c>
       <c r="G91">
-        <v>3736</v>
+        <v>5076</v>
       </c>
       <c r="H91">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I91">
         <v>7</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Gong Zhang, Jingjie Jin</t>
+          <t>Jiucun Wang, Li Jin</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -5610,24 +5605,24 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>In Situ Saturating Mutagenesis Screening Identifies a Functional Genomic Locus that Regulates Ucp1 Expression</t>
+          <t>The Ultrafast and Accurate Mapping Algorithm FANSe3: Mapping a Human Whole-Genome Sequencing Dataset Within 30 Minutes</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-020-00006-7</t>
+          <t>http://link.springer.com/article/10.1007/s43657-020-00008-5</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D92">
@@ -5644,17 +5639,17 @@
         </is>
       </c>
       <c r="G92">
-        <v>2485</v>
+        <v>3769</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Qiurong Ding</t>
+          <t>Gong Zhang, Jingjie Jin</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -5669,24 +5664,24 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Welcome to the Phenomics Journal</t>
+          <t>In Situ Saturating Mutagenesis Screening Identifies a Functional Genomic Locus that Regulates Ucp1 Expression</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-020-00009-4</t>
+          <t>http://link.springer.com/article/10.1007/s43657-020-00006-7</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Editorial</t>
+          <t>Correspondence</t>
         </is>
       </c>
       <c r="D93">
@@ -5694,41 +5689,100 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2021-02-22</t>
+        </is>
+      </c>
+      <c r="G93">
+        <v>2495</v>
+      </c>
+      <c r="H93">
+        <v>2</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Qiurong Ding</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>2023-04-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Welcome to the Phenomics Journal</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>http://link.springer.com/article/10.1007/s43657-020-00009-4</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Editorial</t>
+        </is>
+      </c>
+      <c r="D94">
+        <v>2021</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
           <t>2021-01</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>2021-01-11</t>
         </is>
       </c>
-      <c r="G93">
-        <v>4484</v>
-      </c>
-      <c r="H93">
-        <v>3</v>
-      </c>
-      <c r="I93">
+      <c r="G94">
+        <v>4520</v>
+      </c>
+      <c r="H94">
+        <v>4</v>
+      </c>
+      <c r="I94">
         <v>5</v>
       </c>
-      <c r="J93" t="inlineStr">
+      <c r="J94" t="inlineStr">
         <is>
           <t>Li Jin</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr">
+      <c r="K94" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L93" t="inlineStr">
+      <c r="L94" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>2023-04-02</t>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>2023-04-09</t>
         </is>
       </c>
     </row>

--- a/weekly_online_paper_metrices/all_Phenomics_paper_metrics.xlsx
+++ b/weekly_online_paper_metrices/all_Phenomics_paper_metrics.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M95"/>
+  <dimension ref="A1:M96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -427,17 +427,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RNA-Sequencing Reveals Gene Expression and Pathway Signatures in Umbilical Cord Blood Affected by Birth Delivery Mode</t>
+          <t>Overview of a Sleep Monitoring Protocol for a Large Natural Population</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00086-7</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00102-4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="D2">
@@ -445,16 +445,16 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2023-05-06</t>
         </is>
       </c>
       <c r="G2">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -464,7 +464,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Lin Zhang, Dan Chen</t>
+          <t>Chen Chen, Jingchun Luo, Wei Chen</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -474,24 +474,24 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Genetic Phenotypes of Alzheimer’s Disease: Mechanisms and Potential Therapy</t>
+          <t>RNA-Sequencing Reveals Gene Expression and Pathway Signatures in Umbilical Cord Blood Affected by Birth Delivery Mode</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-023-00098-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00086-7</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D3">
@@ -504,21 +504,21 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="G3">
-        <v>288</v>
+        <v>57</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Jianping Jia</t>
+          <t>Lin Zhang, Dan Chen</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -528,24 +528,24 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hidden Genetic Regulation of Human Complex Traits via Brain Isoforms</t>
+          <t>Genetic Phenotypes of Alzheimer’s Disease: Mechanisms and Potential Therapy</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-023-00100-6</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00098-x</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D4">
@@ -553,26 +553,26 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-04</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2023-03-20</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="G4">
-        <v>440</v>
+        <v>338</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Xia Shen</t>
+          <t>Jianping Jia</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -582,24 +582,24 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sample Collection, DNA Extraction, and Library Construction Protocols of the Human Microbiome Studies in the International Human Phenome Project</t>
+          <t>Hidden Genetic Regulation of Human Complex Traits via Brain Isoforms</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-023-00097-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00100-6</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="D5">
@@ -612,21 +612,21 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-03-20</t>
         </is>
       </c>
       <c r="G5">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Zhexue Quan, Yan Zheng</t>
+          <t>Xia Shen</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -636,24 +636,24 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>α2,3-Sialylation with Fucosylation Associated with More Severe Anti-MDA5 Positive Dermatomyositis Induced by Rapidly Progressive Interstitial Lung Disease</t>
+          <t>Sample Collection, DNA Extraction, and Library Construction Protocols of the Human Microbiome Studies in the International Human Phenome Project</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-023-00096-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00097-y</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="D6">
@@ -666,21 +666,21 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2023-03-07</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="G6">
-        <v>225</v>
+        <v>445</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Jianxin Gu, Jing Liu, Shifang Ren</t>
+          <t>Zhexue Quan, Yan Zheng</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -690,19 +690,19 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Virtual Fluorescence Translation for Biological Tissue by Conditional Generative Adversarial Network</t>
+          <t>α2,3-Sialylation with Fucosylation Associated with More Severe Anti-MDA5 Positive Dermatomyositis Induced by Rapidly Progressive Interstitial Lung Disease</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-023-00094-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00096-z</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -720,11 +720,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2023-03-02</t>
+          <t>2023-03-07</t>
         </is>
       </c>
       <c r="G7">
-        <v>273</v>
+        <v>230</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -734,7 +734,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Dean Ta</t>
+          <t>Jianxin Gu, Jing Liu, Shifang Ren</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -744,24 +744,24 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Diets, Gut Microbiota and Metabolites</t>
+          <t>Virtual Fluorescence Translation for Biological Tissue by Conditional Generative Adversarial Network</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-023-00095-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00094-1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D8">
@@ -778,17 +778,17 @@
         </is>
       </c>
       <c r="G8">
-        <v>442</v>
+        <v>281</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Shangyu Hong, Yan Sun</t>
+          <t>Dean Ta</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -798,24 +798,24 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Deep Immunophenotyping of Human Whole Blood by Standardized Multi-parametric Flow Cytometry Analyses</t>
+          <t>Diets, Gut Microbiota and Metabolites</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00092-9</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00095-0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D9">
@@ -823,26 +823,26 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2023-02-23</t>
+          <t>2023-03-02</t>
         </is>
       </c>
       <c r="G9">
-        <v>1185</v>
+        <v>449</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Feng Qian</t>
+          <t>Shangyu Hong, Yan Sun</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -852,24 +852,24 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Management of Intraductal Papilloma of the Breast Diagnosed on Core Needle Biopsy: Latest Controversies</t>
+          <t>Deep Immunophenotyping of Human Whole Blood by Standardized Multi-parametric Flow Cytometry Analyses</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00085-8</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00092-9</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="D10">
@@ -882,53 +882,48 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-02-23</t>
         </is>
       </c>
       <c r="G10">
-        <v>447</v>
+        <v>1252</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Hongfeng Chen</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>Feng Qian</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Presence of Rare Variants is Associated with Poorer Survival in Chinese Patients with Amyotrophic Lateral Sclerosis</t>
+          <t>Management of Intraductal Papilloma of the Breast Diagnosed on Core Needle Biopsy: Latest Controversies</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00093-8</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00085-8</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D11">
@@ -941,11 +936,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2023-02-12</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="G11">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -955,7 +950,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Xiangjun Chen</t>
+          <t>Hongfeng Chen</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -970,24 +965,24 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Phenomic Studies on Diseases: Potential and Challenges</t>
+          <t>Presence of Rare Variants is Associated with Poorer Survival in Chinese Patients with Amyotrophic Lateral Sclerosis</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00089-4</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00093-8</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D12">
@@ -995,53 +990,58 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2023-02-12</t>
         </is>
       </c>
       <c r="G12">
-        <v>1068</v>
+        <v>487</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Weihai Ying</t>
+          <t>Jiucun Wang, Xiangjun Chen</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>2</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Deep Learning-Assisted Quantitative Susceptibility Mapping as a Tool for Grading and Molecular Subtyping of Gliomas</t>
+          <t>Phenomic Studies on Diseases: Potential and Challenges</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00087-6</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00089-4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D13">
@@ -1058,17 +1058,17 @@
         </is>
       </c>
       <c r="G13">
-        <v>541</v>
+        <v>1099</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Xiao-Yong Zhang, Yan Ren</t>
+          <t>Weihai Ying</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1078,24 +1078,24 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Protocol for Brain Magnetic Resonance Imaging and Extraction of Imaging-Derived Phenotypes from the China Phenobank Project</t>
+          <t>Deep Learning-Assisted Quantitative Susceptibility Mapping as a Tool for Grading and Molecular Subtyping of Gliomas</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00083-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00087-6</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D14">
@@ -1112,17 +1112,17 @@
         </is>
       </c>
       <c r="G14">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Mei Tian</t>
+          <t>Xiao-Yong Zhang, Yan Ren</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1132,24 +1132,24 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Infrared Imageries of Human Body Activated by Tea Match the Hypothesis of Meridian System</t>
+          <t>Protocol for Brain Magnetic Resonance Imaging and Extraction of Imaging-Derived Phenotypes from the China Phenobank Project</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00090-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00083-w</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="D15">
@@ -1166,17 +1166,17 @@
         </is>
       </c>
       <c r="G15">
-        <v>605</v>
+        <v>499</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Hui Li</t>
+          <t>Mei Tian</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1186,78 +1186,73 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Proteomic Portrait of Human Lymphoma Reveals Protein Molecular Fingerprint of Disease Specific Subtypes and Progression</t>
+          <t>Infrared Imageries of Human Body Activated by Tea Match the Hypothesis of Meridian System</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00075-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00090-x</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correspondence</t>
         </is>
       </c>
       <c r="D16">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2022-12-12</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="G16">
-        <v>1017</v>
+        <v>612</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Wei Yan, Jie Jin</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>Hui Li</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>In Silico Pipeline to Identify Tumor-Specific Antigens for Cancer Immunotherapy Using Exome Sequencing Data</t>
+          <t>Proteomic Portrait of Human Lymphoma Reveals Protein Molecular Fingerprint of Disease Specific Subtypes and Progression</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00084-9</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00075-w</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1275,21 +1270,21 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2022-12-08</t>
+          <t>2022-12-12</t>
         </is>
       </c>
       <c r="G17">
-        <v>717</v>
+        <v>1024</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
+          <t>Wei Yan, Jie Jin</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1304,19 +1299,19 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A Genome-Wide Association Study for Susceptibility to Axial Length in Highly Myopic Eyes</t>
+          <t>In Silico Pipeline to Identify Tumor-Specific Antigens for Cancer Immunotherapy Using Exome Sequencing Data</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00082-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00084-9</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1334,48 +1329,53 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2022-12-08</t>
         </is>
       </c>
       <c r="G18">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
         <v>0</v>
       </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Xiangjia Zhu, Yi Lu</t>
+          <t>Jose Arturo Molina-Mora</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>2</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Measurement of Cerebral Oxygen Extraction Fraction Using Quantitative BOLD Approach: A Review</t>
+          <t>A Genome-Wide Association Study for Susceptibility to Axial Length in Highly Myopic Eyes</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00081-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00082-x</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D19">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="G19">
-        <v>816</v>
+        <v>739</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1402,39 +1402,34 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>He Wang</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>Xiangjia Zhu, Yi Lu</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Correction to: Increased Soluble Epoxide Hydrolase Activity Positively Correlates with Mortality in Heart Failure Patients with Preserved Ejection Fraction: Evidence from Metabolomics</t>
+          <t>Measurement of Cerebral Oxygen Extraction Fraction Using Quantitative BOLD Approach: A Review</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00088-5</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00081-y</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D20">
@@ -1442,53 +1437,58 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-12-05</t>
         </is>
       </c>
       <c r="G20">
-        <v>572</v>
+        <v>823</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Xu Zhang, Dao Wen Wang</t>
+          <t>He Wang</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Autophagic Clearance of Lipid Droplets Alters Metabolic Phenotypes in a Genetic Obesity–Diabetes Mouse Model</t>
+          <t>Correction to: Increased Soluble Epoxide Hydrolase Activity Positively Correlates with Mortality in Heart Failure Patients with Preserved Ejection Fraction: Evidence from Metabolomics</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00080-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00088-5</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="D21">
@@ -1501,48 +1501,43 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2022-11-19</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="G21">
-        <v>971</v>
+        <v>581</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Boxun Lu, Yuhua Fu</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>Xu Zhang, Dao Wen Wang</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A Meta-Analysis of the Genome-Wide Association Studies on Two Genetically Correlated Phenotypes Suggests Four New Risk Loci for Headaches</t>
+          <t>Autophagic Clearance of Lipid Droplets Alters Metabolic Phenotypes in a Genetic Obesity–Diabetes Mouse Model</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00078-7</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00080-z</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1560,21 +1555,21 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-19</t>
         </is>
       </c>
       <c r="G22">
-        <v>1399</v>
+        <v>1008</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Weihua Meng</t>
+          <t>Boxun Lu, Yuhua Fu</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1584,24 +1579,24 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Increased Soluble Epoxide Hydrolase Activity Positively Correlates with Mortality in Heart Failure Patients with Preserved Ejection Fraction: Evidence from Metabolomics</t>
+          <t>A Meta-Analysis of the Genome-Wide Association Studies on Two Genetically Correlated Phenotypes Suggests Four New Risk Loci for Headaches</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00069-8</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00078-7</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1614,26 +1609,26 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="G23">
-        <v>1147</v>
+        <v>1435</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Chen Chen, Xu Zhang, Dao Wen Wang</t>
+          <t>Weihua Meng</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1648,19 +1643,19 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Adjustment for the Age- and Gender-Related Metabolic Changes Improves the Differential Diagnosis of Parkinsonism</t>
+          <t>Increased Soluble Epoxide Hydrolase Activity Positively Correlates with Mortality in Heart Failure Patients with Preserved Ejection Fraction: Evidence from Metabolomics</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00079-6</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00069-8</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1678,11 +1673,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="G24">
-        <v>891</v>
+        <v>1161</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1692,7 +1687,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Fengtao Liu, Chuantao Zuo</t>
+          <t>Chen Chen, Xu Zhang, Dao Wen Wang</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1707,19 +1702,19 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Dopaminergic Dysfunction and Glucose Metabolism Characteristics in Parkin-Induced Early-Onset Parkinson’s Disease Compared to Genetically Undetermined Early-Onset Parkinson’s Disease</t>
+          <t>Adjustment for the Age- and Gender-Related Metabolic Changes Improves the Differential Diagnosis of Parkinsonism</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00077-8</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00079-6</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1737,11 +1732,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2022-10-22</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="G25">
-        <v>1007</v>
+        <v>894</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1751,7 +1746,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Jian-Jun Wu, Chuan-Tao Zuo, Jian Wang</t>
+          <t>Fengtao Liu, Chuantao Zuo</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1766,24 +1761,24 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Chinese Medicine Phenomics (Chinmedphenomics): Personalized, Precise and Promising</t>
+          <t>Dopaminergic Dysfunction and Glucose Metabolism Characteristics in Parkin-Induced Early-Onset Parkinson’s Disease Compared to Genetically Undetermined Early-Onset Parkinson’s Disease</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00074-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00077-8</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D26">
@@ -1796,11 +1791,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2022-10-14</t>
+          <t>2022-10-22</t>
         </is>
       </c>
       <c r="G26">
-        <v>1470</v>
+        <v>1014</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1810,34 +1805,34 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Dezhi Tang, Yongjun Wang</t>
+          <t>Jian-Jun Wu, Chuan-Tao Zuo, Jian Wang</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Skin Microbiome, Metabolome and Skin Phenome, from the Perspectives of Skin as an Ecosystem</t>
+          <t>Chinese Medicine Phenomics (Chinmedphenomics): Personalized, Precise and Promising</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00073-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00074-x</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1855,21 +1850,21 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2022-10-14</t>
         </is>
       </c>
       <c r="G27">
-        <v>3063</v>
+        <v>1481</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Jingjing Xia</t>
+          <t>Dezhi Tang, Yongjun Wang</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1884,24 +1879,24 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Influence of Gender on Tau Precipitation in Alzheimer’s Disease According to ATN Research Framework</t>
+          <t>Skin Microbiome, Metabolome and Skin Phenome, from the Perspectives of Skin as an Ecosystem</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00076-9</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00073-y</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D28">
@@ -1918,7 +1913,7 @@
         </is>
       </c>
       <c r="G28">
-        <v>856</v>
+        <v>3165</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -1928,29 +1923,34 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Chuantao Zuo, Jiehui Jiang</t>
+          <t>Jiucun Wang, Jingjing Xia</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>6</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Causal Association of Cardiac Function by Magnetic Resonance Imaging with Frailty Index: A Mendelian Randomization Study</t>
+          <t>Influence of Gender on Tau Precipitation in Alzheimer’s Disease According to ATN Research Framework</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00072-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00076-9</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1963,53 +1963,48 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2022-09-29</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="G29">
-        <v>1331</v>
+        <v>860</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Xuehui Sun, Xiaofeng Wang</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>Chuantao Zuo, Jiehui Jiang</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>6</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Large-Scale Proteomics Data Reveal Integrated Prognosis-Related Protein Signatures and Role of SMAD4 and RAD50 in Prognosis and Immune Infiltrations of Prostate Cancer Microenvironment</t>
+          <t>Causal Association of Cardiac Function by Magnetic Resonance Imaging with Frailty Index: A Mendelian Randomization Study</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00070-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00072-z</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2027,21 +2022,21 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2022-09-29</t>
         </is>
       </c>
       <c r="G30">
-        <v>1151</v>
+        <v>1341</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Yuan-Yuan Qu, Hai-Liang Zhang, Ding-Wei Ye</t>
+          <t>Xuehui Sun, Xiaofeng Wang</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2056,24 +2051,24 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>High-Resolution and Multidimensional Phenotypes Can Complement Genomics Data to Diagnose Diseases in the Neonatal Population</t>
+          <t>Large-Scale Proteomics Data Reveal Integrated Prognosis-Related Protein Signatures and Role of SMAD4 and RAD50 in Prognosis and Immune Infiltrations of Prostate Cancer Microenvironment</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00071-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00070-1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D31">
@@ -2086,53 +2081,53 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2022-09-09</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="G31">
-        <v>989</v>
+        <v>1167</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Wenhao Zhou</t>
+          <t>Yuan-Yuan Qu, Hai-Liang Zhang, Ding-Wei Ye</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>International Nuclear Medicine Consensus on the Clinical Use of Amyloid Positron Emission Tomography in Alzheimer’s Disease</t>
+          <t>High-Resolution and Multidimensional Phenotypes Can Complement Genomics Data to Diagnose Diseases in the Neonatal Population</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00068-9</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00071-0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D32">
@@ -2140,48 +2135,53 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2022-08-26</t>
+          <t>2022-09-09</t>
         </is>
       </c>
       <c r="G32">
-        <v>1669</v>
+        <v>994</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Mei Tian, Chuantao Zuo, Hong Zhang</t>
+          <t>Wenhao Zhou</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>2</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Low Concordance Between Blood Pressures Measured in Periodic Health Examinations and in a Workplace-Based Hypertension Management Program</t>
+          <t>International Nuclear Medicine Consensus on the Clinical Use of Amyloid Positron Emission Tomography in Alzheimer’s Disease</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00067-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00068-9</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2199,48 +2199,43 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2022-08-18</t>
+          <t>2022-08-26</t>
         </is>
       </c>
       <c r="G33">
-        <v>1142</v>
+        <v>1706</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Shouling Wu, An Pan</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>Mei Tian, Chuantao Zuo, Hong Zhang</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>6</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Cross-sectional Exploration of the Relationship Between Glutamate Abnormalities and Tic Disorder Severity Using Proton Magnetic Resonance Spectroscopy</t>
+          <t>Low Concordance Between Blood Pressures Measured in Periodic Health Examinations and in a Workplace-Based Hypertension Management Program</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00064-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00067-w</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2258,48 +2253,48 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2022-08-16</t>
+          <t>2022-08-18</t>
         </is>
       </c>
       <c r="G34">
-        <v>928</v>
+        <v>1143</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Xiao-Yong Zhang, Min Wu</t>
+          <t>Shouling Wu, An Pan</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Human Genetic Variants Associated with COVID-19 Severity are Enriched in Immune and Epithelium Regulatory Networks</t>
+          <t>Cross-sectional Exploration of the Relationship Between Glutamate Abnormalities and Tic Disorder Severity Using Proton Magnetic Resonance Spectroscopy</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00066-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00064-z</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2317,53 +2312,53 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2022-08-16</t>
         </is>
       </c>
       <c r="G35">
-        <v>1567</v>
+        <v>932</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>2</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Yong Wang</t>
+          <t>Xiao-Yong Zhang, Min Wu</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Report on the 3rd Board Meeting of the International Human Phenome Consortium</t>
+          <t>Human Genetic Variants Associated with COVID-19 Severity are Enriched in Immune and Epithelium Regulatory Networks</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00065-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00066-x</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Meeting Report</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D36">
@@ -2371,58 +2366,58 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2022-08-13</t>
         </is>
       </c>
       <c r="G36">
-        <v>2024</v>
+        <v>1574</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Mei Tian, Li Jin</t>
+          <t>Yong Wang</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Palmprint Phenotype Feature Extraction and Classification Based on Deep Learning</t>
+          <t>Report on the 3rd Board Meeting of the International Human Phenome Consortium</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00063-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00065-y</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Meeting Report</t>
         </is>
       </c>
       <c r="D37">
@@ -2439,49 +2434,49 @@
         </is>
       </c>
       <c r="G37">
-        <v>1224</v>
+        <v>2033</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Sijia Wang, Guangtao Zhai</t>
+          <t>Mei Tian, Li Jin</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Mitochondria as the Essence of Yang Qi in the Human Body</t>
+          <t>Palmprint Phenotype Feature Extraction and Classification Based on Deep Learning</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00060-3</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00063-0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D38">
@@ -2494,21 +2489,21 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2022-06-16</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="G38">
-        <v>2348</v>
+        <v>1229</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Junjie Luo, Zhenglong Gu</t>
+          <t>Sijia Wang, Guangtao Zhai</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2518,29 +2513,29 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Multi-omics Analysis of Young Portulaca oleracea L. Plants’ Responses to High NaCl Doses Reveals Insights into Pathways and Genes Responsive to Salinity Stress in this Halophyte Species</t>
+          <t>Mitochondria as the Essence of Yang Qi in the Human Body</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00061-2</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00060-3</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D39">
@@ -2553,48 +2548,48 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2022-06-15</t>
+          <t>2022-06-16</t>
         </is>
       </c>
       <c r="G39">
-        <v>1564</v>
+        <v>2375</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I39">
         <v>2</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Manoel Teixeira Souza Júnior</t>
+          <t>Junjie Luo, Zhenglong Gu</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Plasma Lipidomic Subclasses and Risk of Hypertension in Middle-Aged and Elderly Chinese</t>
+          <t>Multi-omics Analysis of Young Portulaca oleracea L. Plants’ Responses to High NaCl Doses Reveals Insights into Pathways and Genes Responsive to Salinity Stress in this Halophyte Species</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00057-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00061-2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2612,48 +2607,48 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2022-06-14</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="G40">
-        <v>1458</v>
+        <v>1565</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Rong Zeng, Liang Sun, Xu Lin</t>
+          <t>Manoel Teixeira Souza Júnior</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Identification of Germline Mutations in East-Asian Young Never-Smokers with Lung Adenocarcinoma by Whole-Exome Sequencing</t>
+          <t>Plasma Lipidomic Subclasses and Risk of Hypertension in Middle-Aged and Elderly Chinese</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00062-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00057-y</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2671,48 +2666,48 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2022-06-11</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="G41">
-        <v>1366</v>
+        <v>1465</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Libing Shen, Yihua Sun, Yang Zhang</t>
+          <t>Rong Zeng, Liang Sun, Xu Lin</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Clinical Profiles at the Time of Diagnosis of SARS-CoV-2 Infection in Costa Rica During the Pre-vaccination Period Using a Machine Learning Approach</t>
+          <t>Identification of Germline Mutations in East-Asian Young Never-Smokers with Lung Adenocarcinoma by Whole-Exome Sequencing</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00058-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00062-1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2730,48 +2725,48 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2022-06-07</t>
+          <t>2022-06-11</t>
         </is>
       </c>
       <c r="G42">
-        <v>1528</v>
+        <v>1368</v>
       </c>
       <c r="H42">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
+          <t>Libing Shen, Yihua Sun, Yang Zhang</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Metabolic Molecular Diagnosis of Inflammatory Bowel Disease by Synergistical Promotion of Layered Titania Nanosheets with Graphitized Carbon</t>
+          <t>Clinical Profiles at the Time of Diagnosis of SARS-CoV-2 Infection in Costa Rica During the Pre-vaccination Period Using a Machine Learning Approach</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00055-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00058-x</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2789,21 +2784,21 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-06-07</t>
         </is>
       </c>
       <c r="G43">
-        <v>1216</v>
+        <v>1543</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I43">
         <v>2</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Chunhui Deng, Nianrong Sun, Hao Wu</t>
+          <t>Jose Arturo Molina-Mora</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2813,29 +2808,29 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Emerging Regulatory Mechanisms of N6-Methyladenosine Modification in Cancer Metastasis</t>
+          <t>Metabolic Molecular Diagnosis of Inflammatory Bowel Disease by Synergistical Promotion of Layered Titania Nanosheets with Graphitized Carbon</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00043-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00055-0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D44">
@@ -2843,53 +2838,53 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="G44">
-        <v>1589</v>
+        <v>1225</v>
       </c>
       <c r="H44">
         <v>2</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Lunxiu Qin</t>
+          <t>Chunhui Deng, Nianrong Sun, Hao Wu</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Deep Clinical Phenotyping of Parkinson’s Disease: Towards a New Era of Research and Clinical Care</t>
+          <t>Emerging Regulatory Mechanisms of N6-Methyladenosine Modification in Cancer Metastasis</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00051-4</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00043-w</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2907,53 +2902,53 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2022-05-21</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="G45">
-        <v>1407</v>
+        <v>1599</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Jian Wang</t>
+          <t>Lunxiu Qin</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A Hashing-Based Framework for Enhancing Cluster Delineation of High-Dimensional Single-Cell Profiles</t>
+          <t>Deep Clinical Phenotyping of Parkinson’s Disease: Towards a New Era of Research and Clinical Care</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00056-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00051-4</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D46">
@@ -2966,21 +2961,21 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>2022-05-21</t>
         </is>
       </c>
       <c r="G46">
-        <v>1217</v>
+        <v>1416</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Xianting Ding</t>
+          <t>Jian Wang</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -2995,19 +2990,19 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Nascent Proteome and Glycoproteome Reveal the Inhibition Role of ALG1 in Hepatocellular Carcinoma Cell Migration</t>
+          <t>A Hashing-Based Framework for Enhancing Cluster Delineation of High-Dimensional Single-Cell Profiles</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00050-5</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00056-z</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3025,21 +3020,21 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2022-05-14</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="G47">
-        <v>1437</v>
+        <v>1221</v>
       </c>
       <c r="H47">
         <v>0</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Hong Shu, Haojie Lu</t>
+          <t>Xianting Ding</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3049,24 +3044,24 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Biomarkers and Disease Trajectories Influencing Women’s Health: Results from the UK Biobank Cohort</t>
+          <t>Nascent Proteome and Glycoproteome Reveal the Inhibition Role of ALG1 in Hepatocellular Carcinoma Cell Migration</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00054-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00050-5</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3084,21 +3079,21 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-05-14</t>
         </is>
       </c>
       <c r="G48">
-        <v>2363</v>
+        <v>1438</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Haomin Yang, Weimin Ye</t>
+          <t>Hong Shu, Haojie Lu</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3108,24 +3103,24 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Causal Effect of Genetically Determined Blood Copper Concentrations on Multiple Diseases: A Mendelian Randomization and Phenome-Wide Association Study</t>
+          <t>Biomarkers and Disease Trajectories Influencing Women’s Health: Results from the UK Biobank Cohort</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00052-3</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00054-1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3143,21 +3138,21 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="G49">
-        <v>1514</v>
+        <v>2378</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Longman Li, Xiaobo Yang</t>
+          <t>Haomin Yang, Weimin Ye</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3167,24 +3162,24 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Three Novel Mutations of Microphthalmos Identified in Two Chinese Families</t>
+          <t>Causal Effect of Genetically Determined Blood Copper Concentrations on Multiple Diseases: A Mendelian Randomization and Phenome-Wide Association Study</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00053-2</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00052-3</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3206,17 +3201,17 @@
         </is>
       </c>
       <c r="G50">
-        <v>1004</v>
+        <v>1525</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Yi Lu, Tianyu Zheng</t>
+          <t>Longman Li, Xiaobo Yang</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3231,24 +3226,24 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Correction to: Welcome to the Phenomics Journal</t>
+          <t>Three Novel Mutations of Microphthalmos Identified in Two Chinese Families</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00059-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00053-2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D51">
@@ -3261,11 +3256,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="G51">
-        <v>738</v>
+        <v>1005</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -3275,34 +3270,39 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Li Jin</t>
+          <t>Yi Lu, Tianyu Zheng</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>4</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A Comprehensive Review of High Throughput Phenotyping and Machine Learning for Plant Stress Phenotyping</t>
+          <t>Correction to: Welcome to the Phenomics Journal</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00048-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00059-w</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="D52">
@@ -3310,58 +3310,53 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2022-04</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2022-04-04</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="G52">
-        <v>4089</v>
+        <v>740</v>
       </c>
       <c r="H52">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Karansher S. Sandhu</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>Li Jin</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Global Quantitative Proteomics Analysis Reveals the Downstream Signaling Networks of Msx1 and Msx2 in Myoblast Differentiation</t>
+          <t>A Comprehensive Review of High Throughput Phenotyping and Machine Learning for Plant Stress Phenotyping</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00049-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00048-z</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D53">
@@ -3369,26 +3364,26 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2022-03</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="G53">
-        <v>1098</v>
+        <v>4094</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Yenan Yang</t>
+          <t>Karansher S. Sandhu</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3403,19 +3398,19 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Basic Phenotyping of Male Fertility from 2019 to 2020 at the Human Sperm Bank of Fudan University</t>
+          <t>Global Quantitative Proteomics Analysis Reveals the Downstream Signaling Networks of Msx1 and Msx2 in Myoblast Differentiation</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00047-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00049-y</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3428,16 +3423,16 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2022-02-28</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="G54">
-        <v>1047</v>
+        <v>1103</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -3447,7 +3442,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Feng Jiang</t>
+          <t>Yenan Yang</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3462,19 +3457,19 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A Preliminary Study on the Evaluation of Human Sperm Head Morphology with a Domestic Digital Holographic Image System</t>
+          <t>Basic Phenotyping of Male Fertility from 2019 to 2020 at the Human Sperm Bank of Fudan University</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00046-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00047-0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3492,17 +3487,17 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2022-02-26</t>
+          <t>2022-02-28</t>
         </is>
       </c>
       <c r="G55">
-        <v>1097</v>
+        <v>1051</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -3516,29 +3511,29 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Positron Emission Tomography Molecular Imaging for Phenotyping and Management of Lymphoma</t>
+          <t>A Preliminary Study on the Evaluation of Human Sperm Head Morphology with a Domestic Digital Holographic Image System</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00042-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00046-1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D56">
@@ -3551,21 +3546,21 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2022-02-24</t>
+          <t>2022-02-26</t>
         </is>
       </c>
       <c r="G56">
-        <v>1633</v>
+        <v>1098</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Hong Zhang, Ali Cahid Civelek, Mei Tian</t>
+          <t>Feng Jiang</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3580,24 +3575,24 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Immunosuppression Induced by Brain-Specific HDAC6 Knockdown Improves Aging Performance in Drosophila melanogaster</t>
+          <t>Positron Emission Tomography Molecular Imaging for Phenotyping and Management of Lymphoma</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00045-2</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00042-x</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D57">
@@ -3610,21 +3605,21 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2022-02-23</t>
+          <t>2022-02-24</t>
         </is>
       </c>
       <c r="G57">
-        <v>1484</v>
+        <v>1642</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Jing-Dong J. Han, Wei Yu</t>
+          <t>Hong Zhang, Ali Cahid Civelek, Mei Tian</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3634,29 +3629,29 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Recent Advances in Understanding of Alzheimer’s Disease Progression Through Mass Spectrometry-Based Metabolomics</t>
+          <t>Immunosuppression Induced by Brain-Specific HDAC6 Knockdown Improves Aging Performance in Drosophila melanogaster</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00036-9</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00045-2</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D58">
@@ -3669,21 +3664,21 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2022-02-22</t>
+          <t>2022-02-23</t>
         </is>
       </c>
       <c r="G58">
-        <v>2200</v>
+        <v>1491</v>
       </c>
       <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
         <v>2</v>
       </c>
-      <c r="I58">
-        <v>17</v>
-      </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Lingjun Li</t>
+          <t>Jing-Dong J. Han, Wei Yu</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3693,29 +3688,29 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Preoperative Characteristics of Ocular Biometry in Children with Unilateral Congenital Cataracts</t>
+          <t>Recent Advances in Understanding of Alzheimer’s Disease Progression Through Mass Spectrometry-Based Metabolomics</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00040-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00036-9</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D59">
@@ -3732,17 +3727,17 @@
         </is>
       </c>
       <c r="G59">
-        <v>895</v>
+        <v>2213</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Yi Lu</t>
+          <t>Lingjun Li</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3752,24 +3747,24 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Unraveling the Dynamic Integration of Auxin, Brassinosteroid and Gibberellin in Early Shade-Induced Hypocotyl Elongation</t>
+          <t>Preoperative Characteristics of Ocular Biometry in Children with Unilateral Congenital Cataracts</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00044-3</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00040-z</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3787,21 +3782,21 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2022-02-13</t>
+          <t>2022-02-22</t>
         </is>
       </c>
       <c r="G60">
-        <v>1361</v>
+        <v>896</v>
       </c>
       <c r="H60">
         <v>0</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Lin Li</t>
+          <t>Yi Lu</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3816,19 +3811,19 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Diurnal Circadian Lighting Accumulation Model: A Predictor of the Human Circadian Phase Shift Phenotype</t>
+          <t>Unraveling the Dynamic Integration of Auxin, Brassinosteroid and Gibberellin in Early Shade-Induced Hypocotyl Elongation</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00039-6</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00044-3</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3846,21 +3841,21 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2022-02-11</t>
+          <t>2022-02-13</t>
         </is>
       </c>
       <c r="G61">
-        <v>1779</v>
+        <v>1384</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Yandan Lin</t>
+          <t>Lin Li</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3870,29 +3865,29 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Optical Imaging of Epigenetic Modifications in Cancer: A Systematic Review</t>
+          <t>Diurnal Circadian Lighting Accumulation Model: A Predictor of the Human Circadian Phase Shift Phenotype</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00041-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00039-6</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D62">
@@ -3905,21 +3900,21 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2022-02-07</t>
+          <t>2022-02-11</t>
         </is>
       </c>
       <c r="G62">
-        <v>1912</v>
+        <v>1791</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Yang Du, Jie Tian</t>
+          <t>Yandan Lin</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3929,29 +3924,29 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Seasonality and Sex-Biased Fluctuation of Birth Weight in Tibetan Populations</t>
+          <t>Optical Imaging of Epigenetic Modifications in Cancer: A Systematic Review</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00038-7</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00041-y</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D63">
@@ -3959,26 +3954,26 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2022-01-31</t>
+          <t>2022-02-07</t>
         </is>
       </c>
       <c r="G63">
-        <v>1119</v>
+        <v>1920</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ouzhuluobu, Xuebin Qi, Bing Su</t>
+          <t>Yang Du, Jie Tian</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -3988,29 +3983,29 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Why Do We Care More About Disease than Health?</t>
+          <t>Seasonality and Sex-Biased Fluctuation of Birth Weight in Tibetan Populations</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00037-8</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00038-7</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Commentary</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D64">
@@ -4023,21 +4018,21 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2022-01-28</t>
+          <t>2022-01-31</t>
         </is>
       </c>
       <c r="G64">
-        <v>2971</v>
+        <v>1126</v>
       </c>
       <c r="H64">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Martin Picard</t>
+          <t xml:space="preserve"> Ouzhuluobu, Xuebin Qi, Bing Su</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4047,29 +4042,29 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Recent Progresses in Electrochemical DNA Biosensors for MicroRNA Detection</t>
+          <t>Why Do We Care More About Disease than Health?</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00032-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00037-8</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="D65">
@@ -4082,21 +4077,21 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2022-01-21</t>
+          <t>2022-01-28</t>
         </is>
       </c>
       <c r="G65">
-        <v>1968</v>
+        <v>2977</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Xianting Ding</t>
+          <t>Martin Picard</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4106,29 +4101,29 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Pan-cancer analysis identifies RNA helicase DDX1 as a prognostic marker</t>
+          <t>Recent Progresses in Electrochemical DNA Biosensors for MicroRNA Detection</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00034-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00032-z</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D66">
@@ -4141,21 +4136,21 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2022-01-19</t>
+          <t>2022-01-21</t>
         </is>
       </c>
       <c r="G66">
-        <v>1737</v>
+        <v>1980</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Jixi Li</t>
+          <t>Xianting Ding</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4170,24 +4165,24 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Correction to: N-Glycoproteomics Study of Putative N-Glycoprotein Biomarkers of Drug Resistance in MCF-7/ADR Cells657</t>
+          <t>Pan-cancer analysis identifies RNA helicase DDX1 as a prognostic marker</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00035-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00034-x</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D67">
@@ -4200,48 +4195,53 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2022-01-17</t>
+          <t>2022-01-19</t>
         </is>
       </c>
       <c r="G67">
-        <v>787</v>
+        <v>1742</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Yun Chen, Zhixin Tian</t>
+          <t>Jixi Li</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Phenome-Wide Association Analysis Reveals Novel Links Between Genetically Determined Levels of Liver Enzymes and Disease Phenotypes</t>
+          <t>Correction to: N-Glycoproteomics Study of Putative N-Glycoprotein Biomarkers of Drug Resistance in MCF-7/ADR Cells657</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00033-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00035-w</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="D68">
@@ -4254,53 +4254,48 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2022-01-11</t>
+          <t>2022-01-17</t>
         </is>
       </c>
       <c r="G68">
-        <v>2132</v>
+        <v>795</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Xingdong Chen</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>Yun Chen, Zhixin Tian</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>5</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Mapping Cell Phenomics with Multiparametric Flow Cytometry Assays</t>
+          <t>Phenome-Wide Association Analysis Reveals Novel Links Between Genetically Determined Levels of Liver Enzymes and Disease Phenotypes</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00031-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00033-y</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D69">
@@ -4313,11 +4308,11 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2022-01-09</t>
+          <t>2022-01-11</t>
         </is>
       </c>
       <c r="G69">
-        <v>2993</v>
+        <v>2142</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -4327,7 +4322,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Shan Jiang, Jing Wang, Ying Wan</t>
+          <t>Xingdong Chen</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4337,24 +4332,24 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Beyond Mendelian Inheritance: Genetic Buffering and Phenotype Variability</t>
+          <t>Mapping Cell Phenomics with Multiparametric Flow Cytometry Assays</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00030-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00031-0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4363,30 +4358,30 @@
         </is>
       </c>
       <c r="D70">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-12-27</t>
+          <t>2022-01-09</t>
         </is>
       </c>
       <c r="G70">
-        <v>2814</v>
+        <v>3006</v>
       </c>
       <c r="H70">
         <v>1</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Andrea Rossi, Zacharias Kontarakis</t>
+          <t>Shan Jiang, Jing Wang, Ying Wan</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4396,29 +4391,29 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>CYP2C9*3 Increases the Ibuprofen Response of Hemodynamically Significant Patent Ductus Arteriosus in the Infants with Gestational Age of More Than 30 Weeks</t>
+          <t>Beyond Mendelian Inheritance: Genetic Buffering and Phenotype Variability</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00028-9</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00030-1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D71">
@@ -4426,26 +4421,26 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-11-11</t>
+          <t>2021-12-27</t>
         </is>
       </c>
       <c r="G71">
-        <v>1297</v>
+        <v>2839</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Wenhao Zhou</t>
+          <t>Andrea Rossi, Zacharias Kontarakis</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4455,29 +4450,29 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Mental Calculation Drives Reliable and Weak Distant Connectivity While Music Listening Induces Dense Local Connectivity</t>
+          <t>CYP2C9*3 Increases the Ibuprofen Response of Hemodynamically Significant Patent Ductus Arteriosus in the Infants with Gestational Age of More Than 30 Weeks</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00027-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00028-9</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correspondence</t>
         </is>
       </c>
       <c r="D72">
@@ -4490,48 +4485,48 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-11-10</t>
+          <t>2021-11-11</t>
         </is>
       </c>
       <c r="G72">
-        <v>1923</v>
+        <v>1299</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Yuguo Yu</t>
+          <t>Wenhao Zhou</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Systematic Genome-Wide Profiles Reveal Alternative Splicing Landscape and Implications of Splicing Regulator DExD-Box Helicase 21 in Aggressive Progression of Adrenocortical Carcinoma</t>
+          <t>Mental Calculation Drives Reliable and Weak Distant Connectivity While Music Listening Induces Dense Local Connectivity</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00026-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00027-w</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4544,26 +4539,26 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-10-29</t>
+          <t>2021-11-10</t>
         </is>
       </c>
       <c r="G73">
-        <v>1907</v>
+        <v>1932</v>
       </c>
       <c r="H73">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Yuanyuan Qu, Hailiang Zhang, Dingwei Ye</t>
+          <t>Yuguo Yu</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4578,19 +4573,19 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>N-Glycoproteomics Study of Putative N-Glycoprotein Biomarkers of Drug Resistance in MCF-7/ADR Cells</t>
+          <t>Systematic Genome-Wide Profiles Reveal Alternative Splicing Landscape and Implications of Splicing Regulator DExD-Box Helicase 21 in Aggressive Progression of Adrenocortical Carcinoma</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00029-8</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00026-x</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4608,21 +4603,21 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-10-28</t>
+          <t>2021-10-29</t>
         </is>
       </c>
       <c r="G74">
-        <v>1895</v>
+        <v>1918</v>
       </c>
       <c r="H74">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Yun Chen, Zhixin Tian</t>
+          <t>Yuanyuan Qu, Hailiang Zhang, Dingwei Ye</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4637,19 +4632,19 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Strided Self-Supervised Low-Dose CT Denoising for Lung Nodule Classification</t>
+          <t>N-Glycoproteomics Study of Putative N-Glycoprotein Biomarkers of Drug Resistance in MCF-7/ADR Cells</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00025-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00029-8</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4667,21 +4662,21 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-10-26</t>
+          <t>2021-10-28</t>
         </is>
       </c>
       <c r="G75">
-        <v>1796</v>
+        <v>1900</v>
       </c>
       <c r="H75">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Hongming Shan</t>
+          <t>Yun Chen, Zhixin Tian</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4696,19 +4691,19 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Pseudotime Ordering Single-Cell Transcriptomic of β Cells Pancreatic Islets in Health and Type 2 Diabetes</t>
+          <t>Strided Self-Supervised Low-Dose CT Denoising for Lung Nodule Classification</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00024-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00025-y</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4726,21 +4721,21 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-10-19</t>
+          <t>2021-10-26</t>
         </is>
       </c>
       <c r="G76">
-        <v>1645</v>
+        <v>1801</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Xingxing Kong, Tiemin Liu</t>
+          <t>Hongming Shan</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4750,24 +4745,24 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Causal Relationship Between Complement C3, C4, and Nonalcoholic Fatty Liver Disease: Bidirectional Mendelian Randomization Analysis</t>
+          <t>Pseudotime Ordering Single-Cell Transcriptomic of β Cells Pancreatic Islets in Health and Type 2 Diabetes</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00023-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00024-z</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4780,26 +4775,26 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-09-23</t>
+          <t>2021-10-19</t>
         </is>
       </c>
       <c r="G77">
-        <v>1463</v>
+        <v>1656</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Xiaobo Yang</t>
+          <t>Xingxing Kong, Tiemin Liu</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4814,24 +4809,24 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Origin and Spread of the ALDH2 Glu504Lys Allele</t>
+          <t>Causal Relationship Between Complement C3, C4, and Nonalcoholic Fatty Liver Disease: Bidirectional Mendelian Randomization Analysis</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00017-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00023-0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D78">
@@ -4844,21 +4839,21 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-09-20</t>
+          <t>2021-09-23</t>
         </is>
       </c>
       <c r="G78">
-        <v>2452</v>
+        <v>1467</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Aijun Sun</t>
+          <t>Xiaobo Yang</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -4873,19 +4868,19 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Phenotypes of Cardiovascular Diseases: Current Status and Future Perspectives</t>
+          <t>Origin and Spread of the ALDH2 Glu504Lys Allele</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00022-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00017-y</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4898,26 +4893,26 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-08-26</t>
+          <t>2021-09-20</t>
         </is>
       </c>
       <c r="G79">
-        <v>1728</v>
+        <v>2476</v>
       </c>
       <c r="H79">
         <v>1</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Jiangping Song</t>
+          <t>Aijun Sun</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4932,24 +4927,24 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Prediction of Metabolic Disorders Using NMR-Based Metabolomics: The Shanghai Changfeng Study</t>
+          <t>Phenotypes of Cardiovascular Diseases: Current Status and Future Perspectives</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00021-2</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00022-1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D80">
@@ -4962,21 +4957,21 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-08-24</t>
+          <t>2021-08-26</t>
         </is>
       </c>
       <c r="G80">
-        <v>1594</v>
+        <v>1733</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Ming-feng Xia, Hui-ru Tang, Xin Gao</t>
+          <t>Jiangping Song</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -4986,29 +4981,29 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Computational Methods for Prediction of Human Protein-Phenotype Associations: A Review</t>
+          <t>Prediction of Metabolic Disorders Using NMR-Based Metabolomics: The Shanghai Changfeng Study</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00019-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00021-2</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D81">
@@ -5021,21 +5016,21 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-08-06</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="G81">
-        <v>2130</v>
+        <v>1602</v>
       </c>
       <c r="H81">
         <v>2</v>
       </c>
       <c r="I81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Shanfeng Zhu</t>
+          <t>Ming-feng Xia, Hui-ru Tang, Xin Gao</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5050,19 +5045,19 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Recommendation for Cardiac Magnetic Resonance Imaging-Based Phenotypic Study: Imaging Part</t>
+          <t>Computational Methods for Prediction of Human Protein-Phenotype Associations: A Review</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00018-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00019-w</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -5075,26 +5070,26 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-07-28</t>
+          <t>2021-08-06</t>
         </is>
       </c>
       <c r="G82">
-        <v>3021</v>
+        <v>2134</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Chengyan Wang, He Wang</t>
+          <t>Shanfeng Zhu</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5109,19 +5104,19 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Molecular Phenomic Approaches to Deconvolving the Systemic Effects of SARS-CoV-2 Infection and Post-acute COVID-19 Syndrome</t>
+          <t>Recommendation for Cardiac Magnetic Resonance Imaging-Based Phenotypic Study: Imaging Part</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00020-3</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00018-x</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -5139,21 +5134,21 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>2021-07-28</t>
         </is>
       </c>
       <c r="G83">
-        <v>3659</v>
+        <v>3050</v>
       </c>
       <c r="H83">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Jeremy K. Nicholson</t>
+          <t>Chengyan Wang, He Wang</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -5168,24 +5163,24 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Genetic Architecture of Childhood Kidney and Urological Diseases in China</t>
+          <t>Molecular Phenomic Approaches to Deconvolving the Systemic Effects of SARS-CoV-2 Infection and Post-acute COVID-19 Syndrome</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00014-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00020-3</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D84">
@@ -5198,21 +5193,21 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>2021-07-22</t>
         </is>
       </c>
       <c r="G84">
-        <v>2252</v>
+        <v>3683</v>
       </c>
       <c r="H84">
         <v>5</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Jia Rao, Hong Xu</t>
+          <t>Jeremy K. Nicholson</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5222,29 +5217,29 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Defense of COVID-19 by Human Organoids</t>
+          <t>Genetic Architecture of Childhood Kidney and Urological Diseases in China</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00015-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00014-1</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D85">
@@ -5257,21 +5252,21 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-07-14</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="G85">
-        <v>3715</v>
+        <v>2256</v>
       </c>
       <c r="H85">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I85">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Xinhua Lin, Bing Zhao</t>
+          <t>Jia Rao, Hong Xu</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5286,24 +5281,24 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Random Penetrance of Mutations Among Individuals: A New Type of Genetic Drift in Molecular Evolution</t>
+          <t>Defense of COVID-19 by Human Organoids</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00013-2</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00015-0</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D86">
@@ -5311,26 +5306,26 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-06-17</t>
+          <t>2021-07-14</t>
         </is>
       </c>
       <c r="G86">
-        <v>1453</v>
+        <v>3719</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Xun Gu</t>
+          <t>Xinhua Lin, Bing Zhao</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5345,24 +5340,24 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Molecular Determinants of Antibiotic Resistance in the Costa Rican Pseudomonas aeruginosa AG1 by a Multi-omics Approach: A Review of 10 Years of Study</t>
+          <t>Random Penetrance of Mutations Among Individuals: A New Type of Genetic Drift in Molecular Evolution</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00016-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00013-2</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D87">
@@ -5379,17 +5374,17 @@
         </is>
       </c>
       <c r="G87">
-        <v>3168</v>
+        <v>1457</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
+          <t>Xun Gu</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5404,24 +5399,24 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Distribution Atlas of COVID-19 Pneumonia on Computed Tomography: A Deep Learning Based Description</t>
+          <t>Molecular Determinants of Antibiotic Resistance in the Costa Rican Pseudomonas aeruginosa AG1 by a Multi-omics Approach: A Review of 10 Years of Study</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00011-4</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00016-z</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D88">
@@ -5429,26 +5424,26 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-06-17</t>
         </is>
       </c>
       <c r="G88">
-        <v>2540</v>
+        <v>3195</v>
       </c>
       <c r="H88">
         <v>3</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Shenghong Ju</t>
+          <t>Jose Arturo Molina-Mora</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5458,24 +5453,24 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Comparison of Metabolic Profiling of Arabidopsis Inflorescences Between Landsberg erecta and Columbia, and Meiosis-Defective Mutants by 1H-NMR Spectroscopy</t>
+          <t>Distribution Atlas of COVID-19 Pneumonia on Computed Tomography: A Deep Learning Based Description</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00012-3</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00011-4</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -5497,17 +5492,17 @@
         </is>
       </c>
       <c r="G89">
-        <v>2110</v>
+        <v>2544</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I89">
         <v>2</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Limin Zhang, Yingxiang Wang</t>
+          <t>Shenghong Ju</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -5522,24 +5517,24 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>High-Throughput Phenotyping: A Platform to Accelerate Crop Improvement</t>
+          <t>Comparison of Metabolic Profiling of Arabidopsis Inflorescences Between Landsberg erecta and Columbia, and Meiosis-Defective Mutants by 1H-NMR Spectroscopy</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-020-00007-6</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00012-3</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D90">
@@ -5556,17 +5551,17 @@
         </is>
       </c>
       <c r="G90">
-        <v>4541</v>
+        <v>2111</v>
       </c>
       <c r="H90">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Neelam R. Yadav</t>
+          <t>Limin Zhang, Yingxiang Wang</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -5581,24 +5576,24 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Effect of Light on Cognitive Function During a Stroop Task Using Functional Near-Infrared Spectroscopy</t>
+          <t>High-Throughput Phenotyping: A Platform to Accelerate Crop Improvement</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00010-5</t>
+          <t>http://link.springer.com/article/10.1007/s43657-020-00007-6</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D91">
@@ -5606,26 +5601,26 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-04-19</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="G91">
-        <v>2846</v>
+        <v>4544</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I91">
         <v>3</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Wei Chen</t>
+          <t>Neelam R. Yadav</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -5640,19 +5635,19 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Using Composite Phenotypes to Reveal Hidden Physiological Heterogeneity in High-Altitude Acclimatization in a Chinese Han Longitudinal Cohort</t>
+          <t>Effect of Light on Cognitive Function During a Stroop Task Using Functional Near-Infrared Spectroscopy</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-020-00005-8</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00010-5</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -5665,26 +5660,26 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-02-22</t>
+          <t>2021-04-19</t>
         </is>
       </c>
       <c r="G92">
-        <v>5453</v>
+        <v>2865</v>
       </c>
       <c r="H92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Li Jin</t>
+          <t>Wei Chen</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -5694,24 +5689,24 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>The Ultrafast and Accurate Mapping Algorithm FANSe3: Mapping a Human Whole-Genome Sequencing Dataset Within 30 Minutes</t>
+          <t>Using Composite Phenotypes to Reveal Hidden Physiological Heterogeneity in High-Altitude Acclimatization in a Chinese Han Longitudinal Cohort</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-020-00008-5</t>
+          <t>http://link.springer.com/article/10.1007/s43657-020-00005-8</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -5733,17 +5728,17 @@
         </is>
       </c>
       <c r="G93">
-        <v>4042</v>
+        <v>5482</v>
       </c>
       <c r="H93">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I93">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Gong Zhang, Jingjie Jin</t>
+          <t>Jiucun Wang, Li Jin</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -5758,24 +5753,24 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>In Situ Saturating Mutagenesis Screening Identifies a Functional Genomic Locus that Regulates Ucp1 Expression</t>
+          <t>The Ultrafast and Accurate Mapping Algorithm FANSe3: Mapping a Human Whole-Genome Sequencing Dataset Within 30 Minutes</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-020-00006-7</t>
+          <t>http://link.springer.com/article/10.1007/s43657-020-00008-5</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D94">
@@ -5792,17 +5787,17 @@
         </is>
       </c>
       <c r="G94">
-        <v>2620</v>
+        <v>4068</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Qiurong Ding</t>
+          <t>Gong Zhang, Jingjie Jin</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -5817,24 +5812,24 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Welcome to the Phenomics Journal</t>
+          <t>In Situ Saturating Mutagenesis Screening Identifies a Functional Genomic Locus that Regulates Ucp1 Expression</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-020-00009-4</t>
+          <t>http://link.springer.com/article/10.1007/s43657-020-00006-7</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Editorial</t>
+          <t>Correspondence</t>
         </is>
       </c>
       <c r="D95">
@@ -5842,41 +5837,100 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2021-02-22</t>
+        </is>
+      </c>
+      <c r="G95">
+        <v>2623</v>
+      </c>
+      <c r="H95">
+        <v>2</v>
+      </c>
+      <c r="I95">
+        <v>2</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Qiurong Ding</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>2023-05-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Welcome to the Phenomics Journal</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>http://link.springer.com/article/10.1007/s43657-020-00009-4</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Editorial</t>
+        </is>
+      </c>
+      <c r="D96">
+        <v>2021</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
           <t>2021-01</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>2021-01-11</t>
         </is>
       </c>
-      <c r="G95">
-        <v>4737</v>
-      </c>
-      <c r="H95">
+      <c r="G96">
+        <v>4760</v>
+      </c>
+      <c r="H96">
         <v>4</v>
       </c>
-      <c r="I95">
+      <c r="I96">
         <v>8</v>
       </c>
-      <c r="J95" t="inlineStr">
+      <c r="J96" t="inlineStr">
         <is>
           <t>Li Jin</t>
         </is>
       </c>
-      <c r="K95" t="inlineStr">
+      <c r="K96" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L95" t="inlineStr">
+      <c r="L96" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>2023-04-30</t>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>2023-05-07</t>
         </is>
       </c>
     </row>

--- a/weekly_online_paper_metrices/all_Phenomics_paper_metrics.xlsx
+++ b/weekly_online_paper_metrices/all_Phenomics_paper_metrics.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M97"/>
+  <dimension ref="A1:M98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -427,12 +427,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DBLiPro: A Database for Lipids and Proteins in Human Lipid Metabolism</t>
+          <t>Immune-Ageing Evaluation of Peripheral T and NK Lymphocyte Subsets in Chinese Healthy Adults</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-023-00099-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00106-0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -450,11 +450,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2023-05-23</t>
         </is>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -464,7 +464,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Zechi Huang, Yuan-Yuan Li, Wentao Dai</t>
+          <t>Peisong Chen, Oscar Junhong Luo, Yifang Gao, Zhinan Yin</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -474,24 +474,24 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Overview of a Sleep Monitoring Protocol for a Large Natural Population</t>
+          <t>DBLiPro: A Database for Lipids and Proteins in Human Lipid Metabolism</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-023-00102-4</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00099-w</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D3">
@@ -504,21 +504,21 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2023-05-06</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="G3">
+        <v>47</v>
+      </c>
+      <c r="H3">
         <v>0</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="I3">
-        <v>4</v>
-      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Chen Chen, Jingchun Luo, Wei Chen</t>
+          <t>Zechi Huang, Yuan-Yuan Li, Wentao Dai</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -528,24 +528,24 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RNA-Sequencing Reveals Gene Expression and Pathway Signatures in Umbilical Cord Blood Affected by Birth Delivery Mode</t>
+          <t>Overview of a Sleep Monitoring Protocol for a Large Natural Population</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00086-7</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00102-4</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="D4">
@@ -553,26 +553,26 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2023-05-06</t>
         </is>
       </c>
       <c r="G4">
-        <v>86</v>
+        <v>269</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Lin Zhang, Dan Chen</t>
+          <t>Chen Chen, Jingchun Luo, Wei Chen</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -582,24 +582,24 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Genetic Phenotypes of Alzheimer’s Disease: Mechanisms and Potential Therapy</t>
+          <t>RNA-Sequencing Reveals Gene Expression and Pathway Signatures in Umbilical Cord Blood Affected by Birth Delivery Mode</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-023-00098-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00086-7</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D5">
@@ -612,11 +612,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="G5">
-        <v>454</v>
+        <v>100</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -626,7 +626,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Jianping Jia</t>
+          <t>Lin Zhang, Dan Chen</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -636,24 +636,24 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hidden Genetic Regulation of Human Complex Traits via Brain Isoforms</t>
+          <t>Genetic Phenotypes of Alzheimer’s Disease: Mechanisms and Potential Therapy</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-023-00100-6</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00098-x</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D6">
@@ -661,26 +661,26 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-04</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2023-03-20</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="G6">
-        <v>573</v>
+        <v>509</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Xia Shen</t>
+          <t>Jianping Jia</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -690,24 +690,24 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sample Collection, DNA Extraction, and Library Construction Protocols of the Human Microbiome Studies in the International Human Phenome Project</t>
+          <t>Hidden Genetic Regulation of Human Complex Traits via Brain Isoforms</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-023-00097-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00100-6</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="D7">
@@ -720,21 +720,21 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-03-20</t>
         </is>
       </c>
       <c r="G7">
-        <v>477</v>
+        <v>631</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Zhexue Quan, Yan Zheng</t>
+          <t>Xia Shen</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -744,24 +744,24 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>α2,3-Sialylation with Fucosylation Associated with More Severe Anti-MDA5 Positive Dermatomyositis Induced by Rapidly Progressive Interstitial Lung Disease</t>
+          <t>Sample Collection, DNA Extraction, and Library Construction Protocols of the Human Microbiome Studies in the International Human Phenome Project</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-023-00096-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00097-y</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="D8">
@@ -774,21 +774,21 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2023-03-07</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="G8">
-        <v>234</v>
+        <v>498</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Jianxin Gu, Jing Liu, Shifang Ren</t>
+          <t>Zhexue Quan, Yan Zheng</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -798,19 +798,19 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Virtual Fluorescence Translation for Biological Tissue by Conditional Generative Adversarial Network</t>
+          <t>α2,3-Sialylation with Fucosylation Associated with More Severe Anti-MDA5 Positive Dermatomyositis Induced by Rapidly Progressive Interstitial Lung Disease</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-023-00094-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00096-z</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -828,11 +828,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2023-03-02</t>
+          <t>2023-03-07</t>
         </is>
       </c>
       <c r="G9">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Dean Ta</t>
+          <t>Jianxin Gu, Jing Liu, Shifang Ren</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -852,24 +852,24 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Diets, Gut Microbiota and Metabolites</t>
+          <t>Virtual Fluorescence Translation for Biological Tissue by Conditional Generative Adversarial Network</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-023-00095-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00094-1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D10">
@@ -886,17 +886,17 @@
         </is>
       </c>
       <c r="G10">
-        <v>485</v>
+        <v>295</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Shangyu Hong, Yan Sun</t>
+          <t>Dean Ta</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -906,24 +906,24 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Deep Immunophenotyping of Human Whole Blood by Standardized Multi-parametric Flow Cytometry Analyses</t>
+          <t>Diets, Gut Microbiota and Metabolites</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00092-9</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00095-0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D11">
@@ -931,26 +931,26 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2023-02-23</t>
+          <t>2023-03-02</t>
         </is>
       </c>
       <c r="G11">
-        <v>1387</v>
+        <v>495</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Feng Qian</t>
+          <t>Shangyu Hong, Yan Sun</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -960,24 +960,24 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Management of Intraductal Papilloma of the Breast Diagnosed on Core Needle Biopsy: Latest Controversies</t>
+          <t>Deep Immunophenotyping of Human Whole Blood by Standardized Multi-parametric Flow Cytometry Analyses</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00085-8</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00092-9</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="D12">
@@ -990,53 +990,48 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-02-23</t>
         </is>
       </c>
       <c r="G12">
-        <v>460</v>
+        <v>1461</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Hongfeng Chen</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>Feng Qian</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Presence of Rare Variants is Associated with Poorer Survival in Chinese Patients with Amyotrophic Lateral Sclerosis</t>
+          <t>Management of Intraductal Papilloma of the Breast Diagnosed on Core Needle Biopsy: Latest Controversies</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00093-8</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00085-8</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D13">
@@ -1049,21 +1044,21 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2023-02-12</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="G13">
-        <v>512</v>
+        <v>463</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Xiangjun Chen</t>
+          <t>Hongfeng Chen</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1078,24 +1073,24 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Phenomic Studies on Diseases: Potential and Challenges</t>
+          <t>Presence of Rare Variants is Associated with Poorer Survival in Chinese Patients with Amyotrophic Lateral Sclerosis</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00089-4</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00093-8</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D14">
@@ -1103,53 +1098,58 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2023-02-12</t>
         </is>
       </c>
       <c r="G14">
-        <v>1162</v>
+        <v>528</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Weihai Ying</t>
+          <t>Jiucun Wang, Xiangjun Chen</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>2</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Deep Learning-Assisted Quantitative Susceptibility Mapping as a Tool for Grading and Molecular Subtyping of Gliomas</t>
+          <t>Phenomic Studies on Diseases: Potential and Challenges</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00087-6</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00089-4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D15">
@@ -1166,17 +1166,17 @@
         </is>
       </c>
       <c r="G15">
-        <v>561</v>
+        <v>1202</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Xiao-Yong Zhang, Yan Ren</t>
+          <t>Weihai Ying</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1186,24 +1186,24 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Protocol for Brain Magnetic Resonance Imaging and Extraction of Imaging-Derived Phenotypes from the China Phenobank Project</t>
+          <t>Deep Learning-Assisted Quantitative Susceptibility Mapping as a Tool for Grading and Molecular Subtyping of Gliomas</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00083-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00087-6</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D16">
@@ -1220,17 +1220,17 @@
         </is>
       </c>
       <c r="G16">
-        <v>507</v>
+        <v>569</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Mei Tian</t>
+          <t>Xiao-Yong Zhang, Yan Ren</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1240,24 +1240,24 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Infrared Imageries of Human Body Activated by Tea Match the Hypothesis of Meridian System</t>
+          <t>Protocol for Brain Magnetic Resonance Imaging and Extraction of Imaging-Derived Phenotypes from the China Phenobank Project</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00090-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00083-w</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="D17">
@@ -1274,17 +1274,17 @@
         </is>
       </c>
       <c r="G17">
-        <v>625</v>
+        <v>509</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Hui Li</t>
+          <t>Mei Tian</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1294,78 +1294,73 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Proteomic Portrait of Human Lymphoma Reveals Protein Molecular Fingerprint of Disease Specific Subtypes and Progression</t>
+          <t>Infrared Imageries of Human Body Activated by Tea Match the Hypothesis of Meridian System</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00075-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00090-x</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correspondence</t>
         </is>
       </c>
       <c r="D18">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2022-12-12</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="G18">
-        <v>1054</v>
+        <v>639</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Wei Yan, Jie Jin</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>Hui Li</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>In Silico Pipeline to Identify Tumor-Specific Antigens for Cancer Immunotherapy Using Exome Sequencing Data</t>
+          <t>Proteomic Portrait of Human Lymphoma Reveals Protein Molecular Fingerprint of Disease Specific Subtypes and Progression</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00084-9</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00075-w</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1383,21 +1378,21 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2022-12-08</t>
+          <t>2022-12-12</t>
         </is>
       </c>
       <c r="G19">
-        <v>747</v>
+        <v>1072</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
+          <t>Wei Yan, Jie Jin</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1412,19 +1407,19 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A Genome-Wide Association Study for Susceptibility to Axial Length in Highly Myopic Eyes</t>
+          <t>In Silico Pipeline to Identify Tumor-Specific Antigens for Cancer Immunotherapy Using Exome Sequencing Data</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00082-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00084-9</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1442,48 +1437,53 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2022-12-08</t>
         </is>
       </c>
       <c r="G20">
-        <v>743</v>
+        <v>759</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Xiangjia Zhu, Yi Lu</t>
+          <t>Jose Arturo Molina-Mora</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>2</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Measurement of Cerebral Oxygen Extraction Fraction Using Quantitative BOLD Approach: A Review</t>
+          <t>A Genome-Wide Association Study for Susceptibility to Axial Length in Highly Myopic Eyes</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00081-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00082-x</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D21">
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="G21">
-        <v>839</v>
+        <v>752</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1510,39 +1510,34 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>He Wang</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>Xiangjia Zhu, Yi Lu</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Correction to: Increased Soluble Epoxide Hydrolase Activity Positively Correlates with Mortality in Heart Failure Patients with Preserved Ejection Fraction: Evidence from Metabolomics</t>
+          <t>Measurement of Cerebral Oxygen Extraction Fraction Using Quantitative BOLD Approach: A Review</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00088-5</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00081-y</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D22">
@@ -1550,53 +1545,58 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-12-05</t>
         </is>
       </c>
       <c r="G22">
-        <v>605</v>
+        <v>851</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Xu Zhang, Dao Wen Wang</t>
+          <t>He Wang</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Autophagic Clearance of Lipid Droplets Alters Metabolic Phenotypes in a Genetic Obesity–Diabetes Mouse Model</t>
+          <t>Correction to: Increased Soluble Epoxide Hydrolase Activity Positively Correlates with Mortality in Heart Failure Patients with Preserved Ejection Fraction: Evidence from Metabolomics</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00080-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00088-5</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="D23">
@@ -1609,48 +1609,43 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2022-11-19</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="G23">
-        <v>1119</v>
+        <v>624</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Boxun Lu, Yuhua Fu</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>Xu Zhang, Dao Wen Wang</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A Meta-Analysis of the Genome-Wide Association Studies on Two Genetically Correlated Phenotypes Suggests Four New Risk Loci for Headaches</t>
+          <t>Autophagic Clearance of Lipid Droplets Alters Metabolic Phenotypes in a Genetic Obesity–Diabetes Mouse Model</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00078-7</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00080-z</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1668,21 +1663,21 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-19</t>
         </is>
       </c>
       <c r="G24">
-        <v>1490</v>
+        <v>1202</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Weihua Meng</t>
+          <t>Boxun Lu, Yuhua Fu</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1692,24 +1687,24 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Increased Soluble Epoxide Hydrolase Activity Positively Correlates with Mortality in Heart Failure Patients with Preserved Ejection Fraction: Evidence from Metabolomics</t>
+          <t>A Meta-Analysis of the Genome-Wide Association Studies on Two Genetically Correlated Phenotypes Suggests Four New Risk Loci for Headaches</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00069-8</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00078-7</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1722,26 +1717,26 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="G25">
-        <v>1185</v>
+        <v>1543</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Chen Chen, Xu Zhang, Dao Wen Wang</t>
+          <t>Weihua Meng</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1756,19 +1751,19 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Adjustment for the Age- and Gender-Related Metabolic Changes Improves the Differential Diagnosis of Parkinsonism</t>
+          <t>Increased Soluble Epoxide Hydrolase Activity Positively Correlates with Mortality in Heart Failure Patients with Preserved Ejection Fraction: Evidence from Metabolomics</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00079-6</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00069-8</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1786,21 +1781,21 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="G26">
-        <v>911</v>
+        <v>1200</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Fengtao Liu, Chuantao Zuo</t>
+          <t>Chen Chen, Xu Zhang, Dao Wen Wang</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1815,19 +1810,19 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Dopaminergic Dysfunction and Glucose Metabolism Characteristics in Parkin-Induced Early-Onset Parkinson’s Disease Compared to Genetically Undetermined Early-Onset Parkinson’s Disease</t>
+          <t>Adjustment for the Age- and Gender-Related Metabolic Changes Improves the Differential Diagnosis of Parkinsonism</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00077-8</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00079-6</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1845,11 +1840,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2022-10-22</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="G27">
-        <v>1026</v>
+        <v>924</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1859,7 +1854,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Jian-Jun Wu, Chuan-Tao Zuo, Jian Wang</t>
+          <t>Fengtao Liu, Chuantao Zuo</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1874,24 +1869,24 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Chinese Medicine Phenomics (Chinmedphenomics): Personalized, Precise and Promising</t>
+          <t>Dopaminergic Dysfunction and Glucose Metabolism Characteristics in Parkin-Induced Early-Onset Parkinson’s Disease Compared to Genetically Undetermined Early-Onset Parkinson’s Disease</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00074-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00077-8</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D28">
@@ -1904,48 +1899,48 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2022-10-14</t>
+          <t>2022-10-22</t>
         </is>
       </c>
       <c r="G28">
-        <v>1560</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Dezhi Tang, Yongjun Wang</t>
+          <t>Jian-Jun Wu, Chuan-Tao Zuo, Jian Wang</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Skin Microbiome, Metabolome and Skin Phenome, from the Perspectives of Skin as an Ecosystem</t>
+          <t>Chinese Medicine Phenomics (Chinmedphenomics): Personalized, Precise and Promising</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00073-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00074-x</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1963,21 +1958,21 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2022-10-14</t>
         </is>
       </c>
       <c r="G29">
-        <v>3432</v>
+        <v>1587</v>
       </c>
       <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
         <v>1</v>
       </c>
-      <c r="I29">
-        <v>11</v>
-      </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Jingjing Xia</t>
+          <t>Dezhi Tang, Yongjun Wang</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -1992,24 +1987,24 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Influence of Gender on Tau Precipitation in Alzheimer’s Disease According to ATN Research Framework</t>
+          <t>Skin Microbiome, Metabolome and Skin Phenome, from the Perspectives of Skin as an Ecosystem</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00076-9</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00073-y</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D30">
@@ -2026,39 +2021,44 @@
         </is>
       </c>
       <c r="G30">
-        <v>872</v>
+        <v>3569</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Chuantao Zuo, Jiehui Jiang</t>
+          <t>Jiucun Wang, Jingjing Xia</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>6</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Causal Association of Cardiac Function by Magnetic Resonance Imaging with Frailty Index: A Mendelian Randomization Study</t>
+          <t>Influence of Gender on Tau Precipitation in Alzheimer’s Disease According to ATN Research Framework</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00072-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00076-9</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2071,53 +2071,48 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2022-09-29</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="G31">
-        <v>1372</v>
+        <v>875</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Xuehui Sun, Xiaofeng Wang</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>Chuantao Zuo, Jiehui Jiang</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>6</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Large-Scale Proteomics Data Reveal Integrated Prognosis-Related Protein Signatures and Role of SMAD4 and RAD50 in Prognosis and Immune Infiltrations of Prostate Cancer Microenvironment</t>
+          <t>Causal Association of Cardiac Function by Magnetic Resonance Imaging with Frailty Index: A Mendelian Randomization Study</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00070-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00072-z</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2135,21 +2130,21 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2022-09-29</t>
         </is>
       </c>
       <c r="G32">
-        <v>1187</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Yuan-Yuan Qu, Hai-Liang Zhang, Ding-Wei Ye</t>
+          <t>Xuehui Sun, Xiaofeng Wang</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2164,24 +2159,24 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>High-Resolution and Multidimensional Phenotypes Can Complement Genomics Data to Diagnose Diseases in the Neonatal Population</t>
+          <t>Large-Scale Proteomics Data Reveal Integrated Prognosis-Related Protein Signatures and Role of SMAD4 and RAD50 in Prognosis and Immune Infiltrations of Prostate Cancer Microenvironment</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00071-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00070-1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D33">
@@ -2194,53 +2189,53 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2022-09-09</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="G33">
-        <v>1007</v>
+        <v>1191</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Wenhao Zhou</t>
+          <t>Yuan-Yuan Qu, Hai-Liang Zhang, Ding-Wei Ye</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>International Nuclear Medicine Consensus on the Clinical Use of Amyloid Positron Emission Tomography in Alzheimer’s Disease</t>
+          <t>High-Resolution and Multidimensional Phenotypes Can Complement Genomics Data to Diagnose Diseases in the Neonatal Population</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00068-9</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00071-0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D34">
@@ -2248,48 +2243,53 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2022-08-26</t>
+          <t>2022-09-09</t>
         </is>
       </c>
       <c r="G34">
-        <v>1783</v>
+        <v>1010</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Mei Tian, Chuantao Zuo, Hong Zhang</t>
+          <t>Wenhao Zhou</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>2</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Low Concordance Between Blood Pressures Measured in Periodic Health Examinations and in a Workplace-Based Hypertension Management Program</t>
+          <t>International Nuclear Medicine Consensus on the Clinical Use of Amyloid Positron Emission Tomography in Alzheimer’s Disease</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00067-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00068-9</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2307,48 +2307,43 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2022-08-18</t>
+          <t>2022-08-26</t>
         </is>
       </c>
       <c r="G35">
-        <v>1159</v>
+        <v>1814</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Shouling Wu, An Pan</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>Mei Tian, Chuantao Zuo, Hong Zhang</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>6</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Cross-sectional Exploration of the Relationship Between Glutamate Abnormalities and Tic Disorder Severity Using Proton Magnetic Resonance Spectroscopy</t>
+          <t>Low Concordance Between Blood Pressures Measured in Periodic Health Examinations and in a Workplace-Based Hypertension Management Program</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00064-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00067-w</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2366,48 +2361,48 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2022-08-16</t>
+          <t>2022-08-18</t>
         </is>
       </c>
       <c r="G36">
-        <v>944</v>
+        <v>1165</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Xiao-Yong Zhang, Min Wu</t>
+          <t>Shouling Wu, An Pan</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Human Genetic Variants Associated with COVID-19 Severity are Enriched in Immune and Epithelium Regulatory Networks</t>
+          <t>Cross-sectional Exploration of the Relationship Between Glutamate Abnormalities and Tic Disorder Severity Using Proton Magnetic Resonance Spectroscopy</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00066-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00064-z</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2425,53 +2420,53 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2022-08-16</t>
         </is>
       </c>
       <c r="G37">
-        <v>1613</v>
+        <v>945</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Yong Wang</t>
+          <t>Xiao-Yong Zhang, Min Wu</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Report on the 3rd Board Meeting of the International Human Phenome Consortium</t>
+          <t>Human Genetic Variants Associated with COVID-19 Severity are Enriched in Immune and Epithelium Regulatory Networks</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00065-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00066-x</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Meeting Report</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D38">
@@ -2479,58 +2474,58 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2022-08-13</t>
         </is>
       </c>
       <c r="G38">
-        <v>2080</v>
+        <v>1644</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Mei Tian, Li Jin</t>
+          <t>Yong Wang</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Palmprint Phenotype Feature Extraction and Classification Based on Deep Learning</t>
+          <t>Report on the 3rd Board Meeting of the International Human Phenome Consortium</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00063-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00065-y</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Meeting Report</t>
         </is>
       </c>
       <c r="D39">
@@ -2547,49 +2542,49 @@
         </is>
       </c>
       <c r="G39">
-        <v>1243</v>
+        <v>2120</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>2</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Sijia Wang, Guangtao Zhai</t>
+          <t>Mei Tian, Li Jin</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Mitochondria as the Essence of Yang Qi in the Human Body</t>
+          <t>Palmprint Phenotype Feature Extraction and Classification Based on Deep Learning</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00060-3</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00063-0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D40">
@@ -2602,21 +2597,21 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2022-06-16</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="G40">
-        <v>2416</v>
+        <v>1245</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>3</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Junjie Luo, Zhenglong Gu</t>
+          <t>Sijia Wang, Guangtao Zhai</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2626,29 +2621,29 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Multi-omics Analysis of Young Portulaca oleracea L. Plants’ Responses to High NaCl Doses Reveals Insights into Pathways and Genes Responsive to Salinity Stress in this Halophyte Species</t>
+          <t>Mitochondria as the Essence of Yang Qi in the Human Body</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00061-2</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00060-3</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D41">
@@ -2661,48 +2656,48 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2022-06-15</t>
+          <t>2022-06-16</t>
         </is>
       </c>
       <c r="G41">
-        <v>1574</v>
+        <v>2430</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I41">
         <v>3</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Manoel Teixeira Souza Júnior</t>
+          <t>Junjie Luo, Zhenglong Gu</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Plasma Lipidomic Subclasses and Risk of Hypertension in Middle-Aged and Elderly Chinese</t>
+          <t>Multi-omics Analysis of Young Portulaca oleracea L. Plants’ Responses to High NaCl Doses Reveals Insights into Pathways and Genes Responsive to Salinity Stress in this Halophyte Species</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00057-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00061-2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2720,48 +2715,48 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2022-06-14</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="G42">
-        <v>1492</v>
+        <v>1580</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Rong Zeng, Liang Sun, Xu Lin</t>
+          <t>Manoel Teixeira Souza Júnior</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Identification of Germline Mutations in East-Asian Young Never-Smokers with Lung Adenocarcinoma by Whole-Exome Sequencing</t>
+          <t>Plasma Lipidomic Subclasses and Risk of Hypertension in Middle-Aged and Elderly Chinese</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00062-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00057-y</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2779,48 +2774,48 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2022-06-11</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="G43">
-        <v>1390</v>
+        <v>1504</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Libing Shen, Yihua Sun, Yang Zhang</t>
+          <t>Rong Zeng, Liang Sun, Xu Lin</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Clinical Profiles at the Time of Diagnosis of SARS-CoV-2 Infection in Costa Rica During the Pre-vaccination Period Using a Machine Learning Approach</t>
+          <t>Identification of Germline Mutations in East-Asian Young Never-Smokers with Lung Adenocarcinoma by Whole-Exome Sequencing</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00058-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00062-1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2838,48 +2833,48 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2022-06-07</t>
+          <t>2022-06-11</t>
         </is>
       </c>
       <c r="G44">
-        <v>1630</v>
+        <v>1414</v>
       </c>
       <c r="H44">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
+          <t>Libing Shen, Yihua Sun, Yang Zhang</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Metabolic Molecular Diagnosis of Inflammatory Bowel Disease by Synergistical Promotion of Layered Titania Nanosheets with Graphitized Carbon</t>
+          <t>Clinical Profiles at the Time of Diagnosis of SARS-CoV-2 Infection in Costa Rica During the Pre-vaccination Period Using a Machine Learning Approach</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00055-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00058-x</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2897,21 +2892,21 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-06-07</t>
         </is>
       </c>
       <c r="G45">
-        <v>1240</v>
+        <v>1653</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Chunhui Deng, Nianrong Sun, Hao Wu</t>
+          <t>Jose Arturo Molina-Mora</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2921,29 +2916,29 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Emerging Regulatory Mechanisms of N6-Methyladenosine Modification in Cancer Metastasis</t>
+          <t>Metabolic Molecular Diagnosis of Inflammatory Bowel Disease by Synergistical Promotion of Layered Titania Nanosheets with Graphitized Carbon</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00043-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00055-0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D46">
@@ -2951,53 +2946,53 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="G46">
-        <v>1626</v>
+        <v>1244</v>
       </c>
       <c r="H46">
         <v>2</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Lunxiu Qin</t>
+          <t>Chunhui Deng, Nianrong Sun, Hao Wu</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Deep Clinical Phenotyping of Parkinson’s Disease: Towards a New Era of Research and Clinical Care</t>
+          <t>Emerging Regulatory Mechanisms of N6-Methyladenosine Modification in Cancer Metastasis</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00051-4</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00043-w</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3015,53 +3010,53 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2022-05-21</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="G47">
-        <v>1440</v>
+        <v>1634</v>
       </c>
       <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
         <v>1</v>
       </c>
-      <c r="I47">
-        <v>120</v>
-      </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Jian Wang</t>
+          <t>Lunxiu Qin</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A Hashing-Based Framework for Enhancing Cluster Delineation of High-Dimensional Single-Cell Profiles</t>
+          <t>Deep Clinical Phenotyping of Parkinson’s Disease: Towards a New Era of Research and Clinical Care</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00056-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00051-4</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D48">
@@ -3074,21 +3069,21 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>2022-05-21</t>
         </is>
       </c>
       <c r="G48">
-        <v>1248</v>
+        <v>1460</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Xianting Ding</t>
+          <t>Jian Wang</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3103,19 +3098,19 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Nascent Proteome and Glycoproteome Reveal the Inhibition Role of ALG1 in Hepatocellular Carcinoma Cell Migration</t>
+          <t>A Hashing-Based Framework for Enhancing Cluster Delineation of High-Dimensional Single-Cell Profiles</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00050-5</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00056-z</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3133,21 +3128,21 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2022-05-14</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="G49">
-        <v>1457</v>
+        <v>1253</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Hong Shu, Haojie Lu</t>
+          <t>Xianting Ding</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3157,24 +3152,24 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Biomarkers and Disease Trajectories Influencing Women’s Health: Results from the UK Biobank Cohort</t>
+          <t>Nascent Proteome and Glycoproteome Reveal the Inhibition Role of ALG1 in Hepatocellular Carcinoma Cell Migration</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00054-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00050-5</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3192,21 +3187,21 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-05-14</t>
         </is>
       </c>
       <c r="G50">
-        <v>2447</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Haomin Yang, Weimin Ye</t>
+          <t>Hong Shu, Haojie Lu</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3216,24 +3211,24 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Causal Effect of Genetically Determined Blood Copper Concentrations on Multiple Diseases: A Mendelian Randomization and Phenome-Wide Association Study</t>
+          <t>Biomarkers and Disease Trajectories Influencing Women’s Health: Results from the UK Biobank Cohort</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00052-3</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00054-1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3251,21 +3246,21 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="G51">
-        <v>1577</v>
+        <v>2470</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I51">
         <v>2</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Longman Li, Xiaobo Yang</t>
+          <t>Haomin Yang, Weimin Ye</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3275,24 +3270,24 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Three Novel Mutations of Microphthalmos Identified in Two Chinese Families</t>
+          <t>Causal Effect of Genetically Determined Blood Copper Concentrations on Multiple Diseases: A Mendelian Randomization and Phenome-Wide Association Study</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00053-2</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00052-3</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3314,17 +3309,17 @@
         </is>
       </c>
       <c r="G52">
-        <v>1017</v>
+        <v>1585</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
         <v>2</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Yi Lu, Tianyu Zheng</t>
+          <t>Longman Li, Xiaobo Yang</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3339,24 +3334,24 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Correction to: Welcome to the Phenomics Journal</t>
+          <t>Three Novel Mutations of Microphthalmos Identified in Two Chinese Families</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00059-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00053-2</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D53">
@@ -3369,48 +3364,53 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="G53">
-        <v>763</v>
+        <v>1021</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Li Jin</t>
+          <t>Yi Lu, Tianyu Zheng</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>4</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A Comprehensive Review of High Throughput Phenotyping and Machine Learning for Plant Stress Phenotyping</t>
+          <t>Correction to: Welcome to the Phenomics Journal</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00048-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00059-w</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="D54">
@@ -3418,58 +3418,53 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2022-04</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2022-04-04</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="G54">
-        <v>4148</v>
+        <v>779</v>
       </c>
       <c r="H54">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Karansher S. Sandhu</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>Li Jin</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Global Quantitative Proteomics Analysis Reveals the Downstream Signaling Networks of Msx1 and Msx2 in Myoblast Differentiation</t>
+          <t>A Comprehensive Review of High Throughput Phenotyping and Machine Learning for Plant Stress Phenotyping</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00049-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00048-z</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D55">
@@ -3477,26 +3472,26 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2022-03</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="G55">
-        <v>1122</v>
+        <v>4170</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I55">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Yenan Yang</t>
+          <t>Karansher S. Sandhu</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3511,19 +3506,19 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Basic Phenotyping of Male Fertility from 2019 to 2020 at the Human Sperm Bank of Fudan University</t>
+          <t>Global Quantitative Proteomics Analysis Reveals the Downstream Signaling Networks of Msx1 and Msx2 in Myoblast Differentiation</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00047-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00049-y</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3536,26 +3531,26 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2022-02-28</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="G56">
-        <v>1061</v>
+        <v>1128</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Feng Jiang</t>
+          <t>Yenan Yang</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3570,19 +3565,19 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A Preliminary Study on the Evaluation of Human Sperm Head Morphology with a Domestic Digital Holographic Image System</t>
+          <t>Basic Phenotyping of Male Fertility from 2019 to 2020 at the Human Sperm Bank of Fudan University</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00046-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00047-0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3600,14 +3595,14 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2022-02-26</t>
+          <t>2022-02-28</t>
         </is>
       </c>
       <c r="G57">
-        <v>1104</v>
+        <v>1065</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>2</v>
@@ -3624,29 +3619,29 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Positron Emission Tomography Molecular Imaging for Phenotyping and Management of Lymphoma</t>
+          <t>A Preliminary Study on the Evaluation of Human Sperm Head Morphology with a Domestic Digital Holographic Image System</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00042-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00046-1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D58">
@@ -3659,21 +3654,21 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2022-02-24</t>
+          <t>2022-02-26</t>
         </is>
       </c>
       <c r="G58">
-        <v>1667</v>
+        <v>1105</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58">
         <v>2</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Hong Zhang, Ali Cahid Civelek, Mei Tian</t>
+          <t>Feng Jiang</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3688,24 +3683,24 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Immunosuppression Induced by Brain-Specific HDAC6 Knockdown Improves Aging Performance in Drosophila melanogaster</t>
+          <t>Positron Emission Tomography Molecular Imaging for Phenotyping and Management of Lymphoma</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00045-2</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00042-x</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D59">
@@ -3718,21 +3713,21 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2022-02-23</t>
+          <t>2022-02-24</t>
         </is>
       </c>
       <c r="G59">
-        <v>1506</v>
+        <v>1677</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Jing-Dong J. Han, Wei Yu</t>
+          <t>Hong Zhang, Ali Cahid Civelek, Mei Tian</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3742,29 +3737,29 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Recent Advances in Understanding of Alzheimer’s Disease Progression Through Mass Spectrometry-Based Metabolomics</t>
+          <t>Immunosuppression Induced by Brain-Specific HDAC6 Knockdown Improves Aging Performance in Drosophila melanogaster</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00036-9</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00045-2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D60">
@@ -3777,21 +3772,21 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2022-02-22</t>
+          <t>2022-02-23</t>
         </is>
       </c>
       <c r="G60">
-        <v>2229</v>
+        <v>1512</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Lingjun Li</t>
+          <t>Jing-Dong J. Han, Wei Yu</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3801,29 +3796,29 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Preoperative Characteristics of Ocular Biometry in Children with Unilateral Congenital Cataracts</t>
+          <t>Recent Advances in Understanding of Alzheimer’s Disease Progression Through Mass Spectrometry-Based Metabolomics</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00040-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00036-9</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D61">
@@ -3840,17 +3835,17 @@
         </is>
       </c>
       <c r="G61">
-        <v>903</v>
+        <v>2231</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Yi Lu</t>
+          <t>Lingjun Li</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3860,24 +3855,24 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Unraveling the Dynamic Integration of Auxin, Brassinosteroid and Gibberellin in Early Shade-Induced Hypocotyl Elongation</t>
+          <t>Preoperative Characteristics of Ocular Biometry in Children with Unilateral Congenital Cataracts</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00044-3</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00040-z</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3895,21 +3890,21 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2022-02-13</t>
+          <t>2022-02-22</t>
         </is>
       </c>
       <c r="G62">
-        <v>1416</v>
+        <v>908</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Lin Li</t>
+          <t>Yi Lu</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3924,19 +3919,19 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Diurnal Circadian Lighting Accumulation Model: A Predictor of the Human Circadian Phase Shift Phenotype</t>
+          <t>Unraveling the Dynamic Integration of Auxin, Brassinosteroid and Gibberellin in Early Shade-Induced Hypocotyl Elongation</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00039-6</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00044-3</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3954,21 +3949,21 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2022-02-11</t>
+          <t>2022-02-13</t>
         </is>
       </c>
       <c r="G63">
-        <v>1830</v>
+        <v>1431</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Yandan Lin</t>
+          <t>Lin Li</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -3978,29 +3973,29 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Optical Imaging of Epigenetic Modifications in Cancer: A Systematic Review</t>
+          <t>Diurnal Circadian Lighting Accumulation Model: A Predictor of the Human Circadian Phase Shift Phenotype</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00041-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00039-6</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D64">
@@ -4013,21 +4008,21 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2022-02-07</t>
+          <t>2022-02-11</t>
         </is>
       </c>
       <c r="G64">
-        <v>1944</v>
+        <v>1857</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Yang Du, Jie Tian</t>
+          <t>Yandan Lin</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4037,29 +4032,29 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Seasonality and Sex-Biased Fluctuation of Birth Weight in Tibetan Populations</t>
+          <t>Optical Imaging of Epigenetic Modifications in Cancer: A Systematic Review</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00038-7</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00041-y</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D65">
@@ -4067,26 +4062,26 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2022-01-31</t>
+          <t>2022-02-07</t>
         </is>
       </c>
       <c r="G65">
-        <v>1138</v>
+        <v>1955</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ouzhuluobu, Xuebin Qi, Bing Su</t>
+          <t>Yang Du, Jie Tian</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4096,29 +4091,29 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Why Do We Care More About Disease than Health?</t>
+          <t>Seasonality and Sex-Biased Fluctuation of Birth Weight in Tibetan Populations</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00037-8</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00038-7</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Commentary</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D66">
@@ -4131,21 +4126,21 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2022-01-28</t>
+          <t>2022-01-31</t>
         </is>
       </c>
       <c r="G66">
-        <v>2996</v>
+        <v>1140</v>
       </c>
       <c r="H66">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Martin Picard</t>
+          <t xml:space="preserve"> Ouzhuluobu, Xuebin Qi, Bing Su</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4155,29 +4150,29 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Recent Progresses in Electrochemical DNA Biosensors for MicroRNA Detection</t>
+          <t>Why Do We Care More About Disease than Health?</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00032-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00037-8</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="D67">
@@ -4190,21 +4185,21 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2022-01-21</t>
+          <t>2022-01-28</t>
         </is>
       </c>
       <c r="G67">
-        <v>1999</v>
+        <v>3007</v>
       </c>
       <c r="H67">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Xianting Ding</t>
+          <t>Martin Picard</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4214,29 +4209,29 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Pan-cancer analysis identifies RNA helicase DDX1 as a prognostic marker</t>
+          <t>Recent Progresses in Electrochemical DNA Biosensors for MicroRNA Detection</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00034-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00032-z</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D68">
@@ -4249,21 +4244,21 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2022-01-19</t>
+          <t>2022-01-21</t>
         </is>
       </c>
       <c r="G68">
-        <v>1761</v>
+        <v>2009</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I68">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Jixi Li</t>
+          <t>Xianting Ding</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4278,24 +4273,24 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Correction to: N-Glycoproteomics Study of Putative N-Glycoprotein Biomarkers of Drug Resistance in MCF-7/ADR Cells657</t>
+          <t>Pan-cancer analysis identifies RNA helicase DDX1 as a prognostic marker</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00035-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00034-x</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D69">
@@ -4308,48 +4303,53 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2022-01-17</t>
+          <t>2022-01-19</t>
         </is>
       </c>
       <c r="G69">
-        <v>821</v>
+        <v>1769</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Yun Chen, Zhixin Tian</t>
+          <t>Jixi Li</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Phenome-Wide Association Analysis Reveals Novel Links Between Genetically Determined Levels of Liver Enzymes and Disease Phenotypes</t>
+          <t>Correction to: N-Glycoproteomics Study of Putative N-Glycoprotein Biomarkers of Drug Resistance in MCF-7/ADR Cells657</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00033-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00035-w</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="D70">
@@ -4362,53 +4362,48 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2022-01-11</t>
+          <t>2022-01-17</t>
         </is>
       </c>
       <c r="G70">
-        <v>2225</v>
+        <v>836</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Xingdong Chen</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>Yun Chen, Zhixin Tian</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>5</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Mapping Cell Phenomics with Multiparametric Flow Cytometry Assays</t>
+          <t>Phenome-Wide Association Analysis Reveals Novel Links Between Genetically Determined Levels of Liver Enzymes and Disease Phenotypes</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00031-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00033-y</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D71">
@@ -4421,21 +4416,21 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2022-01-09</t>
+          <t>2022-01-11</t>
         </is>
       </c>
       <c r="G71">
-        <v>3085</v>
+        <v>2237</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Shan Jiang, Jing Wang, Ying Wan</t>
+          <t>Xingdong Chen</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4445,24 +4440,24 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Beyond Mendelian Inheritance: Genetic Buffering and Phenotype Variability</t>
+          <t>Mapping Cell Phenomics with Multiparametric Flow Cytometry Assays</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00030-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00031-0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4471,30 +4466,30 @@
         </is>
       </c>
       <c r="D72">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-12-27</t>
+          <t>2022-01-09</t>
         </is>
       </c>
       <c r="G72">
-        <v>2906</v>
+        <v>3108</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Andrea Rossi, Zacharias Kontarakis</t>
+          <t>Shan Jiang, Jing Wang, Ying Wan</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4504,29 +4499,29 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CYP2C9*3 Increases the Ibuprofen Response of Hemodynamically Significant Patent Ductus Arteriosus in the Infants with Gestational Age of More Than 30 Weeks</t>
+          <t>Beyond Mendelian Inheritance: Genetic Buffering and Phenotype Variability</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00028-9</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00030-1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D73">
@@ -4534,26 +4529,26 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-11-11</t>
+          <t>2021-12-27</t>
         </is>
       </c>
       <c r="G73">
-        <v>1310</v>
+        <v>2933</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Wenhao Zhou</t>
+          <t>Andrea Rossi, Zacharias Kontarakis</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4563,29 +4558,29 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Mental Calculation Drives Reliable and Weak Distant Connectivity While Music Listening Induces Dense Local Connectivity</t>
+          <t>CYP2C9*3 Increases the Ibuprofen Response of Hemodynamically Significant Patent Ductus Arteriosus in the Infants with Gestational Age of More Than 30 Weeks</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00027-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00028-9</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correspondence</t>
         </is>
       </c>
       <c r="D74">
@@ -4598,48 +4593,48 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-11-10</t>
+          <t>2021-11-11</t>
         </is>
       </c>
       <c r="G74">
-        <v>1940</v>
+        <v>1312</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Yuguo Yu</t>
+          <t>Wenhao Zhou</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Systematic Genome-Wide Profiles Reveal Alternative Splicing Landscape and Implications of Splicing Regulator DExD-Box Helicase 21 in Aggressive Progression of Adrenocortical Carcinoma</t>
+          <t>Mental Calculation Drives Reliable and Weak Distant Connectivity While Music Listening Induces Dense Local Connectivity</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00026-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00027-w</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4652,26 +4647,26 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-10-29</t>
+          <t>2021-11-10</t>
         </is>
       </c>
       <c r="G75">
-        <v>1934</v>
+        <v>1948</v>
       </c>
       <c r="H75">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Yuanyuan Qu, Hailiang Zhang, Dingwei Ye</t>
+          <t>Yuguo Yu</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4686,19 +4681,19 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>N-Glycoproteomics Study of Putative N-Glycoprotein Biomarkers of Drug Resistance in MCF-7/ADR Cells</t>
+          <t>Systematic Genome-Wide Profiles Reveal Alternative Splicing Landscape and Implications of Splicing Regulator DExD-Box Helicase 21 in Aggressive Progression of Adrenocortical Carcinoma</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00029-8</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00026-x</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4716,21 +4711,21 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-10-28</t>
+          <t>2021-10-29</t>
         </is>
       </c>
       <c r="G76">
-        <v>1909</v>
+        <v>1937</v>
       </c>
       <c r="H76">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Yun Chen, Zhixin Tian</t>
+          <t>Yuanyuan Qu, Hailiang Zhang, Dingwei Ye</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4745,19 +4740,19 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Strided Self-Supervised Low-Dose CT Denoising for Lung Nodule Classification</t>
+          <t>N-Glycoproteomics Study of Putative N-Glycoprotein Biomarkers of Drug Resistance in MCF-7/ADR Cells</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00025-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00029-8</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4775,21 +4770,21 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-10-26</t>
+          <t>2021-10-28</t>
         </is>
       </c>
       <c r="G77">
-        <v>1807</v>
+        <v>1910</v>
       </c>
       <c r="H77">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Hongming Shan</t>
+          <t>Yun Chen, Zhixin Tian</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4804,19 +4799,19 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Pseudotime Ordering Single-Cell Transcriptomic of β Cells Pancreatic Islets in Health and Type 2 Diabetes</t>
+          <t>Strided Self-Supervised Low-Dose CT Denoising for Lung Nodule Classification</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00024-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00025-y</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4834,21 +4829,21 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-10-19</t>
+          <t>2021-10-26</t>
         </is>
       </c>
       <c r="G78">
-        <v>1675</v>
+        <v>1809</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Xingxing Kong, Tiemin Liu</t>
+          <t>Hongming Shan</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -4858,24 +4853,24 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Causal Relationship Between Complement C3, C4, and Nonalcoholic Fatty Liver Disease: Bidirectional Mendelian Randomization Analysis</t>
+          <t>Pseudotime Ordering Single-Cell Transcriptomic of β Cells Pancreatic Islets in Health and Type 2 Diabetes</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00023-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00024-z</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4888,26 +4883,26 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-09-23</t>
+          <t>2021-10-19</t>
         </is>
       </c>
       <c r="G79">
-        <v>1478</v>
+        <v>1678</v>
       </c>
       <c r="H79">
+        <v>2</v>
+      </c>
+      <c r="I79">
         <v>1</v>
       </c>
-      <c r="I79">
-        <v>15</v>
-      </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Xiaobo Yang</t>
+          <t>Xingxing Kong, Tiemin Liu</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4922,24 +4917,24 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Origin and Spread of the ALDH2 Glu504Lys Allele</t>
+          <t>Causal Relationship Between Complement C3, C4, and Nonalcoholic Fatty Liver Disease: Bidirectional Mendelian Randomization Analysis</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00017-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00023-0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D80">
@@ -4952,21 +4947,21 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-09-20</t>
+          <t>2021-09-23</t>
         </is>
       </c>
       <c r="G80">
-        <v>2523</v>
+        <v>1483</v>
       </c>
       <c r="H80">
         <v>1</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Aijun Sun</t>
+          <t>Xiaobo Yang</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -4981,19 +4976,19 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Phenotypes of Cardiovascular Diseases: Current Status and Future Perspectives</t>
+          <t>Origin and Spread of the ALDH2 Glu504Lys Allele</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00022-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00017-y</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -5006,26 +5001,26 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-08-26</t>
+          <t>2021-09-20</t>
         </is>
       </c>
       <c r="G81">
-        <v>1742</v>
+        <v>2556</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Jiangping Song</t>
+          <t>Aijun Sun</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5040,24 +5035,24 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Prediction of Metabolic Disorders Using NMR-Based Metabolomics: The Shanghai Changfeng Study</t>
+          <t>Phenotypes of Cardiovascular Diseases: Current Status and Future Perspectives</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00021-2</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00022-1</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D82">
@@ -5070,21 +5065,21 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-08-24</t>
+          <t>2021-08-26</t>
         </is>
       </c>
       <c r="G82">
-        <v>1612</v>
+        <v>1751</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Ming-feng Xia, Hui-ru Tang, Xin Gao</t>
+          <t>Jiangping Song</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5094,29 +5089,29 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Computational Methods for Prediction of Human Protein-Phenotype Associations: A Review</t>
+          <t>Prediction of Metabolic Disorders Using NMR-Based Metabolomics: The Shanghai Changfeng Study</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00019-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00021-2</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D83">
@@ -5129,21 +5124,21 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-08-06</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="G83">
-        <v>2142</v>
+        <v>1619</v>
       </c>
       <c r="H83">
+        <v>3</v>
+      </c>
+      <c r="I83">
         <v>2</v>
       </c>
-      <c r="I83">
-        <v>5</v>
-      </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Shanfeng Zhu</t>
+          <t>Ming-feng Xia, Hui-ru Tang, Xin Gao</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -5158,19 +5153,19 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Recommendation for Cardiac Magnetic Resonance Imaging-Based Phenotypic Study: Imaging Part</t>
+          <t>Computational Methods for Prediction of Human Protein-Phenotype Associations: A Review</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00018-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00019-w</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -5183,26 +5178,26 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-07-28</t>
+          <t>2021-08-06</t>
         </is>
       </c>
       <c r="G84">
-        <v>3228</v>
+        <v>2147</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Chengyan Wang, He Wang</t>
+          <t>Shanfeng Zhu</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5217,19 +5212,19 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Molecular Phenomic Approaches to Deconvolving the Systemic Effects of SARS-CoV-2 Infection and Post-acute COVID-19 Syndrome</t>
+          <t>Recommendation for Cardiac Magnetic Resonance Imaging-Based Phenotypic Study: Imaging Part</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00020-3</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00018-x</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -5247,21 +5242,21 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>2021-07-28</t>
         </is>
       </c>
       <c r="G85">
-        <v>3716</v>
+        <v>3280</v>
       </c>
       <c r="H85">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Jeremy K. Nicholson</t>
+          <t>Chengyan Wang, He Wang</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5276,24 +5271,24 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Genetic Architecture of Childhood Kidney and Urological Diseases in China</t>
+          <t>Molecular Phenomic Approaches to Deconvolving the Systemic Effects of SARS-CoV-2 Infection and Post-acute COVID-19 Syndrome</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00014-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00020-3</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D86">
@@ -5306,21 +5301,21 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>2021-07-22</t>
         </is>
       </c>
       <c r="G86">
-        <v>2310</v>
+        <v>3739</v>
       </c>
       <c r="H86">
         <v>5</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Jia Rao, Hong Xu</t>
+          <t>Jeremy K. Nicholson</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5330,29 +5325,29 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Defense of COVID-19 by Human Organoids</t>
+          <t>Genetic Architecture of Childhood Kidney and Urological Diseases in China</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00015-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00014-1</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D87">
@@ -5365,21 +5360,21 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-07-14</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="G87">
-        <v>3776</v>
+        <v>2409</v>
       </c>
       <c r="H87">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I87">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Xinhua Lin, Bing Zhao</t>
+          <t>Jia Rao, Hong Xu</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5394,24 +5389,24 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Random Penetrance of Mutations Among Individuals: A New Type of Genetic Drift in Molecular Evolution</t>
+          <t>Defense of COVID-19 by Human Organoids</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00013-2</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00015-0</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D88">
@@ -5419,26 +5414,26 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-06-17</t>
+          <t>2021-07-14</t>
         </is>
       </c>
       <c r="G88">
-        <v>1463</v>
+        <v>3801</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Xun Gu</t>
+          <t>Xinhua Lin, Bing Zhao</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5453,24 +5448,24 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Molecular Determinants of Antibiotic Resistance in the Costa Rican Pseudomonas aeruginosa AG1 by a Multi-omics Approach: A Review of 10 Years of Study</t>
+          <t>Random Penetrance of Mutations Among Individuals: A New Type of Genetic Drift in Molecular Evolution</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00016-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00013-2</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D89">
@@ -5487,17 +5482,17 @@
         </is>
       </c>
       <c r="G89">
-        <v>3226</v>
+        <v>1464</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
+          <t>Xun Gu</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -5512,24 +5507,24 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Distribution Atlas of COVID-19 Pneumonia on Computed Tomography: A Deep Learning Based Description</t>
+          <t>Molecular Determinants of Antibiotic Resistance in the Costa Rican Pseudomonas aeruginosa AG1 by a Multi-omics Approach: A Review of 10 Years of Study</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00011-4</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00016-z</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D90">
@@ -5537,26 +5532,26 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-06-17</t>
         </is>
       </c>
       <c r="G90">
-        <v>2583</v>
+        <v>3256</v>
       </c>
       <c r="H90">
         <v>3</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Shenghong Ju</t>
+          <t>Jose Arturo Molina-Mora</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -5566,24 +5561,24 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Comparison of Metabolic Profiling of Arabidopsis Inflorescences Between Landsberg erecta and Columbia, and Meiosis-Defective Mutants by 1H-NMR Spectroscopy</t>
+          <t>Distribution Atlas of COVID-19 Pneumonia on Computed Tomography: A Deep Learning Based Description</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00012-3</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00011-4</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -5605,17 +5600,17 @@
         </is>
       </c>
       <c r="G91">
-        <v>2120</v>
+        <v>2610</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I91">
         <v>2</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Limin Zhang, Yingxiang Wang</t>
+          <t>Shenghong Ju</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -5630,24 +5625,24 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>High-Throughput Phenotyping: A Platform to Accelerate Crop Improvement</t>
+          <t>Comparison of Metabolic Profiling of Arabidopsis Inflorescences Between Landsberg erecta and Columbia, and Meiosis-Defective Mutants by 1H-NMR Spectroscopy</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-020-00007-6</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00012-3</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D92">
@@ -5664,17 +5659,17 @@
         </is>
       </c>
       <c r="G92">
-        <v>4583</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Neelam R. Yadav</t>
+          <t>Limin Zhang, Yingxiang Wang</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -5689,24 +5684,24 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Effect of Light on Cognitive Function During a Stroop Task Using Functional Near-Infrared Spectroscopy</t>
+          <t>High-Throughput Phenotyping: A Platform to Accelerate Crop Improvement</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00010-5</t>
+          <t>http://link.springer.com/article/10.1007/s43657-020-00007-6</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D93">
@@ -5714,26 +5709,26 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-04-19</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="G93">
-        <v>2918</v>
+        <v>4597</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I93">
         <v>3</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Wei Chen</t>
+          <t>Neelam R. Yadav</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -5748,19 +5743,19 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Using Composite Phenotypes to Reveal Hidden Physiological Heterogeneity in High-Altitude Acclimatization in a Chinese Han Longitudinal Cohort</t>
+          <t>Effect of Light on Cognitive Function During a Stroop Task Using Functional Near-Infrared Spectroscopy</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-020-00005-8</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00010-5</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -5773,26 +5768,26 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-02-22</t>
+          <t>2021-04-19</t>
         </is>
       </c>
       <c r="G94">
-        <v>5545</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Li Jin</t>
+          <t>Wei Chen</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -5802,24 +5797,24 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>The Ultrafast and Accurate Mapping Algorithm FANSe3: Mapping a Human Whole-Genome Sequencing Dataset Within 30 Minutes</t>
+          <t>Using Composite Phenotypes to Reveal Hidden Physiological Heterogeneity in High-Altitude Acclimatization in a Chinese Han Longitudinal Cohort</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-020-00008-5</t>
+          <t>http://link.springer.com/article/10.1007/s43657-020-00005-8</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -5841,17 +5836,17 @@
         </is>
       </c>
       <c r="G95">
-        <v>4137</v>
+        <v>5589</v>
       </c>
       <c r="H95">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I95">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Gong Zhang, Jingjie Jin</t>
+          <t>Jiucun Wang, Li Jin</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -5866,24 +5861,24 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>In Situ Saturating Mutagenesis Screening Identifies a Functional Genomic Locus that Regulates Ucp1 Expression</t>
+          <t>The Ultrafast and Accurate Mapping Algorithm FANSe3: Mapping a Human Whole-Genome Sequencing Dataset Within 30 Minutes</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-020-00006-7</t>
+          <t>http://link.springer.com/article/10.1007/s43657-020-00008-5</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D96">
@@ -5900,17 +5895,17 @@
         </is>
       </c>
       <c r="G96">
-        <v>2631</v>
+        <v>4165</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Qiurong Ding</t>
+          <t>Gong Zhang, Jingjie Jin</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -5925,24 +5920,24 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Welcome to the Phenomics Journal</t>
+          <t>In Situ Saturating Mutagenesis Screening Identifies a Functional Genomic Locus that Regulates Ucp1 Expression</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-020-00009-4</t>
+          <t>http://link.springer.com/article/10.1007/s43657-020-00006-7</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Editorial</t>
+          <t>Correspondence</t>
         </is>
       </c>
       <c r="D97">
@@ -5950,41 +5945,100 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2021-02-22</t>
+        </is>
+      </c>
+      <c r="G97">
+        <v>2632</v>
+      </c>
+      <c r="H97">
+        <v>2</v>
+      </c>
+      <c r="I97">
+        <v>2</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Qiurong Ding</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>2023-05-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Welcome to the Phenomics Journal</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>http://link.springer.com/article/10.1007/s43657-020-00009-4</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Editorial</t>
+        </is>
+      </c>
+      <c r="D98">
+        <v>2021</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
           <t>2021-01</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>2021-01-11</t>
         </is>
       </c>
-      <c r="G97">
-        <v>4817</v>
-      </c>
-      <c r="H97">
-        <v>4</v>
-      </c>
-      <c r="I97">
+      <c r="G98">
+        <v>4850</v>
+      </c>
+      <c r="H98">
+        <v>5</v>
+      </c>
+      <c r="I98">
         <v>8</v>
       </c>
-      <c r="J97" t="inlineStr">
+      <c r="J98" t="inlineStr">
         <is>
           <t>Li Jin</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr">
+      <c r="K98" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L97" t="inlineStr">
+      <c r="L98" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>2023-05-21</t>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>2023-05-28</t>
         </is>
       </c>
     </row>

--- a/weekly_online_paper_metrices/all_Phenomics_paper_metrics.xlsx
+++ b/weekly_online_paper_metrices/all_Phenomics_paper_metrics.xlsx
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         </is>
       </c>
       <c r="G56">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="H56">
         <v>0</v>

--- a/weekly_online_paper_metrices/all_Phenomics_paper_metrics.xlsx
+++ b/weekly_online_paper_metrices/all_Phenomics_paper_metrics.xlsx
@@ -454,13 +454,13 @@
         </is>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -474,7 +474,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -508,13 +508,13 @@
         </is>
       </c>
       <c r="G3">
-        <v>106</v>
+        <v>200</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -528,7 +528,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -562,13 +562,13 @@
         </is>
       </c>
       <c r="G4">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -582,7 +582,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -616,13 +616,13 @@
         </is>
       </c>
       <c r="G5">
-        <v>139</v>
+        <v>197</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -636,7 +636,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="G6">
-        <v>352</v>
+        <v>696</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
         </is>
       </c>
       <c r="G7">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -744,7 +744,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="G8">
-        <v>427</v>
+        <v>484</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -798,7 +798,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -832,13 +832,13 @@
         </is>
       </c>
       <c r="G9">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G10">
-        <v>692</v>
+        <v>772</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -911,7 +911,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="G11">
-        <v>908</v>
+        <v>1087</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -970,7 +970,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -1004,13 +1004,13 @@
         </is>
       </c>
       <c r="G12">
-        <v>543</v>
+        <v>575</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
         </is>
       </c>
       <c r="G13">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="G14">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="G15">
-        <v>534</v>
+        <v>586</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
         </is>
       </c>
       <c r="G16">
-        <v>1811</v>
+        <v>1934</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
         </is>
       </c>
       <c r="G17">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -1348,13 +1348,13 @@
         </is>
       </c>
       <c r="G18">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -1407,13 +1407,13 @@
         </is>
       </c>
       <c r="G19">
-        <v>1411</v>
+        <v>1482</v>
       </c>
       <c r="H19">
         <v>2</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
         </is>
       </c>
       <c r="G20">
-        <v>599</v>
+        <v>639</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="G21">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
         </is>
       </c>
       <c r="G22">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -1633,13 +1633,13 @@
         </is>
       </c>
       <c r="G23">
-        <v>1109</v>
+        <v>1125</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="G24">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -1751,13 +1751,13 @@
         </is>
       </c>
       <c r="G25">
-        <v>775</v>
+        <v>805</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="G26">
-        <v>876</v>
+        <v>886</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="G27">
-        <v>709</v>
+        <v>732</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
         </is>
       </c>
       <c r="G28">
-        <v>1421</v>
+        <v>1486</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="G29">
-        <v>1713</v>
+        <v>1753</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -2041,7 +2041,7 @@
         </is>
       </c>
       <c r="G30">
-        <v>1225</v>
+        <v>1232</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -2100,7 +2100,7 @@
         </is>
       </c>
       <c r="G31">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="G32">
-        <v>1067</v>
+        <v>1074</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
         </is>
       </c>
       <c r="G33">
-        <v>1737</v>
+        <v>1777</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -2243,7 +2243,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="G34">
-        <v>3895</v>
+        <v>3984</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -2336,7 +2336,7 @@
         </is>
       </c>
       <c r="G35">
-        <v>893</v>
+        <v>908</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -2390,7 +2390,7 @@
         </is>
       </c>
       <c r="G36">
-        <v>1422</v>
+        <v>1440</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -2415,7 +2415,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -2449,13 +2449,13 @@
         </is>
       </c>
       <c r="G37">
-        <v>1226</v>
+        <v>1237</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
         </is>
       </c>
       <c r="G38">
-        <v>1039</v>
+        <v>1044</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="G39">
-        <v>2011</v>
+        <v>2051</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="G40">
-        <v>1184</v>
+        <v>1189</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -2680,7 +2680,7 @@
         </is>
       </c>
       <c r="G41">
-        <v>964</v>
+        <v>970</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2705,7 +2705,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -2739,7 +2739,7 @@
         </is>
       </c>
       <c r="G42">
-        <v>1762</v>
+        <v>1791</v>
       </c>
       <c r="H42">
         <v>3</v>
@@ -2764,7 +2764,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -2798,7 +2798,7 @@
         </is>
       </c>
       <c r="G43">
-        <v>2263</v>
+        <v>2294</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
         </is>
       </c>
       <c r="G44">
-        <v>1291</v>
+        <v>1298</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -2882,7 +2882,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
         </is>
       </c>
       <c r="G45">
-        <v>2481</v>
+        <v>2495</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -2941,7 +2941,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -2975,7 +2975,7 @@
         </is>
       </c>
       <c r="G46">
-        <v>1596</v>
+        <v>1601</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -3000,7 +3000,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="G47">
-        <v>1532</v>
+        <v>1535</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
         </is>
       </c>
       <c r="G48">
-        <v>1469</v>
+        <v>1480</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="G49">
-        <v>1762</v>
+        <v>1808</v>
       </c>
       <c r="H49">
         <v>9</v>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -3211,7 +3211,7 @@
         </is>
       </c>
       <c r="G50">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -3236,7 +3236,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -3270,7 +3270,7 @@
         </is>
       </c>
       <c r="G51">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="H51">
         <v>3</v>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -3329,13 +3329,13 @@
         </is>
       </c>
       <c r="G52">
-        <v>1484</v>
+        <v>1489</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
       <c r="I52">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -3388,7 +3388,7 @@
         </is>
       </c>
       <c r="G53">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -3447,10 +3447,10 @@
         </is>
       </c>
       <c r="G54">
-        <v>1507</v>
+        <v>1513</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54">
         <v>2</v>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="G55">
-        <v>2593</v>
+        <v>2632</v>
       </c>
       <c r="H55">
         <v>3</v>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
         </is>
       </c>
       <c r="G56">
-        <v>1615</v>
+        <v>1624</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -3590,7 +3590,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -3624,7 +3624,7 @@
         </is>
       </c>
       <c r="G57">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -3683,7 +3683,7 @@
         </is>
       </c>
       <c r="G58">
-        <v>864</v>
+        <v>893</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="G59">
-        <v>4240</v>
+        <v>4260</v>
       </c>
       <c r="H59">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I59">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="G60">
-        <v>1144</v>
+        <v>1149</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -3855,7 +3855,7 @@
         </is>
       </c>
       <c r="G61">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -3914,7 +3914,7 @@
         </is>
       </c>
       <c r="G62">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -3939,7 +3939,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -3973,7 +3973,7 @@
         </is>
       </c>
       <c r="G63">
-        <v>1713</v>
+        <v>1716</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -3998,7 +3998,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="G64">
-        <v>1547</v>
+        <v>1553</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -4091,10 +4091,10 @@
         </is>
       </c>
       <c r="G65">
-        <v>2262</v>
+        <v>2266</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I65">
         <v>18</v>
@@ -4116,7 +4116,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -4150,7 +4150,7 @@
         </is>
       </c>
       <c r="G66">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -4175,7 +4175,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -4209,7 +4209,7 @@
         </is>
       </c>
       <c r="G67">
-        <v>1457</v>
+        <v>1464</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -4234,7 +4234,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -4268,7 +4268,7 @@
         </is>
       </c>
       <c r="G68">
-        <v>1976</v>
+        <v>2011</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="G69">
-        <v>2001</v>
+        <v>2011</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="G70">
-        <v>1160</v>
+        <v>1167</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -4445,7 +4445,7 @@
         </is>
       </c>
       <c r="G71">
-        <v>3040</v>
+        <v>3048</v>
       </c>
       <c r="H71">
         <v>5</v>
@@ -4470,7 +4470,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -4504,10 +4504,10 @@
         </is>
       </c>
       <c r="G72">
-        <v>2034</v>
+        <v>2040</v>
       </c>
       <c r="H72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I72">
         <v>2</v>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -4563,7 +4563,7 @@
         </is>
       </c>
       <c r="G73">
-        <v>1806</v>
+        <v>1813</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -4588,7 +4588,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="G74">
-        <v>920</v>
+        <v>944</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -4642,7 +4642,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -4676,10 +4676,10 @@
         </is>
       </c>
       <c r="G75">
-        <v>2278</v>
+        <v>2290</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75">
         <v>6</v>
@@ -4701,7 +4701,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -4735,7 +4735,7 @@
         </is>
       </c>
       <c r="G76">
-        <v>3247</v>
+        <v>3306</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -4760,7 +4760,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -4794,7 +4794,7 @@
         </is>
       </c>
       <c r="G77">
-        <v>3054</v>
+        <v>3090</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -4819,7 +4819,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -4853,7 +4853,7 @@
         </is>
       </c>
       <c r="G78">
-        <v>1327</v>
+        <v>1331</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -4878,7 +4878,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -4912,7 +4912,7 @@
         </is>
       </c>
       <c r="G79">
-        <v>1970</v>
+        <v>1975</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -4937,7 +4937,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -4971,10 +4971,10 @@
         </is>
       </c>
       <c r="G80">
-        <v>1961</v>
+        <v>1969</v>
       </c>
       <c r="H80">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I80">
         <v>6</v>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -5030,7 +5030,7 @@
         </is>
       </c>
       <c r="G81">
-        <v>1938</v>
+        <v>1944</v>
       </c>
       <c r="H81">
         <v>7</v>
@@ -5055,7 +5055,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -5089,10 +5089,10 @@
         </is>
       </c>
       <c r="G82">
-        <v>1831</v>
+        <v>1835</v>
       </c>
       <c r="H82">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I82">
         <v>2</v>
@@ -5114,7 +5114,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="G83">
-        <v>1709</v>
+        <v>1719</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="G84">
-        <v>1508</v>
+        <v>1516</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -5232,7 +5232,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="G85">
-        <v>2684</v>
+        <v>2724</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -5291,7 +5291,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -5325,7 +5325,7 @@
         </is>
       </c>
       <c r="G86">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -5350,7 +5350,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -5384,13 +5384,13 @@
         </is>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>1648</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -5443,7 +5443,7 @@
         </is>
       </c>
       <c r="G88">
-        <v>2171</v>
+        <v>2175</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -5468,7 +5468,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -5502,10 +5502,10 @@
         </is>
       </c>
       <c r="G89">
-        <v>3464</v>
+        <v>3514</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -5527,7 +5527,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -5561,7 +5561,7 @@
         </is>
       </c>
       <c r="G90">
-        <v>3836</v>
+        <v>3865</v>
       </c>
       <c r="H90">
         <v>5</v>
@@ -5586,7 +5586,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -5620,7 +5620,7 @@
         </is>
       </c>
       <c r="G91">
-        <v>2551</v>
+        <v>2586</v>
       </c>
       <c r="H91">
         <v>5</v>
@@ -5645,7 +5645,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -5679,7 +5679,7 @@
         </is>
       </c>
       <c r="G92">
-        <v>3911</v>
+        <v>3948</v>
       </c>
       <c r="H92">
         <v>4</v>
@@ -5704,7 +5704,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -5738,7 +5738,7 @@
         </is>
       </c>
       <c r="G93">
-        <v>1478</v>
+        <v>1481</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -5763,7 +5763,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="G94">
-        <v>3366</v>
+        <v>3402</v>
       </c>
       <c r="H94">
         <v>3</v>
@@ -5822,7 +5822,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -5856,7 +5856,7 @@
         </is>
       </c>
       <c r="G95">
-        <v>2730</v>
+        <v>2772</v>
       </c>
       <c r="H95">
         <v>3</v>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -5915,7 +5915,7 @@
         </is>
       </c>
       <c r="G96">
-        <v>2139</v>
+        <v>2143</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -5940,7 +5940,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -5974,7 +5974,7 @@
         </is>
       </c>
       <c r="G97">
-        <v>4646</v>
+        <v>4661</v>
       </c>
       <c r="H97">
         <v>18</v>
@@ -5999,7 +5999,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -6033,7 +6033,7 @@
         </is>
       </c>
       <c r="G98">
-        <v>3080</v>
+        <v>3117</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -6058,7 +6058,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -6092,7 +6092,7 @@
         </is>
       </c>
       <c r="G99">
-        <v>5755</v>
+        <v>5792</v>
       </c>
       <c r="H99">
         <v>4</v>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -6151,7 +6151,7 @@
         </is>
       </c>
       <c r="G100">
-        <v>4341</v>
+        <v>4377</v>
       </c>
       <c r="H100">
         <v>9</v>
@@ -6176,7 +6176,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -6210,7 +6210,7 @@
         </is>
       </c>
       <c r="G101">
-        <v>2665</v>
+        <v>2670</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -6235,7 +6235,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>
@@ -6269,7 +6269,7 @@
         </is>
       </c>
       <c r="G102">
-        <v>4979</v>
+        <v>5029</v>
       </c>
       <c r="H102">
         <v>6</v>
@@ -6294,7 +6294,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-06-25</t>
         </is>
       </c>
     </row>

--- a/weekly_online_paper_metrices/all_Phenomics_paper_metrics.xlsx
+++ b/weekly_online_paper_metrices/all_Phenomics_paper_metrics.xlsx
@@ -454,7 +454,7 @@
         </is>
       </c>
       <c r="G2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="G4">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="G5">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="G6">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -724,7 +724,7 @@
         </is>
       </c>
       <c r="G7">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="G10">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="G11">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="G12">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="G13">
-        <v>1418</v>
+        <v>1430</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="G14">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="G15">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="G18">
-        <v>2267</v>
+        <v>2296</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="G20">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         </is>
       </c>
       <c r="G21">
-        <v>1690</v>
+        <v>1709</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -1574,7 +1574,7 @@
         </is>
       </c>
       <c r="G22">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         </is>
       </c>
       <c r="G27">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         </is>
       </c>
       <c r="G29">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         </is>
       </c>
       <c r="G35">
-        <v>1924</v>
+        <v>1934</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -2498,7 +2498,7 @@
         </is>
       </c>
       <c r="G38">
-        <v>1491</v>
+        <v>1497</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         </is>
       </c>
       <c r="G41">
-        <v>2226</v>
+        <v>2234</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2847,7 +2847,7 @@
         </is>
       </c>
       <c r="G44">
-        <v>1911</v>
+        <v>1915</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -2906,7 +2906,7 @@
         </is>
       </c>
       <c r="G45">
-        <v>2451</v>
+        <v>2460</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="G49">
-        <v>1572</v>
+        <v>1575</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         </is>
       </c>
       <c r="G50">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -3260,7 +3260,7 @@
         </is>
       </c>
       <c r="G51">
-        <v>1922</v>
+        <v>1930</v>
       </c>
       <c r="H51">
         <v>11</v>
@@ -3378,7 +3378,7 @@
         </is>
       </c>
       <c r="G53">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="G55">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -3614,7 +3614,7 @@
         </is>
       </c>
       <c r="G57">
-        <v>2768</v>
+        <v>2776</v>
       </c>
       <c r="H57">
         <v>3</v>
@@ -3673,7 +3673,7 @@
         </is>
       </c>
       <c r="G58">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -3791,7 +3791,7 @@
         </is>
       </c>
       <c r="G60">
-        <v>978</v>
+        <v>982</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -3845,7 +3845,7 @@
         </is>
       </c>
       <c r="G61">
-        <v>4339</v>
+        <v>4346</v>
       </c>
       <c r="H61">
         <v>18</v>
@@ -4435,7 +4435,7 @@
         </is>
       </c>
       <c r="G71">
-        <v>2031</v>
+        <v>2034</v>
       </c>
       <c r="H71">
         <v>3</v>
@@ -4553,7 +4553,7 @@
         </is>
       </c>
       <c r="G73">
-        <v>3090</v>
+        <v>3097</v>
       </c>
       <c r="H73">
         <v>5</v>
@@ -4612,7 +4612,7 @@
         </is>
       </c>
       <c r="G74">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="H74">
         <v>5</v>
@@ -4730,7 +4730,7 @@
         </is>
       </c>
       <c r="G76">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="G78">
-        <v>3464</v>
+        <v>3468</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="G79">
-        <v>3202</v>
+        <v>3208</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -5374,7 +5374,7 @@
         </is>
       </c>
       <c r="G87">
-        <v>2866</v>
+        <v>2871</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -5610,7 +5610,7 @@
         </is>
       </c>
       <c r="G91">
-        <v>3706</v>
+        <v>3718</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -5669,7 +5669,7 @@
         </is>
       </c>
       <c r="G92">
-        <v>3985</v>
+        <v>3989</v>
       </c>
       <c r="H92">
         <v>6</v>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="G93">
-        <v>2726</v>
+        <v>2730</v>
       </c>
       <c r="H93">
         <v>5</v>
@@ -5905,7 +5905,7 @@
         </is>
       </c>
       <c r="G96">
-        <v>3518</v>
+        <v>3523</v>
       </c>
       <c r="H96">
         <v>3</v>
@@ -6377,13 +6377,13 @@
         </is>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>5158</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>

--- a/weekly_online_paper_metrices/all_Phenomics_paper_metrics.xlsx
+++ b/weekly_online_paper_metrices/all_Phenomics_paper_metrics.xlsx
@@ -847,6 +847,9 @@
       <c r="H9">
         <v>0</v>
       </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>Guoping Zhao, Guoqing Zhang</t>
@@ -893,7 +896,7 @@
         </is>
       </c>
       <c r="G10">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -952,6 +955,9 @@
       <c r="H11">
         <v>0</v>
       </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
       <c r="J11" t="inlineStr">
         <is>
           <t>Li Jin, Jiucun Wang</t>
@@ -1239,6 +1245,9 @@
       <c r="H16">
         <v>0</v>
       </c>
+      <c r="I16">
+        <v>16</v>
+      </c>
       <c r="J16" t="inlineStr">
         <is>
           <t>Jianping Jia</t>
@@ -1295,6 +1304,9 @@
       <c r="H17">
         <v>0</v>
       </c>
+      <c r="I17">
+        <v>7</v>
+      </c>
       <c r="J17" t="inlineStr">
         <is>
           <t>Xia Shen</t>
@@ -2270,7 +2282,7 @@
         </is>
       </c>
       <c r="G34">
-        <v>1793</v>
+        <v>1797</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3152,6 +3164,12 @@
       <c r="G49">
         <v>2657</v>
       </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
       <c r="J49" t="inlineStr">
         <is>
           <t>Mei Tian, Li Jin</t>
@@ -3854,6 +3872,12 @@
       <c r="G61">
         <v>2941</v>
       </c>
+      <c r="H61">
+        <v>3</v>
+      </c>
+      <c r="I61">
+        <v>2</v>
+      </c>
       <c r="J61" t="inlineStr">
         <is>
           <t>Haomin Yang, Weimin Ye</t>
@@ -5903,6 +5927,12 @@
       <c r="G96">
         <v>4110</v>
       </c>
+      <c r="H96">
+        <v>9</v>
+      </c>
+      <c r="I96">
+        <v>39</v>
+      </c>
       <c r="J96" t="inlineStr">
         <is>
           <t>Jeremy K. Nicholson</t>
@@ -5955,6 +5985,12 @@
       </c>
       <c r="G97">
         <v>2908</v>
+      </c>
+      <c r="H97">
+        <v>5</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>

--- a/weekly_online_paper_metrices/all_Phenomics_paper_metrics.xlsx
+++ b/weekly_online_paper_metrices/all_Phenomics_paper_metrics.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M111"/>
+  <dimension ref="A1:M113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -427,17 +427,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Inflammation as a Mediator of Microbiome Dysbiosis-Associated DNA Methylation Changes in Gastric Premalignant Lesions</t>
+          <t>Plasma-Free Blood as a Potential Alternative to Whole Blood for Transcriptomic Analysis</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-023-00118-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00121-1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D2">
@@ -450,11 +450,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -464,7 +464,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Weimin Ye</t>
+          <t>Ying Yu, Wanwan Hou, Yuanting Zheng</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -474,24 +474,24 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Identification of Poly(ADP-ribose) Polymerase 9 (PARP9) as a Potent Suppressor for Mycobacterium tuberculosis Infection</t>
+          <t>Analysis of the Immune Response by Standardized Whole-Blood Stimulation with Metabolism Modulation</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-023-00112-2</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00114-0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="D3">
@@ -504,11 +504,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
+          <t>2023-09-12</t>
         </is>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -518,7 +518,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Ying Xu, Jiaxue Wu</t>
+          <t>Feng Qian</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -528,19 +528,19 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Allergic Phenotypes and Sarcopenia: Evidence from Observational Studies and Mendelian Randomization Analysis</t>
+          <t>Inflammation as a Mediator of Microbiome Dysbiosis-Associated DNA Methylation Changes in Gastric Premalignant Lesions</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-023-00110-4</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00118-w</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,26 +553,26 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2023-08</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2023-08-21</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="G4">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Hong Liu, Xiang Chen, Minxue Shen</t>
+          <t>Weimin Ye</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -582,19 +582,19 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Auxiliary Diagnosis of Papillary Thyroid Carcinoma Based on Spectral Phenotype</t>
+          <t>Identification of Poly(ADP-ribose) Polymerase 9 (PARP9) as a Potent Suppressor for Mycobacterium tuberculosis Infection</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-023-00113-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00112-2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -607,26 +607,26 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2023-08</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2023-08-13</t>
+          <t>2023-09-04</t>
         </is>
       </c>
       <c r="G5">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Menghan Hu, Min Dai</t>
+          <t>Ying Xu, Jiaxue Wu</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -636,24 +636,24 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A Protocol for Digitalized Collection of Traditional Chinese Medicine (TCM) Pulse Information Using Bionic Pulse Diagnosis Equipment</t>
+          <t>Allergic Phenotypes and Sarcopenia: Evidence from Observational Studies and Mendelian Randomization Analysis</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-023-00104-2</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00110-4</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="D6">
@@ -661,26 +661,26 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2023-07-27</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="G6">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Jingjing Luo</t>
+          <t>Hong Liu, Xiang Chen, Minxue Shen</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -690,19 +690,19 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Performance of 18F-DCFPyL PET/CT in Primary Prostate Cancer Diagnosis, Gleason Grading and D'Amico Classification: A Radiomics-Based Study</t>
+          <t>Auxiliary Diagnosis of Papillary Thyroid Carcinoma Based on Spectral Phenotype</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-023-00108-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00113-1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -715,26 +715,26 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2023-07-25</t>
+          <t>2023-08-13</t>
         </is>
       </c>
       <c r="G7">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Xin Li, Xiang Li</t>
+          <t>Menghan Hu, Min Dai</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -744,24 +744,24 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>High Arterial Oxygen Saturation in the Acclimatized Lowlanders Living at High Altitude</t>
+          <t>A Protocol for Digitalized Collection of Traditional Chinese Medicine (TCM) Pulse Information Using Bionic Pulse Diagnosis Equipment</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-023-00117-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00104-2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="D8">
@@ -774,53 +774,48 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2023-07-21</t>
+          <t>2023-07-27</t>
         </is>
       </c>
       <c r="G8">
-        <v>258</v>
+        <v>66</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Bing Su</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>Jingjing Luo</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Correction: Hidden Genetic Regulation of Human Complex Traits via Brain Isoforms</t>
+          <t>Performance of 18F-DCFPyL PET/CT in Primary Prostate Cancer Diagnosis, Gleason Grading and D'Amico Classification: A Radiomics-Based Study</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-023-00116-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00108-y</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D9">
@@ -833,21 +828,21 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2023-07-03</t>
+          <t>2023-07-25</t>
         </is>
       </c>
       <c r="G9">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Xia Shen</t>
+          <t>Xin Li, Xiang Li</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -857,24 +852,24 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A Common Functional Variant at the Enhancer of the Rheumatoid Arthritis Risk Gene ORMDL3 Regulates its Expression Through Allele-Specific JunD Binding</t>
+          <t>High Arterial Oxygen Saturation in the Acclimatized Lowlanders Living at High Altitude</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-023-00107-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00117-x</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="D10">
@@ -882,16 +877,16 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>2023-07-21</t>
         </is>
       </c>
       <c r="G10">
-        <v>65</v>
+        <v>286</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -901,34 +896,39 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Yun Liu, Hejian Zou, Zaihua Zhu</t>
+          <t>Bing Su</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>4</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Integrative Identification by Hi-C Revealed Distinct Advanced Structural Variations in Lung Adenocarcinoma Tissue</t>
+          <t>Correction: Hidden Genetic Regulation of Human Complex Traits via Brain Isoforms</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-023-00103-3</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00116-y</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="D11">
@@ -936,53 +936,48 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2023-06-15</t>
+          <t>2023-07-03</t>
         </is>
       </c>
       <c r="G11">
-        <v>130</v>
+        <v>254</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Li Zhang, Weimin Li</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>Xia Shen</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mycobacteriaceae Phenome Atlas (MPA): A Standardized Atlas for the Mycobacteriaceae Phenome Based on Heterogeneous Sources</t>
+          <t>A Common Functional Variant at the Enhancer of the Rheumatoid Arthritis Risk Gene ORMDL3 Regulates its Expression Through Allele-Specific JunD Binding</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-023-00101-5</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00107-z</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1000,21 +995,21 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="G12">
-        <v>741</v>
+        <v>69</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Guoping Zhao, Guoqing Zhang</t>
+          <t>Yun Liu, Hejian Zou, Zaihua Zhu</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1024,19 +1019,19 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>De Novo Dissecting the Three-Dimensional Facial Morphology of 2379 Han Chinese Individuals</t>
+          <t>Integrative Identification by Hi-C Revealed Distinct Advanced Structural Variations in Lung Adenocarcinoma Tissue</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-023-00109-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00103-3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1054,43 +1049,48 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2023-06-08</t>
+          <t>2023-06-15</t>
         </is>
       </c>
       <c r="G13">
-        <v>594</v>
+        <v>145</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Menghan Zhang, Shuhua Xu, Li Jin</t>
+          <t>Li Zhang, Weimin Li</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>4</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Quantitative Assessment of Ultraviolet-Induced Erythema and Tanning Responses in the Han Chinese Population</t>
+          <t>Mycobacteriaceae Phenome Atlas (MPA): A Standardized Atlas for the Mycobacteriaceae Phenome Based on Heterogeneous Sources</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-023-00105-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00101-5</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1108,21 +1108,21 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2023-06-05</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="G14">
-        <v>580</v>
+        <v>776</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Li Jin, Jiucun Wang</t>
+          <t>Guoping Zhao, Guoqing Zhang</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1132,19 +1132,19 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Immune-Ageing Evaluation of Peripheral T and NK Lymphocyte Subsets in Chinese Healthy Adults</t>
+          <t>De Novo Dissecting the Three-Dimensional Facial Morphology of 2379 Han Chinese Individuals</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-023-00106-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00109-x</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1157,53 +1157,48 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2023-05-23</t>
+          <t>2023-06-08</t>
         </is>
       </c>
       <c r="G15">
-        <v>2076</v>
+        <v>638</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Peisong Chen, Oscar Junhong Luo, Yifang Gao, Zhinan Yin</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>Menghan Zhang, Shuhua Xu, Li Jin</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DBLiPro: A Database for Lipids and Proteins in Human Lipid Metabolism</t>
+          <t>Quantitative Assessment of Ultraviolet-Induced Erythema and Tanning Responses in the Han Chinese Population</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-023-00099-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00105-1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1216,58 +1211,53 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2023-06-05</t>
         </is>
       </c>
       <c r="G16">
-        <v>192</v>
+        <v>604</v>
       </c>
       <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>2</v>
       </c>
-      <c r="I16">
-        <v>4</v>
-      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Zechi Huang, Yuan-Yuan Li, Wentao Dai</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>Li Jin, Jiucun Wang</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Overview of a Sleep Monitoring Protocol for a Large Natural Population</t>
+          <t>Immune-Ageing Evaluation of Peripheral T and NK Lymphocyte Subsets in Chinese Healthy Adults</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-023-00102-4</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00106-0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D17">
@@ -1280,21 +1270,21 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2023-05-06</t>
+          <t>2023-05-23</t>
         </is>
       </c>
       <c r="G17">
-        <v>1044</v>
+        <v>2190</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Chen Chen, Jingchun Luo, Wei Chen</t>
+          <t>Peisong Chen, Oscar Junhong Luo, Yifang Gao, Zhinan Yin</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1309,19 +1299,19 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>RNA-Sequencing Reveals Gene Expression and Pathway Signatures in Umbilical Cord Blood Affected by Birth Delivery Mode</t>
+          <t>DBLiPro: A Database for Lipids and Proteins in Human Lipid Metabolism</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00086-7</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00099-w</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1334,26 +1324,26 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="G18">
-        <v>341</v>
+        <v>226</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Lin Zhang, Dan Chen</t>
+          <t>Zechi Huang, Yuan-Yuan Li, Wentao Dai</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1363,29 +1353,29 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Genetic Phenotypes of Alzheimer’s Disease: Mechanisms and Potential Therapy</t>
+          <t>Overview of a Sleep Monitoring Protocol for a Large Natural Population</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-023-00098-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00102-4</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="D19">
@@ -1393,26 +1383,26 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>2023-05-06</t>
         </is>
       </c>
       <c r="G19">
-        <v>1496</v>
+        <v>1097</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Jianping Jia</t>
+          <t>Chen Chen, Jingchun Luo, Wei Chen</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1427,24 +1417,24 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Hidden Genetic Regulation of Human Complex Traits via Brain Isoforms</t>
+          <t>RNA-Sequencing Reveals Gene Expression and Pathway Signatures in Umbilical Cord Blood Affected by Birth Delivery Mode</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-023-00100-6</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00086-7</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D20">
@@ -1452,26 +1442,26 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-04</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2023-03-20</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="G20">
-        <v>1921</v>
+        <v>357</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Xia Shen</t>
+          <t>Lin Zhang, Dan Chen</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1486,24 +1476,24 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sample Collection, DNA Extraction, and Library Construction Protocols of the Human Microbiome Studies in the International Human Phenome Project</t>
+          <t>Genetic Phenotypes of Alzheimer’s Disease: Mechanisms and Potential Therapy</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-023-00097-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00098-x</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D21">
@@ -1511,26 +1501,26 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-04</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="G21">
-        <v>702</v>
+        <v>1603</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Zhexue Quan, Yan Zheng</t>
+          <t>Jianping Jia</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1540,29 +1530,29 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>α2,3-Sialylation with Fucosylation Associated with More Severe Anti-MDA5 Positive Dermatomyositis Induced by Rapidly Progressive Interstitial Lung Disease</t>
+          <t>Hidden Genetic Regulation of Human Complex Traits via Brain Isoforms</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-023-00096-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00100-6</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="D22">
@@ -1575,48 +1565,53 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2023-03-07</t>
+          <t>2023-03-20</t>
         </is>
       </c>
       <c r="G22">
-        <v>289</v>
+        <v>1985</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Jianxin Gu, Jing Liu, Shifang Ren</t>
+          <t>Xia Shen</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>3</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Virtual Fluorescence Translation for Biological Tissue by Conditional Generative Adversarial Network</t>
+          <t>Sample Collection, DNA Extraction, and Library Construction Protocols of the Human Microbiome Studies in the International Human Phenome Project</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-023-00094-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00097-y</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="D23">
@@ -1629,21 +1624,21 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2023-03-02</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="G23">
-        <v>404</v>
+        <v>734</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Dean Ta</t>
+          <t>Zhexue Quan, Yan Zheng</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1653,29 +1648,29 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Diets, Gut Microbiota and Metabolites</t>
+          <t>α2,3-Sialylation with Fucosylation Associated with More Severe Anti-MDA5 Positive Dermatomyositis Induced by Rapidly Progressive Interstitial Lung Disease</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-023-00095-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00096-z</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D24">
@@ -1688,53 +1683,48 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2023-03-02</t>
+          <t>2023-03-07</t>
         </is>
       </c>
       <c r="G24">
-        <v>815</v>
+        <v>292</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Shangyu Hong, Yan Sun</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>Jianxin Gu, Jing Liu, Shifang Ren</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Deep Immunophenotyping of Human Whole Blood by Standardized Multi-parametric Flow Cytometry Analyses</t>
+          <t>Virtual Fluorescence Translation for Biological Tissue by Conditional Generative Adversarial Network</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00092-9</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00094-1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D25">
@@ -1742,26 +1732,26 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2023-02-23</t>
+          <t>2023-03-02</t>
         </is>
       </c>
       <c r="G25">
-        <v>3069</v>
+        <v>413</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Feng Qian</t>
+          <t>Dean Ta</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1771,24 +1761,24 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Management of Intraductal Papilloma of the Breast Diagnosed on Core Needle Biopsy: Latest Controversies</t>
+          <t>Diets, Gut Microbiota and Metabolites</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00085-8</t>
+          <t>http://link.springer.com/article/10.1007/s43657-023-00095-0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1801,26 +1791,26 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-03-02</t>
         </is>
       </c>
       <c r="G26">
-        <v>537</v>
+        <v>825</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Hongfeng Chen</t>
+          <t>Shangyu Hong, Yan Sun</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1830,29 +1820,29 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Presence of Rare Variants is Associated with Poorer Survival in Chinese Patients with Amyotrophic Lateral Sclerosis</t>
+          <t>Deep Immunophenotyping of Human Whole Blood by Standardized Multi-parametric Flow Cytometry Analyses</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00093-8</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00092-9</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="D27">
@@ -1865,21 +1855,21 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2023-02-12</t>
+          <t>2023-02-23</t>
         </is>
       </c>
       <c r="G27">
-        <v>679</v>
+        <v>3172</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Xiangjun Chen</t>
+          <t>Feng Qian</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1889,24 +1879,24 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Phenomic Studies on Diseases: Potential and Challenges</t>
+          <t>Management of Intraductal Papilloma of the Breast Diagnosed on Core Needle Biopsy: Latest Controversies</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00089-4</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00085-8</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1919,26 +1909,26 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="G28">
-        <v>2132</v>
+        <v>543</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>3</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Weihai Ying</t>
+          <t>Hongfeng Chen</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -1948,24 +1938,24 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Deep Learning-Assisted Quantitative Susceptibility Mapping as a Tool for Grading and Molecular Subtyping of Gliomas</t>
+          <t>Presence of Rare Variants is Associated with Poorer Survival in Chinese Patients with Amyotrophic Lateral Sclerosis</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00087-6</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00093-8</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1978,26 +1968,26 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2023-02-12</t>
         </is>
       </c>
       <c r="G29">
-        <v>793</v>
+        <v>684</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Xiao-Yong Zhang, Yan Ren</t>
+          <t>Jiucun Wang, Xiangjun Chen</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2007,29 +1997,29 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Protocol for Brain Magnetic Resonance Imaging and Extraction of Imaging-Derived Phenotypes from the China Phenobank Project</t>
+          <t>Phenomic Studies on Diseases: Potential and Challenges</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00083-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00089-4</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D30">
@@ -2046,44 +2036,49 @@
         </is>
       </c>
       <c r="G30">
-        <v>581</v>
+        <v>2364</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Mei Tian</t>
+          <t>Weihai Ying</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>3</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Infrared Imageries of Human Body Activated by Tea Match the Hypothesis of Meridian System</t>
+          <t>Deep Learning-Assisted Quantitative Susceptibility Mapping as a Tool for Grading and Molecular Subtyping of Gliomas</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00090-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00087-6</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D31">
@@ -2100,157 +2095,152 @@
         </is>
       </c>
       <c r="G31">
-        <v>722</v>
+        <v>815</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Hui Li</t>
+          <t>Xiao-Yong Zhang, Yan Ren</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>3</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Proteomic Portrait of Human Lymphoma Reveals Protein Molecular Fingerprint of Disease Specific Subtypes and Progression</t>
+          <t>Protocol for Brain Magnetic Resonance Imaging and Extraction of Imaging-Derived Phenotypes from the China Phenobank Project</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00075-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00083-w</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="D32">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2022-12-12</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="G32">
-        <v>1208</v>
+        <v>591</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Wei Yan, Jie Jin</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>Mei Tian</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>In Silico Pipeline to Identify Tumor-Specific Antigens for Cancer Immunotherapy Using Exome Sequencing Data</t>
+          <t>Infrared Imageries of Human Body Activated by Tea Match the Hypothesis of Meridian System</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00084-9</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00090-x</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correspondence</t>
         </is>
       </c>
       <c r="D33">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2022-12-08</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="G33">
-        <v>875</v>
+        <v>736</v>
       </c>
       <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
         <v>1</v>
       </c>
-      <c r="I33">
-        <v>3</v>
-      </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>Hui Li</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A Genome-Wide Association Study for Susceptibility to Axial Length in Highly Myopic Eyes</t>
+          <t>Proteomic Portrait of Human Lymphoma Reveals Protein Molecular Fingerprint of Disease Specific Subtypes and Progression</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00082-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00075-w</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2268,21 +2258,21 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2022-12-12</t>
         </is>
       </c>
       <c r="G34">
-        <v>998</v>
+        <v>1217</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>7</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Xiangjia Zhu, Yi Lu</t>
+          <t>Wei Yan, Jie Jin</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2292,29 +2282,29 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Measurement of Cerebral Oxygen Extraction Fraction Using Quantitative BOLD Approach: A Review</t>
+          <t>In Silico Pipeline to Identify Tumor-Specific Antigens for Cancer Immunotherapy Using Exome Sequencing Data</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00081-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00084-9</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D35">
@@ -2327,21 +2317,21 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2022-12-08</t>
         </is>
       </c>
       <c r="G35">
-        <v>957</v>
+        <v>879</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>He Wang</t>
+          <t>Jose Arturo Molina-Mora</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2351,29 +2341,29 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Correction to: Increased Soluble Epoxide Hydrolase Activity Positively Correlates with Mortality in Heart Failure Patients with Preserved Ejection Fraction: Evidence from Metabolomics</t>
+          <t>A Genome-Wide Association Study for Susceptibility to Axial Length in Highly Myopic Eyes</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00088-5</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00082-x</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D36">
@@ -2381,53 +2371,58 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-12-05</t>
         </is>
       </c>
       <c r="G36">
-        <v>954</v>
+        <v>1013</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Xu Zhang, Dao Wen Wang</t>
+          <t>Xiangjia Zhu, Yi Lu</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>3</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Autophagic Clearance of Lipid Droplets Alters Metabolic Phenotypes in a Genetic Obesity–Diabetes Mouse Model</t>
+          <t>Measurement of Cerebral Oxygen Extraction Fraction Using Quantitative BOLD Approach: A Review</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00080-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00081-y</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D37">
@@ -2435,26 +2430,26 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2022-11-19</t>
+          <t>2022-12-05</t>
         </is>
       </c>
       <c r="G37">
-        <v>1868</v>
+        <v>982</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Boxun Lu, Yuhua Fu</t>
+          <t>He Wang</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2464,29 +2459,29 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A Meta-Analysis of the Genome-Wide Association Studies on Two Genetically Correlated Phenotypes Suggests Four New Risk Loci for Headaches</t>
+          <t>Correction to: Increased Soluble Epoxide Hydrolase Activity Positively Correlates with Mortality in Heart Failure Patients with Preserved Ejection Fraction: Evidence from Metabolomics</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00078-7</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00088-5</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="D38">
@@ -2499,48 +2494,43 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="G38">
-        <v>2316</v>
+        <v>968</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Weihua Meng</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>Xu Zhang, Dao Wen Wang</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Increased Soluble Epoxide Hydrolase Activity Positively Correlates with Mortality in Heart Failure Patients with Preserved Ejection Fraction: Evidence from Metabolomics</t>
+          <t>Autophagic Clearance of Lipid Droplets Alters Metabolic Phenotypes in a Genetic Obesity–Diabetes Mouse Model</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00069-8</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00080-z</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2553,26 +2543,26 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-11-19</t>
         </is>
       </c>
       <c r="G39">
-        <v>1379</v>
+        <v>1902</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Chen Chen, Xu Zhang, Dao Wen Wang</t>
+          <t>Boxun Lu, Yuhua Fu</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2582,24 +2572,24 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Adjustment for the Age- and Gender-Related Metabolic Changes Improves the Differential Diagnosis of Parkinsonism</t>
+          <t>A Meta-Analysis of the Genome-Wide Association Studies on Two Genetically Correlated Phenotypes Suggests Four New Risk Loci for Headaches</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00079-6</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00078-7</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2612,26 +2602,26 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="G40">
-        <v>1037</v>
+        <v>2373</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Fengtao Liu, Chuantao Zuo</t>
+          <t>Weihua Meng</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2646,19 +2636,19 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Dopaminergic Dysfunction and Glucose Metabolism Characteristics in Parkin-Induced Early-Onset Parkinson’s Disease Compared to Genetically Undetermined Early-Onset Parkinson’s Disease</t>
+          <t>Increased Soluble Epoxide Hydrolase Activity Positively Correlates with Mortality in Heart Failure Patients with Preserved Ejection Fraction: Evidence from Metabolomics</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00077-8</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00069-8</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2676,21 +2666,21 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2022-10-22</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="G41">
-        <v>1149</v>
+        <v>1391</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>3</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Jian-Jun Wu, Chuan-Tao Zuo, Jian Wang</t>
+          <t>Chen Chen, Xu Zhang, Dao Wen Wang</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2705,24 +2695,24 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Chinese Medicine Phenomics (Chinmedphenomics): Personalized, Precise and Promising</t>
+          <t>Adjustment for the Age- and Gender-Related Metabolic Changes Improves the Differential Diagnosis of Parkinsonism</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00074-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00079-6</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D42">
@@ -2735,53 +2725,53 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2022-10-14</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="G42">
-        <v>2212</v>
+        <v>1050</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Dezhi Tang, Yongjun Wang</t>
+          <t>Fengtao Liu, Chuantao Zuo</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Skin Microbiome, Metabolome and Skin Phenome, from the Perspectives of Skin as an Ecosystem</t>
+          <t>Dopaminergic Dysfunction and Glucose Metabolism Characteristics in Parkin-Induced Early-Onset Parkinson’s Disease Compared to Genetically Undetermined Early-Onset Parkinson’s Disease</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00073-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00077-8</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D43">
@@ -2794,53 +2784,53 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2022-10-22</t>
         </is>
       </c>
       <c r="G43">
-        <v>4778</v>
+        <v>1166</v>
       </c>
       <c r="H43">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Jingjing Xia</t>
+          <t>Jian-Jun Wu, Chuan-Tao Zuo, Jian Wang</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Influence of Gender on Tau Precipitation in Alzheimer’s Disease According to ATN Research Framework</t>
+          <t>Chinese Medicine Phenomics (Chinmedphenomics): Personalized, Precise and Promising</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00076-9</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00074-x</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D44">
@@ -2853,48 +2843,53 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2022-10-14</t>
         </is>
       </c>
       <c r="G44">
-        <v>960</v>
+        <v>2257</v>
       </c>
       <c r="H44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Chuantao Zuo, Jiehui Jiang</t>
+          <t>Dezhi Tang, Yongjun Wang</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>6</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Causal Association of Cardiac Function by Magnetic Resonance Imaging with Frailty Index: A Mendelian Randomization Study</t>
+          <t>Skin Microbiome, Metabolome and Skin Phenome, from the Perspectives of Skin as an Ecosystem</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00072-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00073-y</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D45">
@@ -2902,26 +2897,26 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2022-09-29</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="G45">
-        <v>1568</v>
+        <v>4886</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I45">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Xuehui Sun, Xiaofeng Wang</t>
+          <t>Jiucun Wang, Jingjing Xia</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2936,19 +2931,19 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Large-Scale Proteomics Data Reveal Integrated Prognosis-Related Protein Signatures and Role of SMAD4 and RAD50 in Prognosis and Immune Infiltrations of Prostate Cancer Microenvironment</t>
+          <t>Influence of Gender on Tau Precipitation in Alzheimer’s Disease According to ATN Research Framework</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00070-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00076-9</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2961,58 +2956,53 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="G46">
-        <v>1329</v>
+        <v>966</v>
       </c>
       <c r="H46">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Yuan-Yuan Qu, Hai-Liang Zhang, Ding-Wei Ye</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>Chuantao Zuo, Jiehui Jiang</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>6</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>High-Resolution and Multidimensional Phenotypes Can Complement Genomics Data to Diagnose Diseases in the Neonatal Population</t>
+          <t>Causal Association of Cardiac Function by Magnetic Resonance Imaging with Frailty Index: A Mendelian Randomization Study</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00071-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00072-z</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D47">
@@ -3025,48 +3015,48 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2022-09-09</t>
+          <t>2022-09-29</t>
         </is>
       </c>
       <c r="G47">
-        <v>1115</v>
+        <v>1584</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Wenhao Zhou</t>
+          <t>Xuehui Sun, Xiaofeng Wang</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>International Nuclear Medicine Consensus on the Clinical Use of Amyloid Positron Emission Tomography in Alzheimer’s Disease</t>
+          <t>Large-Scale Proteomics Data Reveal Integrated Prognosis-Related Protein Signatures and Role of SMAD4 and RAD50 in Prognosis and Immune Infiltrations of Prostate Cancer Microenvironment</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00068-9</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00070-1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3079,58 +3069,58 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2022-08-26</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="G48">
-        <v>2746</v>
+        <v>1344</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I48">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Mei Tian, Chuantao Zuo, Hong Zhang</t>
+          <t>Yuan-Yuan Qu, Hai-Liang Zhang, Ding-Wei Ye</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Low Concordance Between Blood Pressures Measured in Periodic Health Examinations and in a Workplace-Based Hypertension Management Program</t>
+          <t>High-Resolution and Multidimensional Phenotypes Can Complement Genomics Data to Diagnose Diseases in the Neonatal Population</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00067-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00071-0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D49">
@@ -3138,53 +3128,53 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2022-08-18</t>
+          <t>2022-09-09</t>
         </is>
       </c>
       <c r="G49">
-        <v>1241</v>
+        <v>1119</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Shouling Wu, An Pan</t>
+          <t>Wenhao Zhou</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Cross-sectional Exploration of the Relationship Between Glutamate Abnormalities and Tic Disorder Severity Using Proton Magnetic Resonance Spectroscopy</t>
+          <t>International Nuclear Medicine Consensus on the Clinical Use of Amyloid Positron Emission Tomography in Alzheimer’s Disease</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00064-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00068-9</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3202,21 +3192,21 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2022-08-16</t>
+          <t>2022-08-26</t>
         </is>
       </c>
       <c r="G50">
-        <v>1026</v>
+        <v>2822</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Xiao-Yong Zhang, Min Wu</t>
+          <t>Mei Tian, Chuantao Zuo, Hong Zhang</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3226,24 +3216,24 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Human Genetic Variants Associated with COVID-19 Severity are Enriched in Immune and Epithelium Regulatory Networks</t>
+          <t>Low Concordance Between Blood Pressures Measured in Periodic Health Examinations and in a Workplace-Based Hypertension Management Program</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00066-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00067-w</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3261,21 +3251,21 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2022-08-18</t>
         </is>
       </c>
       <c r="G51">
-        <v>2135</v>
+        <v>1246</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Yong Wang</t>
+          <t>Shouling Wu, An Pan</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3290,24 +3280,24 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Report on the 3rd Board Meeting of the International Human Phenome Consortium</t>
+          <t>Cross-sectional Exploration of the Relationship Between Glutamate Abnormalities and Tic Disorder Severity Using Proton Magnetic Resonance Spectroscopy</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00065-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00064-z</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Meeting Report</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D52">
@@ -3315,26 +3305,26 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2022-08-16</t>
         </is>
       </c>
       <c r="G52">
-        <v>2763</v>
+        <v>1035</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Mei Tian, Li Jin</t>
+          <t>Xiao-Yong Zhang, Min Wu</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3344,24 +3334,24 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Palmprint Phenotype Feature Extraction and Classification Based on Deep Learning</t>
+          <t>Human Genetic Variants Associated with COVID-19 Severity are Enriched in Immune and Epithelium Regulatory Networks</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00063-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00066-x</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3374,26 +3364,26 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2022-08-13</t>
         </is>
       </c>
       <c r="G53">
-        <v>1337</v>
+        <v>2163</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I53">
         <v>3</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Sijia Wang, Guangtao Zhai</t>
+          <t>Yong Wang</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3403,29 +3393,29 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Mitochondria as the Essence of Yang Qi in the Human Body</t>
+          <t>Report on the 3rd Board Meeting of the International Human Phenome Consortium</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00060-3</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00065-y</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Meeting Report</t>
         </is>
       </c>
       <c r="D54">
@@ -3438,48 +3428,48 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2022-06-16</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="G54">
-        <v>2633</v>
+        <v>2828</v>
       </c>
       <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54">
         <v>4</v>
       </c>
-      <c r="I54">
-        <v>3</v>
-      </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Junjie Luo, Zhenglong Gu</t>
+          <t>Mei Tian, Li Jin</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Multi-omics Analysis of Young Portulaca oleracea L. Plants’ Responses to High NaCl Doses Reveals Insights into Pathways and Genes Responsive to Salinity Stress in this Halophyte Species</t>
+          <t>Palmprint Phenotype Feature Extraction and Classification Based on Deep Learning</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00061-2</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00063-0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3497,53 +3487,53 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2022-06-15</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="G55">
-        <v>1677</v>
+        <v>1342</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <v>3</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Manoel Teixeira Souza Júnior</t>
+          <t>Sijia Wang, Guangtao Zhai</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Plasma Lipidomic Subclasses and Risk of Hypertension in Middle-Aged and Elderly Chinese</t>
+          <t>Mitochondria as the Essence of Yang Qi in the Human Body</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00057-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00060-3</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D56">
@@ -3556,21 +3546,21 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2022-06-14</t>
+          <t>2022-06-16</t>
         </is>
       </c>
       <c r="G56">
-        <v>1594</v>
+        <v>2646</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Rong Zeng, Liang Sun, Xu Lin</t>
+          <t>Junjie Luo, Zhenglong Gu</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3585,19 +3575,19 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Identification of Germline Mutations in East-Asian Young Never-Smokers with Lung Adenocarcinoma by Whole-Exome Sequencing</t>
+          <t>Multi-omics Analysis of Young Portulaca oleracea L. Plants’ Responses to High NaCl Doses Reveals Insights into Pathways and Genes Responsive to Salinity Stress in this Halophyte Species</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00062-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00061-2</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3615,21 +3605,21 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2022-06-11</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="G57">
-        <v>1608</v>
+        <v>1687</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Libing Shen, Yihua Sun, Yang Zhang</t>
+          <t>Manoel Teixeira Souza Júnior</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3639,24 +3629,24 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Clinical Profiles at the Time of Diagnosis of SARS-CoV-2 Infection in Costa Rica During the Pre-vaccination Period Using a Machine Learning Approach</t>
+          <t>Plasma Lipidomic Subclasses and Risk of Hypertension in Middle-Aged and Elderly Chinese</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00058-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00057-y</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3674,21 +3664,21 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2022-06-07</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="G58">
-        <v>2142</v>
+        <v>1607</v>
       </c>
       <c r="H58">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
+          <t>Rong Zeng, Liang Sun, Xu Lin</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3703,19 +3693,19 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Metabolic Molecular Diagnosis of Inflammatory Bowel Disease by Synergistical Promotion of Layered Titania Nanosheets with Graphitized Carbon</t>
+          <t>Identification of Germline Mutations in East-Asian Young Never-Smokers with Lung Adenocarcinoma by Whole-Exome Sequencing</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00055-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00062-1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3733,53 +3723,53 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-06-11</t>
         </is>
       </c>
       <c r="G59">
-        <v>1314</v>
+        <v>1618</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Chunhui Deng, Nianrong Sun, Hao Wu</t>
+          <t>Libing Shen, Yihua Sun, Yang Zhang</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Emerging Regulatory Mechanisms of N6-Methyladenosine Modification in Cancer Metastasis</t>
+          <t>Clinical Profiles at the Time of Diagnosis of SARS-CoV-2 Infection in Costa Rica During the Pre-vaccination Period Using a Machine Learning Approach</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00043-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00058-x</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D60">
@@ -3787,58 +3777,58 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2022-06-07</t>
         </is>
       </c>
       <c r="G60">
-        <v>1782</v>
+        <v>2167</v>
       </c>
       <c r="H60">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Lunxiu Qin</t>
+          <t>Jose Arturo Molina-Mora</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Deep Clinical Phenotyping of Parkinson’s Disease: Towards a New Era of Research and Clinical Care</t>
+          <t>Metabolic Molecular Diagnosis of Inflammatory Bowel Disease by Synergistical Promotion of Layered Titania Nanosheets with Graphitized Carbon</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00051-4</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00055-0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D61">
@@ -3846,26 +3836,26 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2022-05-21</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="G61">
-        <v>1559</v>
+        <v>1322</v>
       </c>
       <c r="H61">
         <v>2</v>
       </c>
       <c r="I61">
-        <v>123</v>
+        <v>2</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Jian Wang</t>
+          <t>Chunhui Deng, Nianrong Sun, Hao Wu</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3875,29 +3865,29 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A Hashing-Based Framework for Enhancing Cluster Delineation of High-Dimensional Single-Cell Profiles</t>
+          <t>Emerging Regulatory Mechanisms of N6-Methyladenosine Modification in Cancer Metastasis</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00056-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00043-w</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D62">
@@ -3910,53 +3900,53 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="G62">
-        <v>1316</v>
+        <v>1792</v>
       </c>
       <c r="H62">
+        <v>4</v>
+      </c>
+      <c r="I62">
         <v>1</v>
       </c>
-      <c r="I62">
-        <v>6</v>
-      </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Xianting Ding</t>
+          <t>Lunxiu Qin</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Nascent Proteome and Glycoproteome Reveal the Inhibition Role of ALG1 in Hepatocellular Carcinoma Cell Migration</t>
+          <t>Deep Clinical Phenotyping of Parkinson’s Disease: Towards a New Era of Research and Clinical Care</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00050-5</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00051-4</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D63">
@@ -3969,21 +3959,21 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2022-05-14</t>
+          <t>2022-05-21</t>
         </is>
       </c>
       <c r="G63">
-        <v>1588</v>
+        <v>1571</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Hong Shu, Haojie Lu</t>
+          <t>Jian Wang</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -3993,24 +3983,24 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Biomarkers and Disease Trajectories Influencing Women’s Health: Results from the UK Biobank Cohort</t>
+          <t>A Hashing-Based Framework for Enhancing Cluster Delineation of High-Dimensional Single-Cell Profiles</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00054-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00056-z</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4028,21 +4018,21 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="G64">
-        <v>3005</v>
+        <v>1323</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Haomin Yang, Weimin Ye</t>
+          <t>Xianting Ding</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4052,24 +4042,24 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Causal Effect of Genetically Determined Blood Copper Concentrations on Multiple Diseases: A Mendelian Randomization and Phenome-Wide Association Study</t>
+          <t>Nascent Proteome and Glycoproteome Reveal the Inhibition Role of ALG1 in Hepatocellular Carcinoma Cell Migration</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00052-3</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00050-5</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4087,11 +4077,11 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-05-14</t>
         </is>
       </c>
       <c r="G65">
-        <v>1746</v>
+        <v>1595</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -4101,7 +4091,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Longman Li, Xiaobo Yang</t>
+          <t>Hong Shu, Haojie Lu</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4116,19 +4106,19 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Three Novel Mutations of Microphthalmos Identified in Two Chinese Families</t>
+          <t>Biomarkers and Disease Trajectories Influencing Women’s Health: Results from the UK Biobank Cohort</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00053-2</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00054-1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4146,21 +4136,21 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="G66">
-        <v>1084</v>
+        <v>3047</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I66">
         <v>2</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Yi Lu, Tianyu Zheng</t>
+          <t>Haomin Yang, Weimin Ye</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4170,29 +4160,29 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Correction to: Welcome to the Phenomics Journal</t>
+          <t>Causal Effect of Genetically Determined Blood Copper Concentrations on Multiple Diseases: A Mendelian Randomization and Phenome-Wide Association Study</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00059-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00052-3</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D67">
@@ -4205,48 +4195,53 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="G67">
-        <v>1118</v>
+        <v>1753</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Li Jin</t>
+          <t>Longman Li, Xiaobo Yang</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>4</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A Comprehensive Review of High Throughput Phenotyping and Machine Learning for Plant Stress Phenotyping</t>
+          <t>Three Novel Mutations of Microphthalmos Identified in Two Chinese Families</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00048-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00053-2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D68">
@@ -4254,26 +4249,26 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2022-04</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2022-04-04</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="G68">
-        <v>4514</v>
+        <v>1089</v>
       </c>
       <c r="H68">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Karansher S. Sandhu</t>
+          <t>Yi Lu, Tianyu Zheng</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4283,29 +4278,29 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Global Quantitative Proteomics Analysis Reveals the Downstream Signaling Networks of Msx1 and Msx2 in Myoblast Differentiation</t>
+          <t>Correction to: Welcome to the Phenomics Journal</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00049-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00059-w</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="D69">
@@ -4313,58 +4308,53 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2022-03</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="G69">
-        <v>1192</v>
+        <v>1130</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Yenan Yang</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>Li Jin</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Basic Phenotyping of Male Fertility from 2019 to 2020 at the Human Sperm Bank of Fudan University</t>
+          <t>A Comprehensive Review of High Throughput Phenotyping and Machine Learning for Plant Stress Phenotyping</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00047-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00048-z</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D70">
@@ -4372,26 +4362,26 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2022-02-28</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="G70">
-        <v>1106</v>
+        <v>4549</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Feng Jiang</t>
+          <t>Karansher S. Sandhu</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4406,19 +4396,19 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A Preliminary Study on the Evaluation of Human Sperm Head Morphology with a Domestic Digital Holographic Image System</t>
+          <t>Global Quantitative Proteomics Analysis Reveals the Downstream Signaling Networks of Msx1 and Msx2 in Myoblast Differentiation</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00046-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00049-y</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4431,26 +4421,26 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2022-02-26</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="G71">
-        <v>1141</v>
+        <v>1200</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>2</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Feng Jiang</t>
+          <t>Yenan Yang</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4460,29 +4450,29 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Positron Emission Tomography Molecular Imaging for Phenotyping and Management of Lymphoma</t>
+          <t>Basic Phenotyping of Male Fertility from 2019 to 2020 at the Human Sperm Bank of Fudan University</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00042-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00047-0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D72">
@@ -4495,21 +4485,21 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2022-02-24</t>
+          <t>2022-02-28</t>
         </is>
       </c>
       <c r="G72">
-        <v>1794</v>
+        <v>1110</v>
       </c>
       <c r="H72">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Hong Zhang, Ali Cahid Civelek, Mei Tian</t>
+          <t>Feng Jiang</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4519,24 +4509,24 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Immunosuppression Induced by Brain-Specific HDAC6 Knockdown Improves Aging Performance in Drosophila melanogaster</t>
+          <t>A Preliminary Study on the Evaluation of Human Sperm Head Morphology with a Domestic Digital Holographic Image System</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00045-2</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00046-1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4554,21 +4544,21 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2022-02-23</t>
+          <t>2022-02-26</t>
         </is>
       </c>
       <c r="G73">
-        <v>1609</v>
+        <v>1145</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Jing-Dong J. Han, Wei Yu</t>
+          <t>Feng Jiang</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4578,24 +4568,24 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Recent Advances in Understanding of Alzheimer’s Disease Progression Through Mass Spectrometry-Based Metabolomics</t>
+          <t>Positron Emission Tomography Molecular Imaging for Phenotyping and Management of Lymphoma</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00036-9</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00042-x</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4613,21 +4603,21 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2022-02-22</t>
+          <t>2022-02-24</t>
         </is>
       </c>
       <c r="G74">
-        <v>2313</v>
+        <v>1808</v>
       </c>
       <c r="H74">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I74">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Lingjun Li</t>
+          <t>Hong Zhang, Ali Cahid Civelek, Mei Tian</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4637,24 +4627,24 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Preoperative Characteristics of Ocular Biometry in Children with Unilateral Congenital Cataracts</t>
+          <t>Immunosuppression Induced by Brain-Specific HDAC6 Knockdown Improves Aging Performance in Drosophila melanogaster</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00040-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00045-2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4672,21 +4662,21 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2022-02-22</t>
+          <t>2022-02-23</t>
         </is>
       </c>
       <c r="G75">
-        <v>961</v>
+        <v>1616</v>
       </c>
       <c r="H75">
         <v>0</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Yi Lu</t>
+          <t>Jing-Dong J. Han, Wei Yu</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4696,29 +4686,29 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Unraveling the Dynamic Integration of Auxin, Brassinosteroid and Gibberellin in Early Shade-Induced Hypocotyl Elongation</t>
+          <t>Recent Advances in Understanding of Alzheimer’s Disease Progression Through Mass Spectrometry-Based Metabolomics</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00044-3</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00036-9</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D76">
@@ -4731,21 +4721,21 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2022-02-13</t>
+          <t>2022-02-22</t>
         </is>
       </c>
       <c r="G76">
-        <v>1509</v>
+        <v>2320</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I76">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Lin Li</t>
+          <t>Lingjun Li</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4755,24 +4745,24 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Diurnal Circadian Lighting Accumulation Model: A Predictor of the Human Circadian Phase Shift Phenotype</t>
+          <t>Preoperative Characteristics of Ocular Biometry in Children with Unilateral Congenital Cataracts</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00039-6</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00040-z</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4790,21 +4780,21 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2022-02-11</t>
+          <t>2022-02-22</t>
         </is>
       </c>
       <c r="G77">
-        <v>2384</v>
+        <v>965</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Yandan Lin</t>
+          <t>Yi Lu</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4814,29 +4804,29 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Optical Imaging of Epigenetic Modifications in Cancer: A Systematic Review</t>
+          <t>Unraveling the Dynamic Integration of Auxin, Brassinosteroid and Gibberellin in Early Shade-Induced Hypocotyl Elongation</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00041-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00044-3</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D78">
@@ -4849,21 +4839,21 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2022-02-07</t>
+          <t>2022-02-13</t>
         </is>
       </c>
       <c r="G78">
-        <v>2064</v>
+        <v>1519</v>
       </c>
       <c r="H78">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>5</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Yang Du, Jie Tian</t>
+          <t>Lin Li</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -4878,19 +4868,19 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Seasonality and Sex-Biased Fluctuation of Birth Weight in Tibetan Populations</t>
+          <t>Diurnal Circadian Lighting Accumulation Model: A Predictor of the Human Circadian Phase Shift Phenotype</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00038-7</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00039-6</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4903,26 +4893,26 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2022-01-31</t>
+          <t>2022-02-11</t>
         </is>
       </c>
       <c r="G79">
-        <v>1214</v>
+        <v>2421</v>
       </c>
       <c r="H79">
+        <v>2</v>
+      </c>
+      <c r="I79">
         <v>1</v>
       </c>
-      <c r="I79">
-        <v>2</v>
-      </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ouzhuluobu, Xuebin Qi, Bing Su</t>
+          <t>Yandan Lin</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4937,24 +4927,24 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Why Do We Care More About Disease than Health?</t>
+          <t>Optical Imaging of Epigenetic Modifications in Cancer: A Systematic Review</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00037-8</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00041-y</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Commentary</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D80">
@@ -4962,26 +4952,26 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2022-01-28</t>
+          <t>2022-02-07</t>
         </is>
       </c>
       <c r="G80">
-        <v>3160</v>
+        <v>2078</v>
       </c>
       <c r="H80">
+        <v>3</v>
+      </c>
+      <c r="I80">
         <v>6</v>
       </c>
-      <c r="I80">
-        <v>36</v>
-      </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Martin Picard</t>
+          <t>Yang Du, Jie Tian</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -4991,29 +4981,29 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Recent Progresses in Electrochemical DNA Biosensors for MicroRNA Detection</t>
+          <t>Seasonality and Sex-Biased Fluctuation of Birth Weight in Tibetan Populations</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00032-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00038-7</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D81">
@@ -5026,21 +5016,21 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2022-01-21</t>
+          <t>2022-01-31</t>
         </is>
       </c>
       <c r="G81">
-        <v>2098</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Xianting Ding</t>
+          <t xml:space="preserve"> Ouzhuluobu, Xuebin Qi, Bing Su</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5055,24 +5045,24 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Pan-cancer analysis identifies RNA helicase DDX1 as a prognostic marker</t>
+          <t>Why Do We Care More About Disease than Health?</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00034-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00037-8</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="D82">
@@ -5085,21 +5075,21 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2022-01-19</t>
+          <t>2022-01-28</t>
         </is>
       </c>
       <c r="G82">
-        <v>1881</v>
+        <v>3168</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I82">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Jixi Li</t>
+          <t>Martin Picard</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5109,29 +5099,29 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Correction to: N-Glycoproteomics Study of Putative N-Glycoprotein Biomarkers of Drug Resistance in MCF-7/ADR Cells657</t>
+          <t>Recent Progresses in Electrochemical DNA Biosensors for MicroRNA Detection</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00035-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00032-z</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D83">
@@ -5144,43 +5134,48 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2022-01-17</t>
+          <t>2022-01-21</t>
         </is>
       </c>
       <c r="G83">
-        <v>1169</v>
+        <v>2113</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Yun Chen, Zhixin Tian</t>
+          <t>Xianting Ding</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Phenome-Wide Association Analysis Reveals Novel Links Between Genetically Determined Levels of Liver Enzymes and Disease Phenotypes</t>
+          <t>Pan-cancer analysis identifies RNA helicase DDX1 as a prognostic marker</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00033-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00034-x</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -5198,21 +5193,21 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2022-01-11</t>
+          <t>2022-01-19</t>
         </is>
       </c>
       <c r="G84">
-        <v>2432</v>
+        <v>1891</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Xingdong Chen</t>
+          <t>Jixi Li</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5222,29 +5217,29 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Mapping Cell Phenomics with Multiparametric Flow Cytometry Assays</t>
+          <t>Correction to: N-Glycoproteomics Study of Putative N-Glycoprotein Biomarkers of Drug Resistance in MCF-7/ADR Cells657</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00031-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00035-w</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="D85">
@@ -5257,80 +5252,75 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2022-01-09</t>
+          <t>2022-01-17</t>
         </is>
       </c>
       <c r="G85">
-        <v>3695</v>
+        <v>1182</v>
       </c>
       <c r="H85">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Shan Jiang, Jing Wang, Ying Wan</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>Yun Chen, Zhixin Tian</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>4</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Beyond Mendelian Inheritance: Genetic Buffering and Phenotype Variability</t>
+          <t>Phenome-Wide Association Analysis Reveals Novel Links Between Genetically Determined Levels of Liver Enzymes and Disease Phenotypes</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00030-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00033-y</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D86">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-12-27</t>
+          <t>2022-01-11</t>
         </is>
       </c>
       <c r="G86">
-        <v>3460</v>
+        <v>2448</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Andrea Rossi, Zacharias Kontarakis</t>
+          <t>Xingdong Chen</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5340,56 +5330,56 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>CYP2C9*3 Increases the Ibuprofen Response of Hemodynamically Significant Patent Ductus Arteriosus in the Infants with Gestational Age of More Than 30 Weeks</t>
+          <t>Mapping Cell Phenomics with Multiparametric Flow Cytometry Assays</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00028-9</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00031-0</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D87">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-11-11</t>
+          <t>2022-01-09</t>
         </is>
       </c>
       <c r="G87">
-        <v>1357</v>
+        <v>3721</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Wenhao Zhou</t>
+          <t>Shan Jiang, Jing Wang, Ying Wan</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5399,29 +5389,29 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Mental Calculation Drives Reliable and Weak Distant Connectivity While Music Listening Induces Dense Local Connectivity</t>
+          <t>Beyond Mendelian Inheritance: Genetic Buffering and Phenotype Variability</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00027-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00030-1</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D88">
@@ -5429,58 +5419,58 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-11-10</t>
+          <t>2021-12-27</t>
         </is>
       </c>
       <c r="G88">
-        <v>2017</v>
+        <v>3509</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Yuguo Yu</t>
+          <t>Andrea Rossi, Zacharias Kontarakis</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Systematic Genome-Wide Profiles Reveal Alternative Splicing Landscape and Implications of Splicing Regulator DExD-Box Helicase 21 in Aggressive Progression of Adrenocortical Carcinoma</t>
+          <t>CYP2C9*3 Increases the Ibuprofen Response of Hemodynamically Significant Patent Ductus Arteriosus in the Infants with Gestational Age of More Than 30 Weeks</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00026-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00028-9</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correspondence</t>
         </is>
       </c>
       <c r="D89">
@@ -5488,53 +5478,53 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-10-29</t>
+          <t>2021-11-11</t>
         </is>
       </c>
       <c r="G89">
-        <v>2029</v>
+        <v>1362</v>
       </c>
       <c r="H89">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Yuanyuan Qu, Hailiang Zhang, Dingwei Ye</t>
+          <t>Wenhao Zhou</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>N-Glycoproteomics Study of Putative N-Glycoprotein Biomarkers of Drug Resistance in MCF-7/ADR Cells</t>
+          <t>Mental Calculation Drives Reliable and Weak Distant Connectivity While Music Listening Induces Dense Local Connectivity</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00029-8</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00027-w</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -5547,26 +5537,26 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-10-28</t>
+          <t>2021-11-10</t>
         </is>
       </c>
       <c r="G90">
-        <v>2000</v>
+        <v>2021</v>
       </c>
       <c r="H90">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I90">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Yun Chen, Zhixin Tian</t>
+          <t>Yuguo Yu</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -5581,19 +5571,19 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Strided Self-Supervised Low-Dose CT Denoising for Lung Nodule Classification</t>
+          <t>Systematic Genome-Wide Profiles Reveal Alternative Splicing Landscape and Implications of Splicing Regulator DExD-Box Helicase 21 in Aggressive Progression of Adrenocortical Carcinoma</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00025-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00026-x</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -5611,21 +5601,21 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-10-26</t>
+          <t>2021-10-29</t>
         </is>
       </c>
       <c r="G91">
-        <v>1907</v>
+        <v>2042</v>
       </c>
       <c r="H91">
         <v>8</v>
       </c>
       <c r="I91">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Hongming Shan</t>
+          <t>Yuanyuan Qu, Hailiang Zhang, Dingwei Ye</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -5640,19 +5630,19 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Pseudotime Ordering Single-Cell Transcriptomic of β Cells Pancreatic Islets in Health and Type 2 Diabetes</t>
+          <t>N-Glycoproteomics Study of Putative N-Glycoprotein Biomarkers of Drug Resistance in MCF-7/ADR Cells</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00024-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00029-8</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -5670,21 +5660,21 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-10-19</t>
+          <t>2021-10-28</t>
         </is>
       </c>
       <c r="G92">
-        <v>1804</v>
+        <v>2008</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Xingxing Kong, Tiemin Liu</t>
+          <t>Yun Chen, Zhixin Tian</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -5694,24 +5684,24 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Causal Relationship Between Complement C3, C4, and Nonalcoholic Fatty Liver Disease: Bidirectional Mendelian Randomization Analysis</t>
+          <t>Strided Self-Supervised Low-Dose CT Denoising for Lung Nodule Classification</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00023-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00025-y</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -5724,26 +5714,26 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-09-23</t>
+          <t>2021-10-26</t>
         </is>
       </c>
       <c r="G93">
-        <v>1594</v>
+        <v>1914</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I93">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Xiaobo Yang</t>
+          <t>Hongming Shan</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -5753,29 +5743,29 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Origin and Spread of the ALDH2 Glu504Lys Allele</t>
+          <t>Pseudotime Ordering Single-Cell Transcriptomic of β Cells Pancreatic Islets in Health and Type 2 Diabetes</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00017-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00024-z</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D94">
@@ -5783,26 +5773,26 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-09-20</t>
+          <t>2021-10-19</t>
         </is>
       </c>
       <c r="G94">
-        <v>3118</v>
+        <v>1814</v>
       </c>
       <c r="H94">
+        <v>3</v>
+      </c>
+      <c r="I94">
         <v>2</v>
       </c>
-      <c r="I94">
-        <v>3</v>
-      </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Aijun Sun</t>
+          <t>Xingxing Kong, Tiemin Liu</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -5817,24 +5807,24 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Phenotypes of Cardiovascular Diseases: Current Status and Future Perspectives</t>
+          <t>Causal Relationship Between Complement C3, C4, and Nonalcoholic Fatty Liver Disease: Bidirectional Mendelian Randomization Analysis</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00022-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00023-0</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D95">
@@ -5842,26 +5832,26 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-08-26</t>
+          <t>2021-09-23</t>
         </is>
       </c>
       <c r="G95">
-        <v>1826</v>
+        <v>1606</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Jiangping Song</t>
+          <t>Xiaobo Yang</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -5876,24 +5866,24 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Prediction of Metabolic Disorders Using NMR-Based Metabolomics: The Shanghai Changfeng Study</t>
+          <t>Origin and Spread of the ALDH2 Glu504Lys Allele</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00021-2</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00017-y</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D96">
@@ -5901,26 +5891,26 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-08-24</t>
+          <t>2021-09-20</t>
         </is>
       </c>
       <c r="G96">
-        <v>1714</v>
+        <v>3143</v>
       </c>
       <c r="H96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Ming-feng Xia, Hui-ru Tang, Xin Gao</t>
+          <t>Aijun Sun</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -5930,24 +5920,24 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Computational Methods for Prediction of Human Protein-Phenotype Associations: A Review</t>
+          <t>Phenotypes of Cardiovascular Diseases: Current Status and Future Perspectives</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00019-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00022-1</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5965,21 +5955,21 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-08-06</t>
+          <t>2021-08-26</t>
         </is>
       </c>
       <c r="G97">
-        <v>2204</v>
+        <v>1835</v>
       </c>
       <c r="H97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Shanfeng Zhu</t>
+          <t>Jiangping Song</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -5989,29 +5979,29 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Recommendation for Cardiac Magnetic Resonance Imaging-Based Phenotypic Study: Imaging Part</t>
+          <t>Prediction of Metabolic Disorders Using NMR-Based Metabolomics: The Shanghai Changfeng Study</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00018-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00021-2</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D98">
@@ -6019,26 +6009,26 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-07-28</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="G98">
-        <v>4091</v>
+        <v>1722</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Chengyan Wang, He Wang</t>
+          <t>Ming-feng Xia, Hui-ru Tang, Xin Gao</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -6053,19 +6043,19 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Molecular Phenomic Approaches to Deconvolving the Systemic Effects of SARS-CoV-2 Infection and Post-acute COVID-19 Syndrome</t>
+          <t>Computational Methods for Prediction of Human Protein-Phenotype Associations: A Review</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00020-3</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00019-w</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -6078,26 +6068,26 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>2021-08-06</t>
         </is>
       </c>
       <c r="G99">
-        <v>4167</v>
+        <v>2208</v>
       </c>
       <c r="H99">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I99">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Jeremy K. Nicholson</t>
+          <t>Shanfeng Zhu</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -6112,24 +6102,24 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Genetic Architecture of Childhood Kidney and Urological Diseases in China</t>
+          <t>Recommendation for Cardiac Magnetic Resonance Imaging-Based Phenotypic Study: Imaging Part</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00014-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00018-x</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D100">
@@ -6142,21 +6132,21 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>2021-07-28</t>
         </is>
       </c>
       <c r="G100">
-        <v>2991</v>
+        <v>4143</v>
       </c>
       <c r="H100">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I100">
         <v>1</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Jia Rao, Hong Xu</t>
+          <t>Chengyan Wang, He Wang</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -6166,24 +6156,24 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Defense of COVID-19 by Human Organoids</t>
+          <t>Molecular Phenomic Approaches to Deconvolving the Systemic Effects of SARS-CoV-2 Infection and Post-acute COVID-19 Syndrome</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00015-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00020-3</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -6201,21 +6191,21 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-07-14</t>
+          <t>2021-07-22</t>
         </is>
       </c>
       <c r="G101">
-        <v>4388</v>
+        <v>4200</v>
       </c>
       <c r="H101">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I101">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Xinhua Lin, Bing Zhao</t>
+          <t>Jeremy K. Nicholson</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -6225,24 +6215,24 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Random Penetrance of Mutations Among Individuals: A New Type of Genetic Drift in Molecular Evolution</t>
+          <t>Genetic Architecture of Childhood Kidney and Urological Diseases in China</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00013-2</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00014-1</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -6255,26 +6245,26 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-06-17</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="G102">
-        <v>1507</v>
+        <v>3044</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Xun Gu</t>
+          <t>Jia Rao, Hong Xu</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -6289,19 +6279,19 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Molecular Determinants of Antibiotic Resistance in the Costa Rican Pseudomonas aeruginosa AG1 by a Multi-omics Approach: A Review of 10 Years of Study</t>
+          <t>Defense of COVID-19 by Human Organoids</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00016-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00015-0</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -6314,26 +6304,26 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-06-17</t>
+          <t>2021-07-14</t>
         </is>
       </c>
       <c r="G103">
-        <v>3692</v>
+        <v>4443</v>
       </c>
       <c r="H103">
         <v>4</v>
       </c>
       <c r="I103">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
+          <t>Xinhua Lin, Bing Zhao</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -6348,19 +6338,19 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Distribution Atlas of COVID-19 Pneumonia on Computed Tomography: A Deep Learning Based Description</t>
+          <t>Random Penetrance of Mutations Among Individuals: A New Type of Genetic Drift in Molecular Evolution</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00011-4</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00013-2</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -6373,26 +6363,26 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-06-17</t>
         </is>
       </c>
       <c r="G104">
-        <v>3103</v>
+        <v>1512</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Shenghong Ju</t>
+          <t>Xun Gu</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -6402,29 +6392,29 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Comparison of Metabolic Profiling of Arabidopsis Inflorescences Between Landsberg erecta and Columbia, and Meiosis-Defective Mutants by 1H-NMR Spectroscopy</t>
+          <t>Molecular Determinants of Antibiotic Resistance in the Costa Rican Pseudomonas aeruginosa AG1 by a Multi-omics Approach: A Review of 10 Years of Study</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00012-3</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00016-z</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D105">
@@ -6432,26 +6422,26 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-06-17</t>
         </is>
       </c>
       <c r="G105">
-        <v>2170</v>
+        <v>3714</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Limin Zhang, Yingxiang Wang</t>
+          <t>Jose Arturo Molina-Mora</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -6461,29 +6451,29 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>High-Throughput Phenotyping: A Platform to Accelerate Crop Improvement</t>
+          <t>Distribution Atlas of COVID-19 Pneumonia on Computed Tomography: A Deep Learning Based Description</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-020-00007-6</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00011-4</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D106">
@@ -6500,17 +6490,17 @@
         </is>
       </c>
       <c r="G106">
-        <v>4814</v>
+        <v>3129</v>
       </c>
       <c r="H106">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="I106">
         <v>2</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Neelam R. Yadav</t>
+          <t>Shenghong Ju</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -6525,19 +6515,19 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Effect of Light on Cognitive Function During a Stroop Task Using Functional Near-Infrared Spectroscopy</t>
+          <t>Comparison of Metabolic Profiling of Arabidopsis Inflorescences Between Landsberg erecta and Columbia, and Meiosis-Defective Mutants by 1H-NMR Spectroscopy</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00010-5</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00012-3</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -6550,26 +6540,26 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-04-19</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="G107">
-        <v>3499</v>
+        <v>2176</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Wei Chen</t>
+          <t>Limin Zhang, Yingxiang Wang</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -6584,24 +6574,24 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Using Composite Phenotypes to Reveal Hidden Physiological Heterogeneity in High-Altitude Acclimatization in a Chinese Han Longitudinal Cohort</t>
+          <t>High-Throughput Phenotyping: A Platform to Accelerate Crop Improvement</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-020-00005-8</t>
+          <t>http://link.springer.com/article/10.1007/s43657-020-00007-6</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D108">
@@ -6609,26 +6599,26 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021-02-22</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="G108">
-        <v>6228</v>
+        <v>4827</v>
       </c>
       <c r="H108">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I108">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Li Jin</t>
+          <t>Neelam R. Yadav</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -6638,24 +6628,24 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>The Ultrafast and Accurate Mapping Algorithm FANSe3: Mapping a Human Whole-Genome Sequencing Dataset Within 30 Minutes</t>
+          <t>Effect of Light on Cognitive Function During a Stroop Task Using Functional Near-Infrared Spectroscopy</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-020-00008-5</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00010-5</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -6668,26 +6658,26 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021-02-22</t>
+          <t>2021-04-19</t>
         </is>
       </c>
       <c r="G109">
-        <v>4780</v>
+        <v>3527</v>
       </c>
       <c r="H109">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Gong Zhang, Jingjie Jin</t>
+          <t>Wei Chen</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -6697,29 +6687,29 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>In Situ Saturating Mutagenesis Screening Identifies a Functional Genomic Locus that Regulates Ucp1 Expression</t>
+          <t>Using Composite Phenotypes to Reveal Hidden Physiological Heterogeneity in High-Altitude Acclimatization in a Chinese Han Longitudinal Cohort</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-020-00006-7</t>
+          <t>http://link.springer.com/article/10.1007/s43657-020-00005-8</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D110">
@@ -6736,17 +6726,17 @@
         </is>
       </c>
       <c r="G110">
-        <v>2714</v>
+        <v>6264</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Qiurong Ding</t>
+          <t>Jiucun Wang, Li Jin</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -6761,24 +6751,24 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Welcome to the Phenomics Journal</t>
+          <t>The Ultrafast and Accurate Mapping Algorithm FANSe3: Mapping a Human Whole-Genome Sequencing Dataset Within 30 Minutes</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-020-00009-4</t>
+          <t>http://link.springer.com/article/10.1007/s43657-020-00008-5</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Editorial</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D111">
@@ -6786,41 +6776,159 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2021-02-22</t>
+        </is>
+      </c>
+      <c r="G111">
+        <v>4817</v>
+      </c>
+      <c r="H111">
+        <v>10</v>
+      </c>
+      <c r="I111">
+        <v>10</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Gong Zhang, Jingjie Jin</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>In Situ Saturating Mutagenesis Screening Identifies a Functional Genomic Locus that Regulates Ucp1 Expression</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>http://link.springer.com/article/10.1007/s43657-020-00006-7</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Correspondence</t>
+        </is>
+      </c>
+      <c r="D112">
+        <v>2021</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2021-02-22</t>
+        </is>
+      </c>
+      <c r="G112">
+        <v>2722</v>
+      </c>
+      <c r="H112">
+        <v>2</v>
+      </c>
+      <c r="I112">
+        <v>2</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Qiurong Ding</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Welcome to the Phenomics Journal</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>http://link.springer.com/article/10.1007/s43657-020-00009-4</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Editorial</t>
+        </is>
+      </c>
+      <c r="D113">
+        <v>2021</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
           <t>2021-01</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>2021-01-11</t>
         </is>
       </c>
-      <c r="G111">
-        <v>5377</v>
-      </c>
-      <c r="H111">
+      <c r="G113">
+        <v>5415</v>
+      </c>
+      <c r="H113">
         <v>7</v>
       </c>
-      <c r="I111">
+      <c r="I113">
         <v>7</v>
       </c>
-      <c r="J111" t="inlineStr">
+      <c r="J113" t="inlineStr">
         <is>
           <t>Li Jin</t>
         </is>
       </c>
-      <c r="K111" t="inlineStr">
+      <c r="K113" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L111" t="inlineStr">
+      <c r="L113" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>2023-09-10</t>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
         </is>
       </c>
     </row>

--- a/weekly_online_paper_metrices/all_Phenomics_paper_metrics.xlsx
+++ b/weekly_online_paper_metrices/all_Phenomics_paper_metrics.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M113"/>
+  <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5052,17 +5052,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Why Do We Care More About Disease than Health?</t>
+          <t>Seasonality and Sex-Biased Fluctuation of Birth Weight in Tibetan Populations</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00037-8</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00038-7</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Commentary</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D82">
@@ -5075,21 +5075,21 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2022-01-28</t>
+          <t>2022-01-31</t>
         </is>
       </c>
       <c r="G82">
-        <v>3168</v>
+        <v>1219</v>
       </c>
       <c r="H82">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Martin Picard</t>
+          <t xml:space="preserve"> Ouzhuluobu, Xuebin Qi, Bing Su</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5099,7 +5099,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -5111,17 +5111,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Recent Progresses in Electrochemical DNA Biosensors for MicroRNA Detection</t>
+          <t>Why Do We Care More About Disease than Health?</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00032-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00037-8</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="D83">
@@ -5134,21 +5134,21 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2022-01-21</t>
+          <t>2022-01-28</t>
         </is>
       </c>
       <c r="G83">
-        <v>2113</v>
+        <v>3168</v>
       </c>
       <c r="H83">
         <v>6</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Xianting Ding</t>
+          <t>Martin Picard</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -5158,7 +5158,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -5170,17 +5170,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Pan-cancer analysis identifies RNA helicase DDX1 as a prognostic marker</t>
+          <t>Recent Progresses in Electrochemical DNA Biosensors for MicroRNA Detection</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00034-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00032-z</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D84">
@@ -5193,21 +5193,21 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2022-01-19</t>
+          <t>2022-01-21</t>
         </is>
       </c>
       <c r="G84">
-        <v>1891</v>
+        <v>2113</v>
       </c>
       <c r="H84">
+        <v>6</v>
+      </c>
+      <c r="I84">
         <v>2</v>
       </c>
-      <c r="I84">
-        <v>4</v>
-      </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Jixi Li</t>
+          <t>Xianting Ding</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5229,17 +5229,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Correction to: N-Glycoproteomics Study of Putative N-Glycoprotein Biomarkers of Drug Resistance in MCF-7/ADR Cells657</t>
+          <t>Pan-cancer analysis identifies RNA helicase DDX1 as a prognostic marker</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00035-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00034-x</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D85">
@@ -5252,26 +5252,31 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2022-01-17</t>
+          <t>2022-01-19</t>
         </is>
       </c>
       <c r="G85">
-        <v>1182</v>
+        <v>1891</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Yun Chen, Zhixin Tian</t>
+          <t>Jixi Li</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -5283,17 +5288,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Phenome-Wide Association Analysis Reveals Novel Links Between Genetically Determined Levels of Liver Enzymes and Disease Phenotypes</t>
+          <t>Correction to: N-Glycoproteomics Study of Putative N-Glycoprotein Biomarkers of Drug Resistance in MCF-7/ADR Cells657</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00033-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00035-w</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="D86">
@@ -5306,31 +5311,26 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2022-01-11</t>
+          <t>2022-01-17</t>
         </is>
       </c>
       <c r="G86">
-        <v>2448</v>
+        <v>1182</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Xingdong Chen</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>Yun Chen, Zhixin Tian</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>5</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -5342,17 +5342,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Mapping Cell Phenomics with Multiparametric Flow Cytometry Assays</t>
+          <t>Phenome-Wide Association Analysis Reveals Novel Links Between Genetically Determined Levels of Liver Enzymes and Disease Phenotypes</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00031-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00033-y</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D87">
@@ -5365,21 +5365,21 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2022-01-09</t>
+          <t>2022-01-11</t>
         </is>
       </c>
       <c r="G87">
-        <v>3721</v>
+        <v>2448</v>
       </c>
       <c r="H87">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Shan Jiang, Jing Wang, Ying Wan</t>
+          <t>Xingdong Chen</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5389,7 +5389,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -5401,12 +5401,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Beyond Mendelian Inheritance: Genetic Buffering and Phenotype Variability</t>
+          <t>Mapping Cell Phenomics with Multiparametric Flow Cytometry Assays</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00030-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00031-0</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -5415,30 +5415,30 @@
         </is>
       </c>
       <c r="D88">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-12-27</t>
+          <t>2022-01-09</t>
         </is>
       </c>
       <c r="G88">
-        <v>3509</v>
+        <v>3721</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Andrea Rossi, Zacharias Kontarakis</t>
+          <t>Shan Jiang, Jing Wang, Ying Wan</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5448,7 +5448,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -5460,17 +5460,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>CYP2C9*3 Increases the Ibuprofen Response of Hemodynamically Significant Patent Ductus Arteriosus in the Infants with Gestational Age of More Than 30 Weeks</t>
+          <t>Beyond Mendelian Inheritance: Genetic Buffering and Phenotype Variability</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00028-9</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00030-1</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D89">
@@ -5478,26 +5478,26 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-11-11</t>
+          <t>2021-12-27</t>
         </is>
       </c>
       <c r="G89">
-        <v>1362</v>
+        <v>3509</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Wenhao Zhou</t>
+          <t>Andrea Rossi, Zacharias Kontarakis</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -5507,7 +5507,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -5519,17 +5519,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Mental Calculation Drives Reliable and Weak Distant Connectivity While Music Listening Induces Dense Local Connectivity</t>
+          <t>CYP2C9*3 Increases the Ibuprofen Response of Hemodynamically Significant Patent Ductus Arteriosus in the Infants with Gestational Age of More Than 30 Weeks</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00027-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00028-9</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correspondence</t>
         </is>
       </c>
       <c r="D90">
@@ -5542,31 +5542,31 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-11-10</t>
+          <t>2021-11-11</t>
         </is>
       </c>
       <c r="G90">
-        <v>2021</v>
+        <v>1362</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Yuguo Yu</t>
+          <t>Wenhao Zhou</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>6</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -5578,12 +5578,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Systematic Genome-Wide Profiles Reveal Alternative Splicing Landscape and Implications of Splicing Regulator DExD-Box Helicase 21 in Aggressive Progression of Adrenocortical Carcinoma</t>
+          <t>Mental Calculation Drives Reliable and Weak Distant Connectivity While Music Listening Induces Dense Local Connectivity</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00026-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00027-w</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -5596,26 +5596,26 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-10-29</t>
+          <t>2021-11-10</t>
         </is>
       </c>
       <c r="G91">
-        <v>2042</v>
+        <v>2021</v>
       </c>
       <c r="H91">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Yuanyuan Qu, Hailiang Zhang, Dingwei Ye</t>
+          <t>Yuguo Yu</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -5637,12 +5637,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>N-Glycoproteomics Study of Putative N-Glycoprotein Biomarkers of Drug Resistance in MCF-7/ADR Cells</t>
+          <t>Systematic Genome-Wide Profiles Reveal Alternative Splicing Landscape and Implications of Splicing Regulator DExD-Box Helicase 21 in Aggressive Progression of Adrenocortical Carcinoma</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00029-8</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00026-x</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -5660,21 +5660,21 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-10-28</t>
+          <t>2021-10-29</t>
         </is>
       </c>
       <c r="G92">
-        <v>2008</v>
+        <v>2042</v>
       </c>
       <c r="H92">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I92">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Yun Chen, Zhixin Tian</t>
+          <t>Yuanyuan Qu, Hailiang Zhang, Dingwei Ye</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -5696,12 +5696,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Strided Self-Supervised Low-Dose CT Denoising for Lung Nodule Classification</t>
+          <t>N-Glycoproteomics Study of Putative N-Glycoprotein Biomarkers of Drug Resistance in MCF-7/ADR Cells</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00025-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00029-8</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -5719,21 +5719,21 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-10-26</t>
+          <t>2021-10-28</t>
         </is>
       </c>
       <c r="G93">
-        <v>1914</v>
+        <v>2008</v>
       </c>
       <c r="H93">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I93">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Hongming Shan</t>
+          <t>Yun Chen, Zhixin Tian</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -5755,12 +5755,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Pseudotime Ordering Single-Cell Transcriptomic of β Cells Pancreatic Islets in Health and Type 2 Diabetes</t>
+          <t>Strided Self-Supervised Low-Dose CT Denoising for Lung Nodule Classification</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00024-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00025-y</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -5778,21 +5778,21 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-10-19</t>
+          <t>2021-10-26</t>
         </is>
       </c>
       <c r="G94">
-        <v>1814</v>
+        <v>1914</v>
       </c>
       <c r="H94">
+        <v>8</v>
+      </c>
+      <c r="I94">
         <v>3</v>
       </c>
-      <c r="I94">
-        <v>2</v>
-      </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Xingxing Kong, Tiemin Liu</t>
+          <t>Hongming Shan</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -5802,7 +5802,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -5814,12 +5814,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Causal Relationship Between Complement C3, C4, and Nonalcoholic Fatty Liver Disease: Bidirectional Mendelian Randomization Analysis</t>
+          <t>Pseudotime Ordering Single-Cell Transcriptomic of β Cells Pancreatic Islets in Health and Type 2 Diabetes</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00023-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00024-z</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -5832,26 +5832,26 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-09-23</t>
+          <t>2021-10-19</t>
         </is>
       </c>
       <c r="G95">
-        <v>1606</v>
+        <v>1814</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I95">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Xiaobo Yang</t>
+          <t>Xingxing Kong, Tiemin Liu</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -5873,17 +5873,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Origin and Spread of the ALDH2 Glu504Lys Allele</t>
+          <t>Causal Relationship Between Complement C3, C4, and Nonalcoholic Fatty Liver Disease: Bidirectional Mendelian Randomization Analysis</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00017-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00023-0</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D96">
@@ -5896,21 +5896,21 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-09-20</t>
+          <t>2021-09-23</t>
         </is>
       </c>
       <c r="G96">
-        <v>3143</v>
+        <v>1606</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Aijun Sun</t>
+          <t>Xiaobo Yang</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -5932,12 +5932,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Phenotypes of Cardiovascular Diseases: Current Status and Future Perspectives</t>
+          <t>Origin and Spread of the ALDH2 Glu504Lys Allele</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00022-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00017-y</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5950,26 +5950,26 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-08-26</t>
+          <t>2021-09-20</t>
         </is>
       </c>
       <c r="G97">
-        <v>1835</v>
+        <v>3143</v>
       </c>
       <c r="H97">
         <v>2</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Jiangping Song</t>
+          <t>Aijun Sun</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -5991,17 +5991,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Prediction of Metabolic Disorders Using NMR-Based Metabolomics: The Shanghai Changfeng Study</t>
+          <t>Phenotypes of Cardiovascular Diseases: Current Status and Future Perspectives</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00021-2</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00022-1</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D98">
@@ -6014,21 +6014,21 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-08-24</t>
+          <t>2021-08-26</t>
         </is>
       </c>
       <c r="G98">
-        <v>1722</v>
+        <v>1835</v>
       </c>
       <c r="H98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Ming-feng Xia, Hui-ru Tang, Xin Gao</t>
+          <t>Jiangping Song</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -6038,7 +6038,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -6050,17 +6050,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Computational Methods for Prediction of Human Protein-Phenotype Associations: A Review</t>
+          <t>Prediction of Metabolic Disorders Using NMR-Based Metabolomics: The Shanghai Changfeng Study</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00019-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00021-2</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D99">
@@ -6073,21 +6073,21 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-08-06</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="G99">
-        <v>2208</v>
+        <v>1722</v>
       </c>
       <c r="H99">
         <v>4</v>
       </c>
       <c r="I99">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Shanfeng Zhu</t>
+          <t>Ming-feng Xia, Hui-ru Tang, Xin Gao</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -6109,12 +6109,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Recommendation for Cardiac Magnetic Resonance Imaging-Based Phenotypic Study: Imaging Part</t>
+          <t>Computational Methods for Prediction of Human Protein-Phenotype Associations: A Review</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00018-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00019-w</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -6127,26 +6127,26 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-07-28</t>
+          <t>2021-08-06</t>
         </is>
       </c>
       <c r="G100">
-        <v>4143</v>
+        <v>2208</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Chengyan Wang, He Wang</t>
+          <t>Shanfeng Zhu</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -6168,12 +6168,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Molecular Phenomic Approaches to Deconvolving the Systemic Effects of SARS-CoV-2 Infection and Post-acute COVID-19 Syndrome</t>
+          <t>Recommendation for Cardiac Magnetic Resonance Imaging-Based Phenotypic Study: Imaging Part</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00020-3</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00018-x</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -6191,21 +6191,21 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>2021-07-28</t>
         </is>
       </c>
       <c r="G101">
-        <v>4200</v>
+        <v>4143</v>
       </c>
       <c r="H101">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I101">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Jeremy K. Nicholson</t>
+          <t>Chengyan Wang, He Wang</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -6227,17 +6227,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Genetic Architecture of Childhood Kidney and Urological Diseases in China</t>
+          <t>Molecular Phenomic Approaches to Deconvolving the Systemic Effects of SARS-CoV-2 Infection and Post-acute COVID-19 Syndrome</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00014-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00020-3</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D102">
@@ -6250,21 +6250,21 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>2021-07-22</t>
         </is>
       </c>
       <c r="G102">
-        <v>3044</v>
+        <v>4200</v>
       </c>
       <c r="H102">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Jia Rao, Hong Xu</t>
+          <t>Jeremy K. Nicholson</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
@@ -6286,17 +6286,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Defense of COVID-19 by Human Organoids</t>
+          <t>Genetic Architecture of Childhood Kidney and Urological Diseases in China</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00015-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00014-1</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D103">
@@ -6309,21 +6309,21 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-07-14</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="G103">
-        <v>4443</v>
+        <v>3044</v>
       </c>
       <c r="H103">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I103">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Xinhua Lin, Bing Zhao</t>
+          <t>Jia Rao, Hong Xu</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -6345,17 +6345,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Random Penetrance of Mutations Among Individuals: A New Type of Genetic Drift in Molecular Evolution</t>
+          <t>Defense of COVID-19 by Human Organoids</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00013-2</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00015-0</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D104">
@@ -6363,26 +6363,26 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-06-17</t>
+          <t>2021-07-14</t>
         </is>
       </c>
       <c r="G104">
-        <v>1512</v>
+        <v>4443</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Xun Gu</t>
+          <t>Xinhua Lin, Bing Zhao</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -6404,17 +6404,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Molecular Determinants of Antibiotic Resistance in the Costa Rican Pseudomonas aeruginosa AG1 by a Multi-omics Approach: A Review of 10 Years of Study</t>
+          <t>Random Penetrance of Mutations Among Individuals: A New Type of Genetic Drift in Molecular Evolution</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00016-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00013-2</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D105">
@@ -6431,17 +6431,17 @@
         </is>
       </c>
       <c r="G105">
-        <v>3714</v>
+        <v>1512</v>
       </c>
       <c r="H105">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
+          <t>Xun Gu</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -6463,17 +6463,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Distribution Atlas of COVID-19 Pneumonia on Computed Tomography: A Deep Learning Based Description</t>
+          <t>Molecular Determinants of Antibiotic Resistance in the Costa Rican Pseudomonas aeruginosa AG1 by a Multi-omics Approach: A Review of 10 Years of Study</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00011-4</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00016-z</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D106">
@@ -6481,26 +6481,26 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-06-17</t>
         </is>
       </c>
       <c r="G106">
-        <v>3129</v>
+        <v>3714</v>
       </c>
       <c r="H106">
+        <v>4</v>
+      </c>
+      <c r="I106">
         <v>3</v>
       </c>
-      <c r="I106">
-        <v>2</v>
-      </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Shenghong Ju</t>
+          <t>Jose Arturo Molina-Mora</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -6510,7 +6510,7 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
@@ -6522,12 +6522,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Comparison of Metabolic Profiling of Arabidopsis Inflorescences Between Landsberg erecta and Columbia, and Meiosis-Defective Mutants by 1H-NMR Spectroscopy</t>
+          <t>Distribution Atlas of COVID-19 Pneumonia on Computed Tomography: A Deep Learning Based Description</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00012-3</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00011-4</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -6549,17 +6549,17 @@
         </is>
       </c>
       <c r="G107">
-        <v>2176</v>
+        <v>3129</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I107">
         <v>2</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Limin Zhang, Yingxiang Wang</t>
+          <t>Shenghong Ju</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -6581,17 +6581,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>High-Throughput Phenotyping: A Platform to Accelerate Crop Improvement</t>
+          <t>Comparison of Metabolic Profiling of Arabidopsis Inflorescences Between Landsberg erecta and Columbia, and Meiosis-Defective Mutants by 1H-NMR Spectroscopy</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-020-00007-6</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00012-3</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D108">
@@ -6608,17 +6608,17 @@
         </is>
       </c>
       <c r="G108">
-        <v>4827</v>
+        <v>2176</v>
       </c>
       <c r="H108">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="I108">
         <v>2</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Neelam R. Yadav</t>
+          <t>Limin Zhang, Yingxiang Wang</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -6640,17 +6640,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Effect of Light on Cognitive Function During a Stroop Task Using Functional Near-Infrared Spectroscopy</t>
+          <t>High-Throughput Phenotyping: A Platform to Accelerate Crop Improvement</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00010-5</t>
+          <t>http://link.springer.com/article/10.1007/s43657-020-00007-6</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D109">
@@ -6658,26 +6658,26 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021-04-19</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="G109">
-        <v>3527</v>
+        <v>4827</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="I109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Wei Chen</t>
+          <t>Neelam R. Yadav</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -6699,12 +6699,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Using Composite Phenotypes to Reveal Hidden Physiological Heterogeneity in High-Altitude Acclimatization in a Chinese Han Longitudinal Cohort</t>
+          <t>Effect of Light on Cognitive Function During a Stroop Task Using Functional Near-Infrared Spectroscopy</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-020-00005-8</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00010-5</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -6717,26 +6717,26 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021-02-22</t>
+          <t>2021-04-19</t>
         </is>
       </c>
       <c r="G110">
-        <v>6264</v>
+        <v>3527</v>
       </c>
       <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110">
         <v>3</v>
       </c>
-      <c r="I110">
-        <v>14</v>
-      </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Li Jin</t>
+          <t>Wei Chen</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -6746,7 +6746,7 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
@@ -6758,12 +6758,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>The Ultrafast and Accurate Mapping Algorithm FANSe3: Mapping a Human Whole-Genome Sequencing Dataset Within 30 Minutes</t>
+          <t>Using Composite Phenotypes to Reveal Hidden Physiological Heterogeneity in High-Altitude Acclimatization in a Chinese Han Longitudinal Cohort</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-020-00008-5</t>
+          <t>http://link.springer.com/article/10.1007/s43657-020-00005-8</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -6785,17 +6785,17 @@
         </is>
       </c>
       <c r="G111">
-        <v>4817</v>
+        <v>6264</v>
       </c>
       <c r="H111">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I111">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Gong Zhang, Jingjie Jin</t>
+          <t>Jiucun Wang, Li Jin</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -6817,17 +6817,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>In Situ Saturating Mutagenesis Screening Identifies a Functional Genomic Locus that Regulates Ucp1 Expression</t>
+          <t>The Ultrafast and Accurate Mapping Algorithm FANSe3: Mapping a Human Whole-Genome Sequencing Dataset Within 30 Minutes</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-020-00006-7</t>
+          <t>http://link.springer.com/article/10.1007/s43657-020-00008-5</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D112">
@@ -6844,17 +6844,17 @@
         </is>
       </c>
       <c r="G112">
-        <v>2722</v>
+        <v>4817</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Qiurong Ding</t>
+          <t>Gong Zhang, Jingjie Jin</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -6876,17 +6876,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Welcome to the Phenomics Journal</t>
+          <t>In Situ Saturating Mutagenesis Screening Identifies a Functional Genomic Locus that Regulates Ucp1 Expression</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-020-00009-4</t>
+          <t>http://link.springer.com/article/10.1007/s43657-020-00006-7</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Editorial</t>
+          <t>Correspondence</t>
         </is>
       </c>
       <c r="D113">
@@ -6894,39 +6894,98 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2021-02-22</t>
+        </is>
+      </c>
+      <c r="G113">
+        <v>2722</v>
+      </c>
+      <c r="H113">
+        <v>2</v>
+      </c>
+      <c r="I113">
+        <v>2</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Qiurong Ding</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Welcome to the Phenomics Journal</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>http://link.springer.com/article/10.1007/s43657-020-00009-4</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Editorial</t>
+        </is>
+      </c>
+      <c r="D114">
+        <v>2021</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
           <t>2021-01</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>2021-01-11</t>
         </is>
       </c>
-      <c r="G113">
+      <c r="G114">
         <v>5415</v>
       </c>
-      <c r="H113">
+      <c r="H114">
         <v>7</v>
       </c>
-      <c r="I113">
+      <c r="I114">
         <v>7</v>
       </c>
-      <c r="J113" t="inlineStr">
+      <c r="J114" t="inlineStr">
         <is>
           <t>Li Jin</t>
         </is>
       </c>
-      <c r="K113" t="inlineStr">
+      <c r="K114" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L113" t="inlineStr">
+      <c r="L114" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M113" t="inlineStr">
+      <c r="M114" t="inlineStr">
         <is>
           <t>2023-09-18</t>
         </is>
